--- a/bench/malte.xlsx
+++ b/bench/malte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="1840" windowWidth="48720" windowHeight="24660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="30160" yWindow="1840" windowWidth="48720" windowHeight="24660" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bench1" sheetId="1" r:id="rId1"/>
@@ -2385,11 +2385,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$2</c:f>
+              <c:f>Sheet5!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>no activate layer</c:v>
+                  <c:v>1 active layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2434,30 +2434,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$2:$H$2</c:f>
+              <c:f>Sheet5!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.74973544973545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.915578358208955</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>0.711285876439111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>0.872632207040929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>0.427753934191702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>0.175630928942187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2468,11 +2468,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$3</c:f>
+              <c:f>Sheet5!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 active layer</c:v>
+                  <c:v>2 active layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2517,30 +2517,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$3:$H$3</c:f>
+              <c:f>Sheet5!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.74973544973545</c:v>
+                  <c:v>0.662459093034128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.915578358208955</c:v>
+                  <c:v>0.671708185053381</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.711285876439111</c:v>
+                  <c:v>0.52009722551577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.872632207040929</c:v>
+                  <c:v>0.761629446553094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.427753934191702</c:v>
+                  <c:v>0.150678028220634</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.175630928942187</c:v>
+                  <c:v>0.0495781123686338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,11 +2551,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$4</c:f>
+              <c:f>Sheet5!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 active layer</c:v>
+                  <c:v>3 active layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2600,30 +2600,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$4:$H$4</c:f>
+              <c:f>Sheet5!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.662459093034128</c:v>
+                  <c:v>0.571774437607182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.671708185053381</c:v>
+                  <c:v>0.637006749740395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52009722551577</c:v>
+                  <c:v>0.38593172620095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.761629446553094</c:v>
+                  <c:v>0.675579392420921</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.150678028220634</c:v>
+                  <c:v>0.0501739077373688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0495781123686338</c:v>
+                  <c:v>0.0157797825807282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,11 +2634,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$5</c:f>
+              <c:f>Sheet5!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3 active layer</c:v>
+                  <c:v>4 active layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2683,30 +2683,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$5:$H$5</c:f>
+              <c:f>Sheet5!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.571774437607182</c:v>
+                  <c:v>0.225601018946028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.637006749740395</c:v>
+                  <c:v>0.530655276816609</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38593172620095</c:v>
+                  <c:v>0.29404075613353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.675579392420921</c:v>
+                  <c:v>0.599592789737745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0501739077373688</c:v>
+                  <c:v>0.0375662463450292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0157797825807282</c:v>
+                  <c:v>0.0109183060352501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2717,11 +2717,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$6</c:f>
+              <c:f>Sheet5!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 active layer</c:v>
+                  <c:v>5 active layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2729,89 +2729,6 @@
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4198AF"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$B$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.225601018946028</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.530655276816609</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29404075613353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.599592789737745</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0375662463450292</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0109183060352501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 active layer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DB843D"/>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -3854,7 +3771,7 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -5976,7 +5893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -6382,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/bench/malte.xlsx
+++ b/bench/malte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="1840" windowWidth="48720" windowHeight="24660" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="30160" yWindow="1840" windowWidth="48720" windowHeight="24660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bench1" sheetId="1" r:id="rId1"/>
@@ -2288,7 +2288,6 @@
         <c:axId val="-2105169048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.04"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2302,7 +2301,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3439,8 +3438,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5893,8 +5892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6299,8 +6298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/bench/malte.xlsx
+++ b/bench/malte.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="1840" windowWidth="48720" windowHeight="24660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bench1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -99,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,7 +133,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Source Code Pro"/>
     </font>
@@ -254,22 +256,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="94">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -872,11 +876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2100366120"/>
-        <c:axId val="-2097229960"/>
+        <c:axId val="-2145839352"/>
+        <c:axId val="-2145836088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100366120"/>
+        <c:axId val="-2145839352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +898,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2097229960"/>
+        <c:crossAx val="-2145836088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -902,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097229960"/>
+        <c:axId val="-2145836088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -931,7 +935,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2100366120"/>
+        <c:crossAx val="-2145839352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1041,10 +1045,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.010942463819272</c:v>
+                  <c:v>3.042993344126641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.293637846655791</c:v>
+                  <c:v>4.189976252968379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,10 +1098,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.810226893560227</c:v>
+                  <c:v>0.841919972522754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.569625246548323</c:v>
+                  <c:v>2.601038961038961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,10 +1151,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.487611121619066</c:v>
+                  <c:v>0.510296136497352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0074378547661</c:v>
+                  <c:v>2.182041066503217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,10 +1204,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.379756665803779</c:v>
+                  <c:v>0.395482845409988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.00261224489796</c:v>
+                  <c:v>2.024945950440712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,10 +1257,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.275382417212977</c:v>
+                  <c:v>0.277562373567094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.860876451953538</c:v>
+                  <c:v>0.902904787520172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,10 +1310,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.289515160612429</c:v>
+                  <c:v>0.294604371921182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.950633837152608</c:v>
+                  <c:v>0.945786826934871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,10 +1363,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.269506267587618</c:v>
+                  <c:v>0.269481778237271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.853070399509553</c:v>
+                  <c:v>0.832150821001419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,10 +1416,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.116929391619662</c:v>
+                  <c:v>0.120892139693005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.169688492885758</c:v>
+                  <c:v>0.168771282633371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,10 +1469,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0536271286460968</c:v>
+                  <c:v>0.0550017262213016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0546699498876793</c:v>
+                  <c:v>0.0555808212058212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,10 +1522,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0465912194455824</c:v>
+                  <c:v>0.0464943244739756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0478105373342638</c:v>
+                  <c:v>0.0479021103664623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,11 +1540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2089930984"/>
-        <c:axId val="-2089494392"/>
+        <c:axId val="2074115208"/>
+        <c:axId val="2074111544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2089930984"/>
+        <c:axId val="2074115208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1562,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2089494392"/>
+        <c:crossAx val="2074111544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089494392"/>
+        <c:axId val="2074111544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -1595,7 +1599,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2089930984"/>
+        <c:crossAx val="2074115208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1720,7 +1724,7 @@
                   <c:v>0.000547716181384589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0405330991784736</c:v>
+                  <c:v>0.0408880651880897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,7 +1789,7 @@
                   <c:v>0.000306217387968078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0403172157837611</c:v>
+                  <c:v>0.0406786663792484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,7 +1854,7 @@
                   <c:v>0.000260445957683463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0374153892096357</c:v>
+                  <c:v>0.0381462559097148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,7 +1919,7 @@
                   <c:v>0.000208129080773653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0369133048875097</c:v>
+                  <c:v>0.0378660216887056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,7 +1984,7 @@
                   <c:v>0.000441011229189147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0358591460033272</c:v>
+                  <c:v>0.0360283756863126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,7 +2049,7 @@
                   <c:v>0.000454510615258836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0364178382951295</c:v>
+                  <c:v>0.0353800330641746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2110,7 +2114,7 @@
                   <c:v>0.000539118812376787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0354702887035598</c:v>
+                  <c:v>0.0358148486972638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,7 +2179,7 @@
                   <c:v>0.000506861863938053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0350176940169533</c:v>
+                  <c:v>0.0342998843472915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,7 +2244,7 @@
                   <c:v>0.000546189101180195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0335328247064736</c:v>
+                  <c:v>0.0339139392236737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2255,11 +2259,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2096098424"/>
-        <c:axId val="-2105169048"/>
+        <c:axId val="-2143991112"/>
+        <c:axId val="-2143987896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2096098424"/>
+        <c:axId val="-2143991112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2281,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2105169048"/>
+        <c:crossAx val="-2143987896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2285,7 +2289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105169048"/>
+        <c:axId val="-2143987896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,7 +2317,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2096098424"/>
+        <c:crossAx val="-2143991112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2450,13 +2454,13 @@
                   <c:v>0.711285876439111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.872632207040929</c:v>
+                  <c:v>0.89419387044105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.427753934191702</c:v>
+                  <c:v>1.031339484568883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.175630928942187</c:v>
+                  <c:v>0.75500196155355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,13 +2537,13 @@
                   <c:v>0.52009722551577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.761629446553094</c:v>
+                  <c:v>0.812955013898606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.150678028220634</c:v>
+                  <c:v>0.676863645855085</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0495781123686338</c:v>
+                  <c:v>0.301503994986683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2616,13 +2620,13 @@
                   <c:v>0.38593172620095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.675579392420921</c:v>
+                  <c:v>0.732649392036401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0501739077373688</c:v>
+                  <c:v>0.124884419787332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0157797825807282</c:v>
+                  <c:v>0.0347633670520231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2699,13 +2703,13 @@
                   <c:v>0.29404075613353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.599592789737745</c:v>
+                  <c:v>0.669795594054778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0375662463450292</c:v>
+                  <c:v>0.116500143760782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0109183060352501</c:v>
+                  <c:v>0.0328054684303832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,13 +2786,13 @@
                   <c:v>0.227444778595873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.548325188579127</c:v>
+                  <c:v>0.610752795101646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0275922818791946</c:v>
+                  <c:v>0.10867305887086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00883817913243983</c:v>
+                  <c:v>0.030477955150133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2803,11 +2807,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2090534728"/>
-        <c:axId val="-2090388872"/>
+        <c:axId val="-2143929816"/>
+        <c:axId val="-2143926456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2090534728"/>
+        <c:axId val="-2143929816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,7 +2829,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2090388872"/>
+        <c:crossAx val="-2143926456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2833,7 +2837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090388872"/>
+        <c:axId val="-2143926456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2862,7 +2866,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2090534728"/>
+        <c:crossAx val="-2143929816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3043,406 +3047,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="benchmark 1"/>
-      <sheetName val="benchmark 2"/>
-      <sheetName val="graphics"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>ContextL</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>ContextS</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>ContextJ</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>ContextLogicAJ</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>ContextJ*</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v>ContextR</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>ContextPy</v>
-          </cell>
-          <cell r="I15" t="str">
-            <v>PyContext</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>ContextG</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>ContextJS</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>no activate layer</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>1</v>
-          </cell>
-          <cell r="D16">
-            <v>2.9038608118085254E-2</v>
-          </cell>
-          <cell r="E16">
-            <v>3.7956236593445693E-2</v>
-          </cell>
-          <cell r="F16">
-            <v>1.7592525337410733E-2</v>
-          </cell>
-          <cell r="G16">
-            <v>4.5312499999999999E-2</v>
-          </cell>
-          <cell r="H16">
-            <v>7.8157136980666397E-2</v>
-          </cell>
-          <cell r="I16">
-            <v>4.0312628547922669E-2</v>
-          </cell>
-          <cell r="J16">
-            <v>3.4090909090909088E-2</v>
-          </cell>
-          <cell r="K16">
-            <v>1.0241906899810964E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>1 active layer</v>
-          </cell>
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-          <cell r="C17">
-            <v>1.7880327406152978E-3</v>
-          </cell>
-          <cell r="D17">
-            <v>4.600973474726075E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>5.3517829021652912E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>3.1578894855084634E-3</v>
-          </cell>
-          <cell r="G17">
-            <v>2.4618991793669401E-2</v>
-          </cell>
-          <cell r="H17">
-            <v>6.1614730878186967E-2</v>
-          </cell>
-          <cell r="I17">
-            <v>3.6118980169971671E-2</v>
-          </cell>
-          <cell r="J17">
-            <v>9.5948827292110881E-3</v>
-          </cell>
-          <cell r="K17">
-            <v>9.7106777493606144E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>2 active layer</v>
-          </cell>
-          <cell r="B18">
-            <v>0</v>
-          </cell>
-          <cell r="C18">
-            <v>5.0940295782362613E-4</v>
-          </cell>
-          <cell r="D18">
-            <v>4.8270927954760005E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>6.6952540521018816E-2</v>
-          </cell>
-          <cell r="F18">
-            <v>3.350941395097934E-3</v>
-          </cell>
-          <cell r="G18">
-            <v>2.0312500000000001E-2</v>
-          </cell>
-          <cell r="H18">
-            <v>5.9981255857544519E-2</v>
-          </cell>
-          <cell r="I18">
-            <v>3.280224929709466E-2</v>
-          </cell>
-          <cell r="J18">
-            <v>7.1191135734072018E-3</v>
-          </cell>
-          <cell r="K18">
-            <v>9.1947702834799597E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>3 active layer</v>
-          </cell>
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>2.211652794292509E-4</v>
-          </cell>
-          <cell r="D19">
-            <v>0.20437260224799766</v>
-          </cell>
-          <cell r="E19">
-            <v>0.26431920669463577</v>
-          </cell>
-          <cell r="F19">
-            <v>1.6276669732797882E-2</v>
-          </cell>
-          <cell r="G19">
-            <v>1.953125E-2</v>
-          </cell>
-          <cell r="H19">
-            <v>5.9718969555035126E-2</v>
-          </cell>
-          <cell r="I19">
-            <v>3.2786885245901641E-2</v>
-          </cell>
-          <cell r="J19">
-            <v>5.4455445544554452E-3</v>
-          </cell>
-          <cell r="K19">
-            <v>8.5691295157571089E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>4 active layer</v>
-          </cell>
-          <cell r="B20">
-            <v>0</v>
-          </cell>
-          <cell r="C20">
-            <v>8.5763293310463115E-5</v>
-          </cell>
-          <cell r="D20">
-            <v>0.22204741350330121</v>
-          </cell>
-          <cell r="E20">
-            <v>0.29343660494574209</v>
-          </cell>
-          <cell r="F20">
-            <v>2.0560194710019228E-2</v>
-          </cell>
-          <cell r="G20">
-            <v>1.7204301075268817E-2</v>
-          </cell>
-          <cell r="H20">
-            <v>5.8659217877094973E-2</v>
-          </cell>
-          <cell r="I20">
-            <v>3.0726256983240222E-2</v>
-          </cell>
-          <cell r="J20">
-            <v>4.9402390438247007E-3</v>
-          </cell>
-          <cell r="K20">
-            <v>8.4841628959276029E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>5 active layer</v>
-          </cell>
-          <cell r="B21">
-            <v>0</v>
-          </cell>
-          <cell r="C21">
-            <v>9.1370558375634522E-5</v>
-          </cell>
-          <cell r="D21">
-            <v>0.1727564829966913</v>
-          </cell>
-          <cell r="E21">
-            <v>0.23878689425339528</v>
-          </cell>
-          <cell r="F21">
-            <v>1.8215697750809254E-2</v>
-          </cell>
-          <cell r="G21">
-            <v>1.643835616438356E-2</v>
-          </cell>
-          <cell r="H21">
-            <v>6.030150753768844E-2</v>
-          </cell>
-          <cell r="I21">
-            <v>3.015075376884422E-2</v>
-          </cell>
-          <cell r="J21">
-            <v>4.5192307692307693E-3</v>
-          </cell>
-          <cell r="K21">
-            <v>8.3214434855233867E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>6 active layer</v>
-          </cell>
-          <cell r="B22">
-            <v>0</v>
-          </cell>
-          <cell r="C22">
-            <v>3.4155597722960151E-5</v>
-          </cell>
-          <cell r="D22">
-            <v>0.13483703620164655</v>
-          </cell>
-          <cell r="E22">
-            <v>0.17014773880681178</v>
-          </cell>
-          <cell r="F22">
-            <v>1.7266268185406563E-2</v>
-          </cell>
-          <cell r="G22">
-            <v>1.5625E-2</v>
-          </cell>
-          <cell r="H22">
-            <v>5.904761904761905E-2</v>
-          </cell>
-          <cell r="I22">
-            <v>3.0476190476190476E-2</v>
-          </cell>
-          <cell r="J22">
-            <v>3.8805970149253734E-3</v>
-          </cell>
-          <cell r="K22">
-            <v>8.1021341463414637E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>7 active layer</v>
-          </cell>
-          <cell r="B23">
-            <v>0</v>
-          </cell>
-          <cell r="C23">
-            <v>4.6590427784836932E-5</v>
-          </cell>
-          <cell r="D23">
-            <v>0.12997898470621105</v>
-          </cell>
-          <cell r="E23">
-            <v>0.20201406688451307</v>
-          </cell>
-          <cell r="F23">
-            <v>1.8379271388831525E-2</v>
-          </cell>
-          <cell r="G23">
-            <v>1.6611295681063124E-2</v>
-          </cell>
-          <cell r="H23">
-            <v>5.6133056133056136E-2</v>
-          </cell>
-          <cell r="I23">
-            <v>2.9106029106029108E-2</v>
-          </cell>
-          <cell r="J23">
-            <v>3.9411764705882353E-3</v>
-          </cell>
-          <cell r="K23">
-            <v>8.0718085106382988E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>8 active layer</v>
-          </cell>
-          <cell r="B24">
-            <v>0</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>0.14802365477419174</v>
-          </cell>
-          <cell r="E24">
-            <v>0.21011743702753216</v>
-          </cell>
-          <cell r="F24">
-            <v>2.0697927417780135E-2</v>
-          </cell>
-          <cell r="G24">
-            <v>1.4869888475836431E-2</v>
-          </cell>
-          <cell r="H24">
-            <v>5.6433408577878104E-2</v>
-          </cell>
-          <cell r="I24">
-            <v>2.7088036117381489E-2</v>
-          </cell>
-          <cell r="J24">
-            <v>3.725490196078431E-3</v>
-          </cell>
-          <cell r="K24">
-            <v>7.5610632183908044E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>9 active layer</v>
-          </cell>
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>0.1497682457380784</v>
-          </cell>
-          <cell r="E25">
-            <v>0.21478513630293031</v>
-          </cell>
-          <cell r="F25">
-            <v>2.4023882473092936E-2</v>
-          </cell>
-          <cell r="G25">
-            <v>1.5625E-2</v>
-          </cell>
-          <cell r="H25">
-            <v>5.3398058252427182E-2</v>
-          </cell>
-          <cell r="I25">
-            <v>2.6699029126213591E-2</v>
-          </cell>
-          <cell r="J25">
-            <v>3.529411764705882E-3</v>
-          </cell>
-          <cell r="K25">
-            <v>8.2817832764505109E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3770,2102 +3374,2104 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="21.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="21.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="21.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="16" width="21.5" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="1"/>
-    <col min="19" max="19" width="21.5" style="4" customWidth="1"/>
-    <col min="20" max="20" width="17" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="21.5" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="6" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>819200000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>6.9630000000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <f>B3/C3</f>
         <v>117650438.02958494</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>838860800</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>7.7190000000000003</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <f>E3/F3</f>
         <v>108674802.43554865</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5">
         <v>9.5549999999999997</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="8">
         <f>H3/I3</f>
         <v>351171449.50287807</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="5">
         <v>3355443200</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="5">
         <v>9.8190000000000008</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="8">
         <f>K3/L3</f>
         <v>341729626.23485076</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="5">
         <v>25600000</v>
       </c>
-      <c r="O3" s="1">
-        <v>5.4470000000000001</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="O3" s="5">
+        <v>5.3390000000000004</v>
+      </c>
+      <c r="P3" s="8">
         <f>N3/O3</f>
-        <v>4699834.7714338163</v>
-      </c>
-      <c r="Q3" s="1">
+        <v>4794905.4129986884</v>
+      </c>
+      <c r="Q3" s="5">
         <v>819200000</v>
       </c>
-      <c r="R3" s="1">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="S3" s="4">
+      <c r="R3" s="5">
+        <v>8.4580000000000002</v>
+      </c>
+      <c r="S3" s="8">
         <f>Q3/R3</f>
-        <v>96037514.654161796</v>
-      </c>
-      <c r="T3" s="1">
+        <v>96855048.47481674</v>
+      </c>
+      <c r="T3" s="5">
         <v>819200000</v>
       </c>
-      <c r="U3" s="1">
-        <v>8.5540000000000003</v>
-      </c>
-      <c r="V3" s="4">
+      <c r="U3" s="5">
+        <v>8.3810000000000002</v>
+      </c>
+      <c r="V3" s="8">
         <f>T3/U3</f>
-        <v>95768061.725508526</v>
+        <v>97744899.17670922</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>409600000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>5.2130000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <f t="shared" ref="D4:D12" si="0">B4/C4</f>
         <v>78572798.77230002</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>838860800</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>8.2560000000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="8">
         <f t="shared" ref="G4:G12" si="1">E4/F4</f>
         <v>101606201.55038759</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <v>9.6029999999999998</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="8">
         <f t="shared" ref="J4:J12" si="2">H4/I4</f>
         <v>349416140.78933668</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="5">
         <v>5.1079999999999997</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="8">
         <f t="shared" ref="M4:M12" si="3">K4/L4</f>
         <v>328449804.22866094</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="5">
         <v>25600000</v>
       </c>
-      <c r="O4" s="1">
-        <v>9.2119999999999997</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="O4" s="5">
+        <v>9.0579999999999998</v>
+      </c>
+      <c r="P4" s="8">
         <f t="shared" ref="P4:P12" si="4">N4/O4</f>
-        <v>2778983.9339991314</v>
-      </c>
-      <c r="Q4" s="1">
+        <v>2826230.9560609409</v>
+      </c>
+      <c r="Q4" s="5">
         <v>819200000</v>
       </c>
-      <c r="R4" s="1">
-        <v>9.7129999999999992</v>
-      </c>
-      <c r="S4" s="4">
+      <c r="R4" s="5">
+        <v>9.8049999999999997</v>
+      </c>
+      <c r="S4" s="8">
         <f t="shared" ref="S4:S12" si="5">Q4/R4</f>
-        <v>84340574.487799868</v>
-      </c>
-      <c r="T4" s="1">
-        <v>819200000</v>
-      </c>
-      <c r="U4" s="1">
-        <v>9.7710000000000008</v>
-      </c>
-      <c r="V4" s="4">
+        <v>83549209.586945444</v>
+      </c>
+      <c r="T4" s="5">
+        <v>409600000</v>
+      </c>
+      <c r="U4" s="5">
+        <v>5.0069999999999997</v>
+      </c>
+      <c r="V4" s="8">
         <f t="shared" ref="V4:V12" si="6">T4/U4</f>
-        <v>83839934.500051171</v>
+        <v>81805472.33872579</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>409600000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>6.41</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>63900156.006240249</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>838860800</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>8.8960000000000008</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <f t="shared" si="1"/>
         <v>94296402.87769784</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <v>9.59</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="8">
         <f t="shared" si="2"/>
         <v>349889801.87695515</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="5">
         <v>5.335</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="8">
         <f t="shared" si="3"/>
         <v>314474526.71040303</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="5">
         <v>12800000</v>
       </c>
-      <c r="O5" s="1">
-        <v>6.0140000000000002</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="O5" s="5">
+        <v>6.0030000000000001</v>
+      </c>
+      <c r="P5" s="8">
         <f t="shared" si="4"/>
-        <v>2128367.1433322248</v>
-      </c>
-      <c r="Q5" s="1">
+        <v>2132267.1997334664</v>
+      </c>
+      <c r="Q5" s="5">
         <v>409600000</v>
       </c>
-      <c r="R5" s="1">
-        <v>5.1559999999999997</v>
-      </c>
-      <c r="S5" s="4">
+      <c r="R5" s="5">
+        <v>5.2039999999999997</v>
+      </c>
+      <c r="S5" s="8">
         <f t="shared" si="5"/>
-        <v>79441427.463149726</v>
-      </c>
-      <c r="T5" s="1">
+        <v>78708685.626441196</v>
+      </c>
+      <c r="T5" s="5">
         <v>409600000</v>
       </c>
-      <c r="U5" s="1">
-        <v>5.1280000000000001</v>
-      </c>
-      <c r="V5" s="4">
+      <c r="U5" s="5">
+        <v>5.34</v>
+      </c>
+      <c r="V5" s="8">
         <f t="shared" si="6"/>
-        <v>79875195.007800311</v>
+        <v>76704119.850187272</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>409600000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>8.3510000000000009</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>49048018.201412998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>419430400</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>5.7960000000000003</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
         <v>72365493.443754315</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <v>9.5760000000000005</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="8">
         <f t="shared" si="2"/>
         <v>350401336.67502087</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="5">
         <v>5.19</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="8">
         <f t="shared" si="3"/>
         <v>323260423.89210016</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="5">
         <v>12800000</v>
       </c>
-      <c r="O6" s="1">
-        <v>7.6130000000000004</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="O6" s="5">
+        <v>7.64</v>
+      </c>
+      <c r="P6" s="8">
         <f t="shared" si="4"/>
-        <v>1681334.5593064495</v>
-      </c>
-      <c r="Q6" s="1">
+        <v>1675392.6701570682</v>
+      </c>
+      <c r="Q6" s="5">
         <v>409600000</v>
       </c>
-      <c r="R6" s="1">
-        <v>5.8680000000000003</v>
-      </c>
-      <c r="S6" s="4">
+      <c r="R6" s="5">
+        <v>5.9710000000000001</v>
+      </c>
+      <c r="S6" s="8">
         <f t="shared" si="5"/>
-        <v>69802317.655078381</v>
-      </c>
-      <c r="T6" s="1">
+        <v>68598224.752972707</v>
+      </c>
+      <c r="T6" s="5">
         <v>409600000</v>
       </c>
-      <c r="U6" s="1">
-        <v>6.133</v>
-      </c>
-      <c r="V6" s="4">
+      <c r="U6" s="5">
+        <v>6.0880000000000001</v>
+      </c>
+      <c r="V6" s="8">
         <f t="shared" si="6"/>
-        <v>66786238.382520787</v>
+        <v>67279894.875164255</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>409600000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>9.9830000000000005</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>41029750.575979166</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>419430400</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>5.327</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
         <v>78736699.831049368</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>9.6199999999999992</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="8">
         <f t="shared" si="2"/>
         <v>348798669.43866944</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="5">
         <v>5.859</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="8">
         <f t="shared" si="3"/>
         <v>286349479.43335038</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="5">
         <v>12800000</v>
       </c>
-      <c r="O7" s="1">
-        <v>9.0530000000000008</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="O7" s="5">
+        <v>8.8979999999999997</v>
+      </c>
+      <c r="P7" s="8">
         <f t="shared" si="4"/>
-        <v>1413895.946095217</v>
-      </c>
-      <c r="Q7" s="1">
+        <v>1438525.5113508655</v>
+      </c>
+      <c r="Q7" s="5">
         <v>409600000</v>
       </c>
-      <c r="R7" s="1">
-        <v>6.5529999999999999</v>
-      </c>
-      <c r="S7" s="4">
+      <c r="R7" s="5">
+        <v>6.5860000000000003</v>
+      </c>
+      <c r="S7" s="8">
         <f t="shared" si="5"/>
-        <v>62505722.569815353</v>
-      </c>
-      <c r="T7" s="1">
+        <v>62192529.608259946</v>
+      </c>
+      <c r="T7" s="5">
         <v>409600000</v>
       </c>
-      <c r="U7" s="1">
-        <v>6.5220000000000002</v>
-      </c>
-      <c r="V7" s="4">
+      <c r="U7" s="5">
+        <v>6.7140000000000004</v>
+      </c>
+      <c r="V7" s="8">
         <f t="shared" si="6"/>
-        <v>62802821.22048451</v>
+        <v>61006851.355376817</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>204800000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>5.9749999999999996</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>34276150.627615064</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>419430400</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <v>9.7509999999999994</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="8">
         <f t="shared" si="1"/>
         <v>43014090.862475649</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>5.2380000000000004</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
         <v>320298129.05689192</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="5">
         <v>6.6890000000000001</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="8">
         <f t="shared" si="3"/>
         <v>250817999.70100164</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="5">
         <v>6400000</v>
       </c>
-      <c r="O8" s="1">
-        <v>5.4240000000000004</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="O8" s="5">
+        <v>5.1790000000000003</v>
+      </c>
+      <c r="P8" s="8">
         <f t="shared" si="4"/>
-        <v>1179941.0029498525</v>
-      </c>
-      <c r="Q8" s="1">
+        <v>1235759.7991890325</v>
+      </c>
+      <c r="Q8" s="5">
         <v>409600000</v>
       </c>
-      <c r="R8" s="1">
-        <v>7.7149999999999999</v>
-      </c>
-      <c r="S8" s="4">
+      <c r="R8" s="5">
+        <v>7.6550000000000002</v>
+      </c>
+      <c r="S8" s="8">
         <f t="shared" si="5"/>
-        <v>53091380.427738175</v>
-      </c>
-      <c r="T8" s="1">
+        <v>53507511.430437624</v>
+      </c>
+      <c r="T8" s="5">
         <v>409600000</v>
       </c>
-      <c r="U8" s="1">
-        <v>7.7990000000000004</v>
-      </c>
-      <c r="V8" s="4">
+      <c r="U8" s="5">
+        <v>7.7110000000000003</v>
+      </c>
+      <c r="V8" s="8">
         <f t="shared" si="6"/>
-        <v>52519553.788947299</v>
+        <v>53118921.02191674</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>204800000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>10.78</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>18998144.712430429</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>209715200</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>9.1310000000000002</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="8">
         <f t="shared" si="1"/>
         <v>22967385.828496329</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="5">
         <v>6.22</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="8">
         <f t="shared" si="2"/>
         <v>269730160.7717042</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="5">
         <v>8.9610000000000003</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="8">
         <f t="shared" si="3"/>
         <v>187224818.65863183</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="5">
         <v>6400000</v>
       </c>
-      <c r="O9" s="1">
-        <v>6.1159999999999997</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="O9" s="5">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="P9" s="8">
         <f t="shared" si="4"/>
-        <v>1046435.5788096796</v>
-      </c>
-      <c r="Q9" s="1">
+        <v>1061535.9097694478</v>
+      </c>
+      <c r="Q9" s="5">
         <v>409600000</v>
       </c>
-      <c r="R9" s="1">
-        <v>8.4280000000000008</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="R9" s="5">
+        <v>8.3409999999999993</v>
+      </c>
+      <c r="S9" s="8">
         <f t="shared" si="5"/>
-        <v>48599905.078310393</v>
-      </c>
-      <c r="T9" s="1">
+        <v>49106821.72401391</v>
+      </c>
+      <c r="T9" s="5">
         <v>409600000</v>
       </c>
-      <c r="U9" s="1">
-        <v>8.3490000000000002</v>
-      </c>
-      <c r="V9" s="4">
+      <c r="U9" s="5">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="V9" s="8">
         <f t="shared" si="6"/>
-        <v>49059767.636842735</v>
+        <v>49890377.588306941</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>102400000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>5.0149999999999997</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>20418743.76869392</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>209715200</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <v>8.1069999999999993</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>25868410.016035527</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="5">
         <v>6.9820000000000002</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="8">
         <f t="shared" si="2"/>
         <v>240292409.05184761</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="5">
         <v>9.3840000000000003</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="8">
         <f t="shared" si="3"/>
         <v>178785336.743393</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="5">
         <v>6400000</v>
       </c>
-      <c r="O10" s="1">
-        <v>6.8079999999999998</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="O10" s="5">
+        <v>6.5839999999999996</v>
+      </c>
+      <c r="P10" s="8">
         <f t="shared" si="4"/>
-        <v>940070.50528789661</v>
-      </c>
-      <c r="Q10" s="1">
+        <v>972053.46294046182</v>
+      </c>
+      <c r="Q10" s="5">
         <v>409600000</v>
       </c>
-      <c r="R10" s="1">
-        <v>9.2870000000000008</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="R10" s="5">
+        <v>9.3879999999999999</v>
+      </c>
+      <c r="S10" s="8">
         <f t="shared" si="5"/>
-        <v>44104662.431355655</v>
-      </c>
-      <c r="T10" s="1">
+        <v>43630166.169578187</v>
+      </c>
+      <c r="T10" s="5">
         <v>409600000</v>
       </c>
-      <c r="U10" s="1">
-        <v>9.827</v>
-      </c>
-      <c r="V10" s="4">
+      <c r="U10" s="5">
+        <v>9.516</v>
+      </c>
+      <c r="V10" s="8">
         <f t="shared" si="6"/>
-        <v>41681082.731250636</v>
+        <v>43043295.502311893</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>102400000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>6.2290000000000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>16439235.832396854</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>209715200</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <v>8.7490000000000006</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
         <v>23970190.878957592</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="5">
         <v>8.1199999999999992</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="8">
         <f t="shared" si="2"/>
         <v>206615960.59113303</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="5">
         <v>838860800</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="5">
         <v>5.8289999999999997</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="8">
         <f t="shared" si="3"/>
         <v>143911614.34208271</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="5">
         <v>6400000</v>
       </c>
-      <c r="O11" s="1">
-        <v>7.34</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="O11" s="5">
+        <v>7.2430000000000003</v>
+      </c>
+      <c r="P11" s="8">
         <f t="shared" si="4"/>
-        <v>871934.6049046322</v>
-      </c>
-      <c r="Q11" s="1">
+        <v>883611.763081596</v>
+      </c>
+      <c r="Q11" s="5">
         <v>204800000</v>
       </c>
-      <c r="R11" s="1">
-        <v>5.0890000000000004</v>
-      </c>
-      <c r="S11" s="4">
+      <c r="R11" s="5">
+        <v>5.0979999999999999</v>
+      </c>
+      <c r="S11" s="8">
         <f t="shared" si="5"/>
-        <v>40243662.80212222</v>
-      </c>
-      <c r="T11" s="1">
+        <v>40172616.712436251</v>
+      </c>
+      <c r="T11" s="5">
         <v>204800000</v>
       </c>
-      <c r="U11" s="1">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="V11" s="4">
+      <c r="U11" s="5">
+        <v>5.133</v>
+      </c>
+      <c r="V11" s="8">
         <f t="shared" si="6"/>
-        <v>40458316.870802052</v>
+        <v>39898694.720436394</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>102400000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>6.1890000000000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>16545483.923089352</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>209715200</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>9.5370000000000008</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>21989640.348117854</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <v>8.8940000000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="8">
         <f t="shared" si="2"/>
         <v>188635214.75151786</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="5">
         <v>838860800</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="5">
         <v>6.8090000000000002</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="8">
         <f t="shared" si="3"/>
         <v>123198825.08444706</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="5">
         <v>6400000</v>
       </c>
-      <c r="O12" s="1">
-        <v>8.1080000000000005</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="O12" s="5">
+        <v>8.0510000000000002</v>
+      </c>
+      <c r="P12" s="8">
         <f t="shared" si="4"/>
-        <v>789343.85791810555</v>
-      </c>
-      <c r="Q12" s="1">
+        <v>794932.30654577073</v>
+      </c>
+      <c r="Q12" s="5">
         <v>204800000</v>
       </c>
-      <c r="R12" s="1">
-        <v>5.4589999999999996</v>
-      </c>
-      <c r="S12" s="4">
+      <c r="R12" s="5">
+        <v>5.3739999999999997</v>
+      </c>
+      <c r="S12" s="8">
         <f t="shared" si="5"/>
-        <v>37516028.576662391</v>
-      </c>
-      <c r="T12" s="1">
+        <v>38109415.705247492</v>
+      </c>
+      <c r="T12" s="5">
         <v>204800000</v>
       </c>
-      <c r="U12" s="1">
-        <v>5.4809999999999999</v>
-      </c>
-      <c r="V12" s="4">
+      <c r="U12" s="5">
+        <v>5.375</v>
+      </c>
+      <c r="V12" s="8">
         <f t="shared" si="6"/>
-        <v>37365444.261995986</v>
+        <v>38102325.58139535</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="5"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>409600000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>5.1829999999999998</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <f>B15/C15</f>
         <v>79027590.198726609</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <v>409600</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="5">
         <v>9.1379999999999999</v>
       </c>
-      <c r="G15" s="4">
-        <f>E15/F15</f>
+      <c r="G15" s="8">
+        <f t="shared" ref="G15:G24" si="7">E15/F15</f>
         <v>44823.812650470565</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="5">
         <v>3276800</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="5">
         <v>7.0030000000000001</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="8">
         <f>H15/I15</f>
         <v>467913.75124946452</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="5">
         <v>3276800</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="5">
         <v>17.507000000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="8">
         <f>K15/L15</f>
         <v>187170.84594733533</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="5">
         <v>3200000</v>
       </c>
-      <c r="O15" s="1">
-        <v>16.797999999999998</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="O15" s="5">
+        <v>16.321999999999999</v>
+      </c>
+      <c r="P15" s="8">
         <f>N15/O15</f>
-        <v>190498.86891296585</v>
-      </c>
-      <c r="Q15" s="1">
+        <v>196054.40509741454</v>
+      </c>
+      <c r="Q15" s="5">
         <v>1638400000</v>
       </c>
-      <c r="R15" s="1">
-        <v>5.6660000000000004</v>
-      </c>
-      <c r="S15" s="4">
+      <c r="R15" s="5">
+        <v>5.5590000000000002</v>
+      </c>
+      <c r="S15" s="8">
         <f>Q15/R15</f>
-        <v>289163430.99188137</v>
-      </c>
-      <c r="T15" s="1">
+        <v>294729267.85393053</v>
+      </c>
+      <c r="T15" s="5">
         <v>3276800000</v>
       </c>
-      <c r="U15" s="1">
-        <v>7.9690000000000003</v>
-      </c>
-      <c r="V15" s="4">
+      <c r="U15" s="5">
+        <v>8.0009999999999994</v>
+      </c>
+      <c r="V15" s="8">
         <f>T15/U15</f>
-        <v>411193374.32551134</v>
+        <v>409548806.39920014</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>204800000</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>7.2610000000000001</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" ref="D16:D24" si="7">B16/C16</f>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:D24" si="8">B16/C16</f>
         <v>28205481.338658586</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="5">
         <v>819200</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="5">
         <v>8.5749999999999993</v>
       </c>
-      <c r="G16" s="4">
-        <f>E16/F16</f>
+      <c r="G16" s="8">
+        <f t="shared" si="7"/>
         <v>95533.527696793011</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="5">
         <v>1638400</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="5">
         <v>5.0279999999999996</v>
       </c>
-      <c r="J16" s="4">
-        <f t="shared" ref="J16:J24" si="8">H16/I16</f>
+      <c r="J16" s="8">
+        <f t="shared" ref="J16:J24" si="9">H16/I16</f>
         <v>325855.21081941132</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="5">
         <v>819200</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="5">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M16" s="4">
-        <f t="shared" ref="M16:M24" si="9">K16/L16</f>
+      <c r="M16" s="8">
+        <f t="shared" ref="M16:M24" si="10">K16/L16</f>
         <v>100577.04112952732</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="5">
         <v>3200000</v>
       </c>
-      <c r="O16" s="1">
-        <v>28.561</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" ref="P16:P24" si="10">N16/O16</f>
-        <v>112040.89492664822</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="O16" s="5">
+        <v>27.834</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" ref="P16:P24" si="11">N16/O16</f>
+        <v>114967.30617230725</v>
+      </c>
+      <c r="Q16" s="5">
         <v>409600000</v>
       </c>
-      <c r="R16" s="1">
-        <v>5.9939999999999998</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" ref="S16:S24" si="11">Q16/R16</f>
-        <v>68335001.668335006</v>
-      </c>
-      <c r="T16" s="1">
+      <c r="R16" s="5">
+        <v>5.8230000000000004</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" ref="S16:S24" si="12">Q16/R16</f>
+        <v>70341748.239738956</v>
+      </c>
+      <c r="T16" s="5">
         <v>1638400000</v>
       </c>
-      <c r="U16" s="1">
-        <v>7.6050000000000004</v>
-      </c>
-      <c r="V16" s="4">
-        <f t="shared" ref="V16:V24" si="12">T16/U16</f>
-        <v>215437212.36028928</v>
+      <c r="U16" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" ref="V16:V24" si="13">T16/U16</f>
+        <v>212779220.77922076</v>
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>204800000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>8.7430000000000003</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="8">
+        <f t="shared" si="8"/>
+        <v>23424453.84879332</v>
+      </c>
+      <c r="E17" s="5">
+        <v>409600</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5.3460000000000001</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="7"/>
-        <v>23424453.84879332</v>
-      </c>
-      <c r="E17" s="1">
+        <v>76618.032173587722</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1638400</v>
+      </c>
+      <c r="I17" s="5">
+        <v>6.335</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="9"/>
+        <v>258626.67719021311</v>
+      </c>
+      <c r="K17" s="5">
         <v>409600</v>
       </c>
-      <c r="F17" s="1">
-        <v>5.3460000000000001</v>
-      </c>
-      <c r="G17" s="4">
-        <f>E17/F17</f>
-        <v>76618.032173587722</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1638400</v>
-      </c>
-      <c r="I17" s="1">
-        <v>6.335</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="8"/>
-        <v>258626.67719021311</v>
-      </c>
-      <c r="K17" s="1">
-        <v>409600</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="L17" s="5">
         <v>5.0010000000000003</v>
       </c>
-      <c r="M17" s="4">
-        <f t="shared" si="9"/>
+      <c r="M17" s="8">
+        <f t="shared" si="10"/>
         <v>81903.61927614476</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="5">
         <v>3200000</v>
       </c>
-      <c r="O17" s="1">
-        <v>40.183999999999997</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="10"/>
-        <v>79633.685048775631</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="O17" s="5">
+        <v>39.341999999999999</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="11"/>
+        <v>81338.010268923797</v>
+      </c>
+      <c r="Q17" s="5">
         <v>204800000</v>
       </c>
-      <c r="R17" s="1">
-        <v>5.2869999999999999</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="11"/>
-        <v>38736523.548326083</v>
-      </c>
-      <c r="T17" s="1">
-        <v>819200000</v>
-      </c>
-      <c r="U17" s="1">
-        <v>5.109</v>
-      </c>
-      <c r="V17" s="4">
+      <c r="R17" s="5">
+        <v>5.0990000000000002</v>
+      </c>
+      <c r="S17" s="8">
         <f t="shared" si="12"/>
-        <v>160344490.11548248</v>
+        <v>40164738.183957636</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1638400000</v>
+      </c>
+      <c r="U17" s="5">
+        <v>9.7889999999999997</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="13"/>
+        <v>167371539.48309326</v>
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>204800000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>9.5429999999999993</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
+        <f t="shared" si="8"/>
+        <v>21460756.575500369</v>
+      </c>
+      <c r="E18" s="5">
+        <v>409600</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5.7640000000000002</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="7"/>
-        <v>21460756.575500369</v>
-      </c>
-      <c r="E18" s="1">
+        <v>71061.762664816095</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1638400</v>
+      </c>
+      <c r="I18" s="5">
+        <v>7.4189999999999996</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="9"/>
+        <v>220838.38792290067</v>
+      </c>
+      <c r="K18" s="5">
         <v>409600</v>
       </c>
-      <c r="F18" s="1">
-        <v>5.7640000000000002</v>
-      </c>
-      <c r="G18" s="4">
-        <f>E18/F18</f>
-        <v>71061.762664816095</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1638400</v>
-      </c>
-      <c r="I18" s="1">
-        <v>7.4189999999999996</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="8"/>
-        <v>220838.38792290067</v>
-      </c>
-      <c r="K18" s="1">
-        <v>409600</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="L18" s="5">
         <v>6.0880000000000001</v>
       </c>
-      <c r="M18" s="4">
-        <f t="shared" si="9"/>
+      <c r="M18" s="8">
+        <f t="shared" si="10"/>
         <v>67279.89487516426</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="5">
         <v>3200000</v>
       </c>
-      <c r="O18" s="1">
-        <v>51.56</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="10"/>
-        <v>62063.615205585724</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="O18" s="5">
+        <v>50.441000000000003</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="11"/>
+        <v>63440.45518526595</v>
+      </c>
+      <c r="Q18" s="5">
         <v>204800000</v>
       </c>
-      <c r="R18" s="1">
-        <v>7.726</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="11"/>
-        <v>26507895.41806886</v>
-      </c>
-      <c r="T18" s="1">
+      <c r="R18" s="5">
+        <v>7.5490000000000004</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" si="12"/>
+        <v>27129421.11537952</v>
+      </c>
+      <c r="T18" s="5">
         <v>819200000</v>
       </c>
-      <c r="U18" s="1">
-        <v>6.125</v>
-      </c>
-      <c r="V18" s="4">
-        <f t="shared" si="12"/>
-        <v>133746938.77551021</v>
+      <c r="U18" s="5">
+        <v>6.0129999999999999</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" si="13"/>
+        <v>136238150.67354065</v>
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>102400000</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>5.5579999999999998</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
+        <f t="shared" si="8"/>
+        <v>18423893.486865781</v>
+      </c>
+      <c r="E19" s="5">
+        <v>409600</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6.41</v>
+      </c>
+      <c r="G19" s="8">
         <f t="shared" si="7"/>
-        <v>18423893.486865781</v>
-      </c>
-      <c r="E19" s="1">
-        <v>409600</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6.41</v>
-      </c>
-      <c r="G19" s="4">
-        <f>E19/F19</f>
         <v>63900.15600624025</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="5">
         <v>1638400</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="5">
         <v>8.5779999999999994</v>
       </c>
-      <c r="J19" s="4">
-        <f t="shared" si="8"/>
+      <c r="J19" s="8">
+        <f t="shared" si="9"/>
         <v>191000.23315458151</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="5">
         <v>819200</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="5">
         <v>6.4870000000000001</v>
       </c>
-      <c r="M19" s="4">
-        <f t="shared" si="9"/>
+      <c r="M19" s="8">
+        <f t="shared" si="10"/>
         <v>126283.33590257438</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="5">
         <v>3200000</v>
       </c>
-      <c r="O19" s="1">
-        <v>63.115000000000002</v>
-      </c>
-      <c r="P19" s="4">
-        <f t="shared" si="10"/>
-        <v>50701.101164540916</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="O19" s="5">
+        <v>61.743000000000002</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="11"/>
+        <v>51827.737557293942</v>
+      </c>
+      <c r="Q19" s="5">
         <v>102400000</v>
       </c>
-      <c r="R19" s="1">
-        <v>5.9489999999999998</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="11"/>
-        <v>17212976.970919482</v>
-      </c>
-      <c r="T19" s="1">
+      <c r="R19" s="5">
+        <v>5.9320000000000004</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="12"/>
+        <v>17262306.136210382</v>
+      </c>
+      <c r="T19" s="5">
         <v>409600000</v>
       </c>
-      <c r="U19" s="1">
-        <v>7.5759999999999996</v>
-      </c>
-      <c r="V19" s="4">
-        <f t="shared" si="12"/>
-        <v>54065469.904963046</v>
+      <c r="U19" s="5">
+        <v>7.4359999999999999</v>
+      </c>
+      <c r="V19" s="8">
+        <f t="shared" si="13"/>
+        <v>55083378.160301238</v>
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>102400000</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>6.2489999999999997</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="8">
+        <f t="shared" si="8"/>
+        <v>16386621.859497521</v>
+      </c>
+      <c r="E20" s="5">
+        <v>409600</v>
+      </c>
+      <c r="F20" s="5">
+        <v>7.6260000000000003</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="7"/>
-        <v>16386621.859497521</v>
-      </c>
-      <c r="E20" s="1">
-        <v>409600</v>
-      </c>
-      <c r="F20" s="1">
-        <v>7.6260000000000003</v>
-      </c>
-      <c r="G20" s="4">
-        <f>E20/F20</f>
         <v>53710.988722790455</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="5">
         <v>1638400</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="5">
         <v>9.93</v>
       </c>
-      <c r="J20" s="4">
-        <f t="shared" si="8"/>
+      <c r="J20" s="8">
+        <f t="shared" si="9"/>
         <v>164994.96475327291</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="5">
         <v>819200</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="5">
         <v>7.1859999999999999</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="9"/>
+      <c r="M20" s="8">
+        <f t="shared" si="10"/>
         <v>113999.44336209296</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="5">
         <v>3200000</v>
       </c>
-      <c r="O20" s="1">
-        <v>74.468999999999994</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="10"/>
-        <v>42970.900643220673</v>
-      </c>
-      <c r="Q20" s="1">
+      <c r="O20" s="5">
+        <v>73.191000000000003</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="11"/>
+        <v>43721.222554685686</v>
+      </c>
+      <c r="Q20" s="5">
         <v>102400000</v>
       </c>
-      <c r="R20" s="1">
-        <v>6.6619999999999999</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="11"/>
-        <v>15370759.53167217</v>
-      </c>
-      <c r="T20" s="1">
+      <c r="R20" s="5">
+        <v>6.4960000000000004</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" si="12"/>
+        <v>15763546.798029555</v>
+      </c>
+      <c r="T20" s="5">
         <v>409600000</v>
       </c>
-      <c r="U20" s="1">
-        <v>8.2040000000000006</v>
-      </c>
-      <c r="V20" s="4">
-        <f t="shared" si="12"/>
-        <v>49926864.943929784</v>
+      <c r="U20" s="5">
+        <v>8.1530000000000005</v>
+      </c>
+      <c r="V20" s="8">
+        <f t="shared" si="13"/>
+        <v>50239175.763522625</v>
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>102400000</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>6.915</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="8">
+        <f t="shared" si="8"/>
+        <v>14808387.563268257</v>
+      </c>
+      <c r="E21" s="5">
+        <v>409600</v>
+      </c>
+      <c r="F21" s="5">
+        <v>8.141</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="7"/>
-        <v>14808387.563268257</v>
-      </c>
-      <c r="E21" s="1">
-        <v>409600</v>
-      </c>
-      <c r="F21" s="1">
-        <v>8.141</v>
-      </c>
-      <c r="G21" s="4">
-        <f>E21/F21</f>
         <v>50313.229333005773</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="5">
         <v>819200</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="5">
         <v>5.5250000000000004</v>
       </c>
-      <c r="J21" s="4">
-        <f t="shared" si="8"/>
+      <c r="J21" s="8">
+        <f t="shared" si="9"/>
         <v>148271.49321266968</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="5">
         <v>819200</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="5">
         <v>8.1159999999999997</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="9"/>
+      <c r="M21" s="8">
+        <f t="shared" si="10"/>
         <v>100936.42188270084</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="5">
         <v>3200000</v>
       </c>
-      <c r="O21" s="1">
-        <v>86.212999999999994</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="10"/>
-        <v>37117.372090056029</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="O21" s="5">
+        <v>84.168999999999997</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="11"/>
+        <v>38018.747995105085</v>
+      </c>
+      <c r="Q21" s="5">
         <v>102400000</v>
       </c>
-      <c r="R21" s="1">
-        <v>7.8179999999999996</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="11"/>
-        <v>13097979.022767972</v>
-      </c>
-      <c r="T21" s="1">
+      <c r="R21" s="5">
+        <v>7.7380000000000004</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" si="12"/>
+        <v>13233393.641767899</v>
+      </c>
+      <c r="T21" s="5">
         <v>409600000</v>
       </c>
-      <c r="U21" s="1">
-        <v>9.7870000000000008</v>
-      </c>
-      <c r="V21" s="4">
-        <f t="shared" si="12"/>
-        <v>41851435.577807292</v>
+      <c r="U21" s="5">
+        <v>9.8659999999999997</v>
+      </c>
+      <c r="V21" s="8">
+        <f t="shared" si="13"/>
+        <v>41516318.670180418</v>
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>102400000</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>11.725</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="8">
+        <f t="shared" si="8"/>
+        <v>8733475.4797441363</v>
+      </c>
+      <c r="E22" s="5">
+        <v>409600</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8.6389999999999993</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="7"/>
-        <v>8733475.4797441363</v>
-      </c>
-      <c r="E22" s="1">
-        <v>409600</v>
-      </c>
-      <c r="F22" s="1">
-        <v>8.6389999999999993</v>
-      </c>
-      <c r="G22" s="4">
-        <f>E22/F22</f>
         <v>47412.895010996646</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="5">
         <v>819200</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="5">
         <v>6.12</v>
       </c>
-      <c r="J22" s="4">
-        <f t="shared" si="8"/>
+      <c r="J22" s="8">
+        <f t="shared" si="9"/>
         <v>133856.20915032679</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="5">
         <v>819200</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="5">
         <v>9.0399999999999991</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="9"/>
+      <c r="M22" s="8">
+        <f t="shared" si="10"/>
         <v>90619.469026548686</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="5">
         <v>3200000</v>
       </c>
-      <c r="O22" s="1">
-        <v>97.207999999999998</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="10"/>
-        <v>32919.101308534278</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="O22" s="5">
+        <v>95.977000000000004</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="11"/>
+        <v>33341.321358242079</v>
+      </c>
+      <c r="Q22" s="5">
         <v>51200000</v>
       </c>
-      <c r="R22" s="1">
-        <v>9.9280000000000008</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="11"/>
-        <v>5157131.3456889605</v>
-      </c>
-      <c r="T22" s="1">
+      <c r="R22" s="5">
+        <v>9.7070000000000007</v>
+      </c>
+      <c r="S22" s="8">
+        <f t="shared" si="12"/>
+        <v>5274544.1434016684</v>
+      </c>
+      <c r="T22" s="5">
         <v>51200000</v>
       </c>
-      <c r="U22" s="1">
-        <v>7.2389999999999999</v>
-      </c>
-      <c r="V22" s="4">
-        <f t="shared" si="12"/>
-        <v>7072800.1105125016</v>
+      <c r="U22" s="5">
+        <v>7.048</v>
+      </c>
+      <c r="V22" s="8">
+        <f t="shared" si="13"/>
+        <v>7264472.190692395</v>
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
         <v>8</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>51200000</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>6.2450000000000001</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="8">
+        <f t="shared" si="8"/>
+        <v>8198558.8470776621</v>
+      </c>
+      <c r="E23" s="5">
+        <v>409600</v>
+      </c>
+      <c r="F23" s="5">
+        <v>9.5530000000000008</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="7"/>
-        <v>8198558.8470776621</v>
-      </c>
-      <c r="E23" s="1">
+        <v>42876.583272270487</v>
+      </c>
+      <c r="H23" s="5">
+        <v>819200</v>
+      </c>
+      <c r="I23" s="5">
+        <v>6.61</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="9"/>
+        <v>123933.43419062026</v>
+      </c>
+      <c r="K23" s="5">
         <v>409600</v>
       </c>
-      <c r="F23" s="1">
-        <v>9.5530000000000008</v>
-      </c>
-      <c r="G23" s="4">
-        <f>E23/F23</f>
-        <v>42876.583272270487</v>
-      </c>
-      <c r="H23" s="1">
-        <v>819200</v>
-      </c>
-      <c r="I23" s="1">
-        <v>6.61</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="8"/>
-        <v>123933.43419062026</v>
-      </c>
-      <c r="K23" s="1">
-        <v>409600</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="L23" s="5">
         <v>5.2110000000000003</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="9"/>
+      <c r="M23" s="8">
+        <f t="shared" si="10"/>
         <v>78602.955286893106</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="5">
         <v>3200000</v>
       </c>
-      <c r="O23" s="1">
-        <v>109.44499999999999</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" si="10"/>
-        <v>29238.430261775324</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="O23" s="5">
+        <v>106.785</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="11"/>
+        <v>29966.755630472446</v>
+      </c>
+      <c r="Q23" s="5">
         <v>12800000</v>
       </c>
-      <c r="R23" s="1">
-        <v>5.931</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="11"/>
-        <v>2158152.082279548</v>
-      </c>
-      <c r="T23" s="1">
+      <c r="R23" s="5">
+        <v>5.7930000000000001</v>
+      </c>
+      <c r="S23" s="8">
+        <f t="shared" si="12"/>
+        <v>2209563.2660107026</v>
+      </c>
+      <c r="T23" s="5">
         <v>12800000</v>
       </c>
-      <c r="U23" s="1">
-        <v>5.7869999999999999</v>
-      </c>
-      <c r="V23" s="4">
-        <f t="shared" si="12"/>
-        <v>2211854.1558665978</v>
+      <c r="U23" s="5">
+        <v>5.7720000000000002</v>
+      </c>
+      <c r="V23" s="8">
+        <f t="shared" si="13"/>
+        <v>2217602.2176022176</v>
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
         <v>9</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>51200000</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>8.1649999999999991</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="8">
+        <f t="shared" si="8"/>
+        <v>6270667.4831598289</v>
+      </c>
+      <c r="E24" s="5">
+        <v>204800</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="7"/>
-        <v>6270667.4831598289</v>
-      </c>
-      <c r="E24" s="1">
-        <v>204800</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="G24" s="4">
-        <f>E24/F24</f>
         <v>39039.268013724737</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="5">
         <v>819200</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="5">
         <v>7.2910000000000004</v>
       </c>
-      <c r="J24" s="4">
-        <f t="shared" si="8"/>
+      <c r="J24" s="8">
+        <f t="shared" si="9"/>
         <v>112357.70127554519</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="5">
         <v>409600</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="5">
         <v>5.375</v>
       </c>
-      <c r="M24" s="4">
-        <f t="shared" si="9"/>
+      <c r="M24" s="8">
+        <f t="shared" si="10"/>
         <v>76204.651162790702</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="5">
         <v>3200000</v>
       </c>
-      <c r="O24" s="1">
-        <v>120.92700000000001</v>
-      </c>
-      <c r="P24" s="4">
-        <f t="shared" si="10"/>
-        <v>26462.245817724743</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="O24" s="5">
+        <v>119.71299999999999</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="11"/>
+        <v>26730.597345317554</v>
+      </c>
+      <c r="Q24" s="5">
         <v>12800000</v>
       </c>
-      <c r="R24" s="1">
-        <v>7.3230000000000004</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="11"/>
-        <v>1747917.5201420181</v>
-      </c>
-      <c r="T24" s="1">
+      <c r="R24" s="5">
+        <v>7.2240000000000002</v>
+      </c>
+      <c r="S24" s="8">
+        <f t="shared" si="12"/>
+        <v>1771871.5393133997</v>
+      </c>
+      <c r="T24" s="5">
         <v>12800000</v>
       </c>
-      <c r="U24" s="1">
-        <v>7.165</v>
-      </c>
-      <c r="V24" s="4">
-        <f t="shared" si="12"/>
-        <v>1786461.9678995116</v>
+      <c r="U24" s="5">
+        <v>7.0129999999999999</v>
+      </c>
+      <c r="V24" s="8">
+        <f t="shared" si="13"/>
+        <v>1825181.8052188794</v>
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="1">
+      <c r="A27" s="5">
         <v>0</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>102400000</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>5.6680000000000001</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="8">
         <f>B27/C27</f>
         <v>18066337.33239238</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
         <v>204800</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="5">
         <v>9.8149999999999995</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="8">
         <f>E27/F27</f>
         <v>20866.021395822721</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="5">
         <v>819200</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="5">
         <v>9.0500000000000007</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="8">
         <f>H27/I27</f>
         <v>90519.337016574573</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="5">
         <v>409600</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="5">
         <v>8.7729999999999997</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="8">
         <f>K27/L27</f>
         <v>46688.703978114674</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="5">
         <v>3200000</v>
       </c>
-      <c r="O27" s="1">
-        <v>86.284999999999997</v>
-      </c>
-      <c r="P27" s="4">
+      <c r="O27" s="5">
+        <v>85.983000000000004</v>
+      </c>
+      <c r="P27" s="8">
         <f>N27/O27</f>
-        <v>37086.399721852002</v>
-      </c>
-      <c r="Q27" s="1">
+        <v>37216.659107032785</v>
+      </c>
+      <c r="Q27" s="5">
         <v>102400000</v>
       </c>
-      <c r="R27" s="1">
-        <v>6.5780000000000003</v>
-      </c>
-      <c r="S27" s="4">
+      <c r="R27" s="5">
+        <v>6.4829999999999997</v>
+      </c>
+      <c r="S27" s="8">
         <f>Q27/R27</f>
-        <v>15567041.653998176</v>
-      </c>
-      <c r="T27" s="1">
+        <v>15795156.563319452</v>
+      </c>
+      <c r="T27" s="5">
         <v>409600000</v>
       </c>
-      <c r="U27" s="1">
-        <v>7.85</v>
-      </c>
-      <c r="V27" s="4">
+      <c r="U27" s="5">
+        <v>7.6980000000000004</v>
+      </c>
+      <c r="V27" s="8">
         <f>T27/U27</f>
-        <v>52178343.949044585</v>
+        <v>53208625.617043383</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="1">
+      <c r="A28" s="5">
         <v>1</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>102400000</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>7.56</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" ref="D28:D32" si="13">B28/C28</f>
+      <c r="D28" s="8">
+        <f t="shared" ref="D28:D32" si="14">B28/C28</f>
         <v>13544973.544973545</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
         <v>102400</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="5">
         <v>5.36</v>
       </c>
-      <c r="G28" s="4">
-        <f t="shared" ref="G28:G32" si="14">E28/F28</f>
+      <c r="G28" s="8">
+        <f t="shared" ref="G28:G32" si="15">E28/F28</f>
         <v>19104.477611940296</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="5">
         <v>409600</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="5">
         <v>6.6609999999999996</v>
       </c>
-      <c r="J28" s="4">
-        <f t="shared" ref="J28:J32" si="15">H28/I28</f>
+      <c r="J28" s="8">
+        <f t="shared" ref="J28:J32" si="16">H28/I28</f>
         <v>61492.268428163945</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="5">
         <v>204800</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="5">
         <v>6.1669999999999998</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" ref="M28:M32" si="16">K28/L28</f>
+      <c r="M28" s="8">
+        <f t="shared" ref="M28:M32" si="17">K28/L28</f>
         <v>33209.015728879524</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="5">
         <v>3200000</v>
       </c>
-      <c r="O28" s="1">
-        <v>98.879000000000005</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" ref="P28:P32" si="17">N28/O28</f>
-        <v>32362.7868404818</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>51200000</v>
-      </c>
-      <c r="R28" s="1">
-        <v>7.6890000000000001</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" ref="S28:S32" si="18">Q28/R28</f>
-        <v>6658863.3112238264</v>
-      </c>
-      <c r="T28" s="1">
-        <v>51200000</v>
-      </c>
-      <c r="U28" s="1">
-        <v>5.5869999999999997</v>
-      </c>
-      <c r="V28" s="4">
-        <f t="shared" ref="V28:V32" si="19">T28/U28</f>
-        <v>9164131.0184356552</v>
+      <c r="O28" s="5">
+        <v>96.156999999999996</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" ref="P28:P32" si="18">N28/O28</f>
+        <v>33278.908451802781</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>102400000</v>
+      </c>
+      <c r="R28" s="5">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="S28" s="8">
+        <f t="shared" ref="S28:S32" si="19">Q28/R28</f>
+        <v>16290168.628698697</v>
+      </c>
+      <c r="T28" s="5">
+        <v>204800000</v>
+      </c>
+      <c r="U28" s="5">
+        <v>5.0979999999999999</v>
+      </c>
+      <c r="V28" s="8">
+        <f t="shared" ref="V28:V32" si="20">T28/U28</f>
+        <v>40172616.712436251</v>
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="1">
+      <c r="A29" s="5">
         <v>2</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>102400000</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>8.5559999999999992</v>
       </c>
-      <c r="D29" s="4">
-        <f t="shared" si="13"/>
+      <c r="D29" s="8">
+        <f t="shared" si="14"/>
         <v>11968209.443665266</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <v>102400</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="5">
         <v>7.306</v>
       </c>
-      <c r="G29" s="4">
-        <f t="shared" si="14"/>
+      <c r="G29" s="8">
+        <f t="shared" si="15"/>
         <v>14015.877361073091</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="5">
         <v>409600</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="5">
         <v>9.2970000000000006</v>
       </c>
-      <c r="J29" s="4">
-        <f t="shared" si="15"/>
+      <c r="J29" s="8">
+        <f t="shared" si="16"/>
         <v>44057.222760030112</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="5">
         <v>204800</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="5">
         <v>8.4339999999999993</v>
       </c>
-      <c r="M29" s="4">
-        <f t="shared" si="16"/>
+      <c r="M29" s="8">
+        <f t="shared" si="17"/>
         <v>24282.665401944512</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="5">
         <v>3200000</v>
       </c>
-      <c r="O29" s="1">
-        <v>113.29</v>
-      </c>
-      <c r="P29" s="4">
-        <f t="shared" si="17"/>
-        <v>28246.094094800952</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>12800000</v>
-      </c>
-      <c r="R29" s="1">
-        <v>5.4569999999999999</v>
-      </c>
-      <c r="S29" s="4">
+      <c r="O29" s="5">
+        <v>105.76600000000001</v>
+      </c>
+      <c r="P29" s="8">
         <f t="shared" si="18"/>
-        <v>2345611.1416529231</v>
-      </c>
-      <c r="T29" s="1">
-        <v>25600000</v>
-      </c>
-      <c r="U29" s="1">
-        <v>9.8960000000000008</v>
-      </c>
-      <c r="V29" s="4">
+        <v>30255.469621617533</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>102400000</v>
+      </c>
+      <c r="R29" s="5">
+        <v>9.5779999999999994</v>
+      </c>
+      <c r="S29" s="8">
         <f t="shared" si="19"/>
-        <v>2586903.7995149554</v>
+        <v>10691167.258300273</v>
+      </c>
+      <c r="T29" s="5">
+        <v>102400000</v>
+      </c>
+      <c r="U29" s="5">
+        <v>6.383</v>
+      </c>
+      <c r="V29" s="8">
+        <f t="shared" si="20"/>
+        <v>16042613.191289362</v>
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
         <v>3</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <v>102400000</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>9.9130000000000003</v>
       </c>
-      <c r="D30" s="4">
-        <f t="shared" si="13"/>
+      <c r="D30" s="8">
+        <f t="shared" si="14"/>
         <v>10329869.867850298</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="5">
         <v>102400</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="5">
         <v>7.7039999999999997</v>
       </c>
-      <c r="G30" s="4">
-        <f t="shared" si="14"/>
+      <c r="G30" s="8">
+        <f t="shared" si="15"/>
         <v>13291.796469366564</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="5">
         <v>204800</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="5">
         <v>6.3550000000000004</v>
       </c>
-      <c r="J30" s="4">
-        <f t="shared" si="15"/>
+      <c r="J30" s="8">
+        <f t="shared" si="16"/>
         <v>32226.59323367427</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="5">
         <v>102400</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="5">
         <v>5.6829999999999998</v>
       </c>
-      <c r="M30" s="4">
-        <f t="shared" si="16"/>
+      <c r="M30" s="8">
+        <f t="shared" si="17"/>
         <v>18018.652120358965</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="5">
         <v>3200000</v>
       </c>
-      <c r="O30" s="1">
-        <v>127.72</v>
-      </c>
-      <c r="P30" s="4">
-        <f t="shared" si="17"/>
-        <v>25054.807391168182</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>6400000</v>
-      </c>
-      <c r="R30" s="1">
-        <v>8.1940000000000008</v>
-      </c>
-      <c r="S30" s="4">
+      <c r="O30" s="5">
+        <v>117.35899999999999</v>
+      </c>
+      <c r="P30" s="8">
         <f t="shared" si="18"/>
-        <v>781059.3116914815</v>
-      </c>
-      <c r="T30" s="1">
-        <v>6400000</v>
-      </c>
-      <c r="U30" s="1">
-        <v>7.7729999999999997</v>
-      </c>
-      <c r="V30" s="4">
+        <v>27266.762668393563</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>12800000</v>
+      </c>
+      <c r="R30" s="5">
+        <v>6.4889999999999999</v>
+      </c>
+      <c r="S30" s="8">
         <f t="shared" si="19"/>
-        <v>823362.92293837643</v>
+        <v>1972568.962860225</v>
+      </c>
+      <c r="T30" s="5">
+        <v>12800000</v>
+      </c>
+      <c r="U30" s="5">
+        <v>6.92</v>
+      </c>
+      <c r="V30" s="8">
+        <f t="shared" si="20"/>
+        <v>1849710.9826589595</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="1">
+      <c r="A31" s="5">
         <v>4</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="5">
         <v>25600000</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>6.2809999999999997</v>
       </c>
-      <c r="D31" s="4">
-        <f t="shared" si="13"/>
+      <c r="D31" s="8">
+        <f t="shared" si="14"/>
         <v>4075784.1108103809</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="5">
         <v>102400</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="5">
         <v>9.2479999999999993</v>
       </c>
-      <c r="G31" s="4">
-        <f t="shared" si="14"/>
+      <c r="G31" s="8">
+        <f t="shared" si="15"/>
         <v>11072.664359861592</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="5">
         <v>204800</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="5">
         <v>8.5869999999999997</v>
       </c>
-      <c r="J31" s="4">
-        <f t="shared" si="15"/>
+      <c r="J31" s="8">
+        <f t="shared" si="16"/>
         <v>23850.005822755327</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="5">
         <v>102400</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="5">
         <v>7.4589999999999996</v>
       </c>
-      <c r="M31" s="4">
-        <f t="shared" si="16"/>
+      <c r="M31" s="8">
+        <f t="shared" si="17"/>
         <v>13728.381820619386</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="5">
         <v>3200000</v>
       </c>
-      <c r="O31" s="1">
-        <v>143.90600000000001</v>
-      </c>
-      <c r="P31" s="4">
-        <f t="shared" si="17"/>
-        <v>22236.737870554389</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>3200000</v>
-      </c>
-      <c r="R31" s="1">
-        <v>5.4720000000000004</v>
-      </c>
-      <c r="S31" s="4">
+      <c r="O31" s="5">
+        <v>128.37200000000001</v>
+      </c>
+      <c r="P31" s="8">
         <f t="shared" si="18"/>
-        <v>584795.32163742685</v>
-      </c>
-      <c r="T31" s="1">
-        <v>3200000</v>
-      </c>
-      <c r="U31" s="1">
-        <v>5.617</v>
-      </c>
-      <c r="V31" s="4">
+        <v>24927.554295329195</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>12800000</v>
+      </c>
+      <c r="R31" s="5">
+        <v>6.9560000000000004</v>
+      </c>
+      <c r="S31" s="8">
         <f t="shared" si="19"/>
-        <v>569699.12764821074</v>
+        <v>1840138.0103507761</v>
+      </c>
+      <c r="T31" s="5">
+        <v>12800000</v>
+      </c>
+      <c r="U31" s="5">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="V31" s="8">
+        <f t="shared" si="20"/>
+        <v>1745533.8879039956</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="1">
+      <c r="A32" s="5">
         <v>5</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="5">
         <v>51200000</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>11.465999999999999</v>
       </c>
-      <c r="D32" s="4">
-        <f t="shared" si="13"/>
+      <c r="D32" s="8">
+        <f t="shared" si="14"/>
         <v>4465375.8939473229</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="5">
         <v>51200</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="5">
         <v>5.4160000000000004</v>
       </c>
-      <c r="G32" s="4">
-        <f t="shared" si="14"/>
+      <c r="G32" s="8">
+        <f t="shared" si="15"/>
         <v>9453.4711964549479</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="5">
         <v>102400</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="5">
         <v>5.6340000000000003</v>
       </c>
-      <c r="J32" s="4">
-        <f t="shared" si="15"/>
+      <c r="J32" s="8">
+        <f t="shared" si="16"/>
         <v>18175.363862264821</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="5">
         <v>102400</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="5">
         <v>9.6430000000000007</v>
       </c>
-      <c r="M32" s="4">
-        <f t="shared" si="16"/>
+      <c r="M32" s="8">
+        <f t="shared" si="17"/>
         <v>10619.10193923053</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="5">
         <v>3200000</v>
       </c>
-      <c r="O32" s="1">
-        <v>157.36099999999999</v>
-      </c>
-      <c r="P32" s="4">
-        <f t="shared" si="17"/>
-        <v>20335.407121205382</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>3200000</v>
-      </c>
-      <c r="R32" s="1">
-        <v>7.45</v>
-      </c>
-      <c r="S32" s="4">
+      <c r="O32" s="5">
+        <v>140.78200000000001</v>
+      </c>
+      <c r="P32" s="8">
         <f t="shared" si="18"/>
-        <v>429530.20134228189</v>
-      </c>
-      <c r="T32" s="1">
-        <v>3200000</v>
-      </c>
-      <c r="U32" s="1">
-        <v>6.9390000000000001</v>
-      </c>
-      <c r="V32" s="4">
+        <v>22730.178573965419</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>12800000</v>
+      </c>
+      <c r="R32" s="5">
+        <v>7.4569999999999999</v>
+      </c>
+      <c r="S32" s="8">
         <f t="shared" si="19"/>
-        <v>461161.55065571406</v>
+        <v>1716507.9790800591</v>
+      </c>
+      <c r="T32" s="5">
+        <v>12800000</v>
+      </c>
+      <c r="U32" s="5">
+        <v>7.8929999999999998</v>
+      </c>
+      <c r="V32" s="8">
+        <f t="shared" si="20"/>
+        <v>1621690.1051564678</v>
       </c>
     </row>
   </sheetData>
@@ -5892,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5907,14 +5513,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19">
-      <c r="A1" s="7"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5923,364 +5529,364 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="19">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="4">
         <f>Bench1!D15/Bench1!D3</f>
         <v>0.67171522284391283</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <f>Bench1!G15/Bench1!G3</f>
         <v>4.1245819312212738E-4</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <f>Bench1!J15/Bench1!J3</f>
         <v>1.3324367681707839E-3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <f>Bench1!M15/Bench1!M3</f>
         <v>5.4771618138458906E-4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <f>Bench1!P15/Bench1!P3</f>
-        <v>4.0533099178473635E-2</v>
-      </c>
-      <c r="G2" s="8">
+        <v>4.0888065188089698E-2</v>
+      </c>
+      <c r="G2" s="4">
         <f>Bench1!S15/Bench1!S3</f>
-        <v>3.0109424638192723</v>
-      </c>
-      <c r="H2" s="8">
+        <v>3.042993344126641</v>
+      </c>
+      <c r="H2" s="4">
         <f>Bench1!V15/Bench1!V3</f>
-        <v>4.2936378466557912</v>
+        <v>4.1899762529683793</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="19">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <f>Bench1!D16/Bench1!D4</f>
         <v>0.35897259330670706</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <f>Bench1!G16/Bench1!G4</f>
         <v>9.4023323615160365E-4</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <f>Bench1!J16/Bench1!J4</f>
         <v>9.3257057353818621E-4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <f>Bench1!M16/Bench1!M4</f>
         <v>3.0621738796807857E-4</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <f>Bench1!P16/Bench1!P4</f>
-        <v>4.0317215783761073E-2</v>
-      </c>
-      <c r="G3" s="8">
+        <v>4.0678666379248399E-2</v>
+      </c>
+      <c r="G3" s="4">
         <f>Bench1!S16/Bench1!S4</f>
-        <v>0.81022689356022681</v>
-      </c>
-      <c r="H3" s="8">
+        <v>0.84191997252275441</v>
+      </c>
+      <c r="H3" s="4">
         <f>Bench1!V16/Bench1!V4</f>
-        <v>2.5696252465483234</v>
+        <v>2.6010389610389608</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="19">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <f>Bench1!D17/Bench1!D5</f>
         <v>0.36657897746768842</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <f>Bench1!G17/Bench1!G5</f>
         <v>8.125233819678264E-4</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <f>Bench1!J17/Bench1!J5</f>
         <v>7.3916609116022106E-4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <f>Bench1!M17/Bench1!M5</f>
         <v>2.6044595768346323E-4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <f>Bench1!P17/Bench1!P5</f>
-        <v>3.7415389209635677E-2</v>
-      </c>
-      <c r="G4" s="8">
+        <v>3.8146255909714814E-2</v>
+      </c>
+      <c r="G4" s="4">
         <f>Bench1!S17/Bench1!S5</f>
-        <v>0.48761112161906567</v>
-      </c>
-      <c r="H4" s="8">
+        <v>0.51029613649735239</v>
+      </c>
+      <c r="H4" s="4">
         <f>Bench1!V17/Bench1!V5</f>
-        <v>2.0074378547660992</v>
+        <v>2.1820410665032175</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="19">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <f>Bench1!D18/Bench1!D6</f>
         <v>0.43754584512207911</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <f>Bench1!G18/Bench1!G6</f>
         <v>9.819840822345592E-4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <f>Bench1!J18/Bench1!J6</f>
         <v>6.3024413667610193E-4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <f>Bench1!M18/Bench1!M6</f>
         <v>2.0812908077365313E-4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <f>Bench1!P18/Bench1!P6</f>
-        <v>3.6913304887509699E-2</v>
-      </c>
-      <c r="G5" s="8">
+        <v>3.7866021688705613E-2</v>
+      </c>
+      <c r="G5" s="4">
         <f>Bench1!S18/Bench1!S6</f>
-        <v>0.37975666580377954</v>
-      </c>
-      <c r="H5" s="8">
+        <v>0.39548284540998802</v>
+      </c>
+      <c r="H5" s="4">
         <f>Bench1!V18/Bench1!V6</f>
-        <v>2.0026122448979593</v>
+        <v>2.0249459504407117</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="19">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <f>Bench1!D19/Bench1!D7</f>
         <v>0.44903742353364523</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <f>Bench1!G19/Bench1!G7</f>
         <v>8.1156761895475823E-4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <f>Bench1!J19/Bench1!J7</f>
         <v>5.4759450046630923E-4</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <f>Bench1!M19/Bench1!M7</f>
         <v>4.4101122918914758E-4</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <f>Bench1!P19/Bench1!P7</f>
-        <v>3.5859146003327257E-2</v>
-      </c>
-      <c r="G6" s="8">
+        <v>3.6028375686312612E-2</v>
+      </c>
+      <c r="G6" s="4">
         <f>Bench1!S19/Bench1!S7</f>
-        <v>0.27538241721297696</v>
-      </c>
-      <c r="H6" s="8">
+        <v>0.27756237356709368</v>
+      </c>
+      <c r="H6" s="4">
         <f>Bench1!V19/Bench1!V7</f>
-        <v>0.86087645195353757</v>
+        <v>0.90290478752017223</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="19">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <f>Bench1!D20/Bench1!D8</f>
         <v>0.4780764922387582</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <f>Bench1!G20/Bench1!G8</f>
         <v>1.2486835742853395E-3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <f>Bench1!J20/Bench1!J8</f>
         <v>5.1512934290030214E-4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <f>Bench1!M20/Bench1!M8</f>
         <v>4.5451061525883665E-4</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <f>Bench1!P20/Bench1!P8</f>
-        <v>3.6417838295129519E-2</v>
-      </c>
-      <c r="G7" s="8">
+        <v>3.538003306417456E-2</v>
+      </c>
+      <c r="G7" s="4">
         <f>Bench1!S20/Bench1!S8</f>
-        <v>0.28951516061242866</v>
-      </c>
-      <c r="H7" s="8">
+        <v>0.29460437192118222</v>
+      </c>
+      <c r="H7" s="4">
         <f>Bench1!V20/Bench1!V8</f>
-        <v>0.95063383715260841</v>
+        <v>0.94578682693487059</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="19">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <f>Bench1!D21/Bench1!D9</f>
         <v>0.77946493130874905</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <f>Bench1!G21/Bench1!G9</f>
         <v>2.1906380512222087E-3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <f>Bench1!J21/Bench1!J9</f>
         <v>5.4970305429864253E-4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <f>Bench1!M21/Bench1!M9</f>
         <v>5.3911881237678671E-4</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <f>Bench1!P21/Bench1!P9</f>
-        <v>3.5470288703559789E-2</v>
-      </c>
-      <c r="G8" s="8">
+        <v>3.5814848697263833E-2</v>
+      </c>
+      <c r="G8" s="4">
         <f>Bench1!S21/Bench1!S9</f>
-        <v>0.26950626758761836</v>
-      </c>
-      <c r="H8" s="8">
+        <v>0.2694817782372706</v>
+      </c>
+      <c r="H8" s="4">
         <f>Bench1!V21/Bench1!V9</f>
-        <v>0.85307039950955343</v>
+        <v>0.83215082100141902</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="19">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <f>Bench1!D22/Bench1!D10</f>
         <v>0.42771855010660975</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <f>Bench1!G22/Bench1!G10</f>
         <v>1.8328492157657136E-3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <f>Bench1!J22/Bench1!J10</f>
         <v>5.5705550449346402E-4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <f>Bench1!M22/Bench1!M10</f>
         <v>5.068618639380532E-4</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <f>Bench1!P22/Bench1!P10</f>
-        <v>3.5017694016953337E-2</v>
-      </c>
-      <c r="G9" s="8">
+        <v>3.4299884347291539E-2</v>
+      </c>
+      <c r="G9" s="4">
         <f>Bench1!S22/Bench1!S10</f>
-        <v>0.11692939161966157</v>
-      </c>
-      <c r="H9" s="8">
+        <v>0.12089213969300502</v>
+      </c>
+      <c r="H9" s="4">
         <f>Bench1!V22/Bench1!V10</f>
-        <v>0.16968849288575769</v>
+        <v>0.16877128263337118</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="19">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <f>Bench1!D23/Bench1!D11</f>
         <v>0.49871897518014413</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <f>Bench1!G23/Bench1!G11</f>
         <v>1.788746009107087E-3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <f>Bench1!J23/Bench1!J11</f>
         <v>5.998250756429651E-4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <f>Bench1!M23/Bench1!M11</f>
         <v>5.4618910118019561E-4</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <f>Bench1!P23/Bench1!P11</f>
-        <v>3.353282470647357E-2</v>
-      </c>
-      <c r="G10" s="8">
+        <v>3.3913939223673736E-2</v>
+      </c>
+      <c r="G10" s="4">
         <f>Bench1!S23/Bench1!S11</f>
-        <v>5.3627128646096783E-2</v>
-      </c>
-      <c r="H10" s="8">
+        <v>5.5001726221301568E-2</v>
+      </c>
+      <c r="H10" s="4">
         <f>Bench1!V23/Bench1!V11</f>
-        <v>5.4669949887679287E-2</v>
+        <v>5.5580821205821203E-2</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="19">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <f>Bench1!D24/Bench1!D12</f>
         <v>0.37899571341090021</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <f>Bench1!G24/Bench1!G12</f>
         <v>1.7753481819481509E-3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <f>Bench1!J24/Bench1!J12</f>
         <v>5.9563481518310249E-4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <f>Bench1!M24/Bench1!M12</f>
         <v>6.1855014534883729E-4</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <f>Bench1!P24/Bench1!P12</f>
-        <v>3.3524357670330032E-2</v>
-      </c>
-      <c r="G11" s="8">
+        <v>3.3626256129242443E-2</v>
+      </c>
+      <c r="G11" s="4">
         <f>Bench1!S24/Bench1!S12</f>
-        <v>4.6591219445582407E-2</v>
-      </c>
-      <c r="H11" s="8">
+        <v>4.6494324473975633E-2</v>
+      </c>
+      <c r="H11" s="4">
         <f>Bench1!V24/Bench1!V12</f>
-        <v>4.7810537334263783E-2</v>
+        <v>4.7902110366462289E-2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6298,25 +5904,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="23.6640625" customWidth="1"/>
+    <col min="2" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="7"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -6325,7 +5933,7 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -6333,242 +5941,242 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="19">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="4">
         <f>Bench1!D27/Bench1!D$27</f>
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <f>Bench1!G27/Bench1!G$27</f>
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <f>Bench1!H27/Bench1!H$27</f>
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <f>Bench1!M27/Bench1!M$27</f>
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <f>Bench1!P27/Bench1!P$27</f>
         <v>1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <f>Bench1!S27/Bench1!S$27</f>
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="4">
         <f>Bench1!V27/Bench1!V$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <f>Bench1!D28/Bench1!D$27</f>
         <v>0.7497354497354497</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <f>Bench1!G28/Bench1!G$27</f>
         <v>0.91557835820895506</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <f>Bench1!H28/Bench1!H$27</f>
         <v>0.5</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <f>Bench1!M28/Bench1!M$27</f>
         <v>0.71128587643911145</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <f>Bench1!P28/Bench1!P$27</f>
-        <v>0.87263220704092881</v>
-      </c>
-      <c r="G3" s="8">
+        <v>0.89419387044104959</v>
+      </c>
+      <c r="G3" s="4">
         <f>Bench1!S28/Bench1!S$27</f>
-        <v>0.42775393419170243</v>
-      </c>
-      <c r="H3" s="8">
+        <v>1.0313394845688832</v>
+      </c>
+      <c r="H3" s="4">
         <f>Bench1!V28/Bench1!V$27</f>
-        <v>0.17563092894218724</v>
+        <v>0.75500196155355048</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <f>Bench1!D29/Bench1!D$27</f>
         <v>0.6624590930341282</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <f>Bench1!G29/Bench1!G$27</f>
         <v>0.67170818505338081</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <f>Bench1!H29/Bench1!H$27</f>
         <v>0.5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <f>Bench1!M29/Bench1!M$27</f>
         <v>0.52009722551576953</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <f>Bench1!P29/Bench1!P$27</f>
-        <v>0.76162944655309384</v>
-      </c>
-      <c r="G4" s="8">
+        <v>0.81295501389860636</v>
+      </c>
+      <c r="G4" s="4">
         <f>Bench1!S29/Bench1!S$27</f>
-        <v>0.15067802822063406</v>
-      </c>
-      <c r="H4" s="8">
+        <v>0.67686364585508463</v>
+      </c>
+      <c r="H4" s="4">
         <f>Bench1!V29/Bench1!V$27</f>
-        <v>4.9578112368633791E-2</v>
+        <v>0.3015039949866834</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <f>Bench1!D30/Bench1!D$27</f>
         <v>0.5717744376071825</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <f>Bench1!G30/Bench1!G$27</f>
         <v>0.63700674974039462</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <f>Bench1!H30/Bench1!H$27</f>
         <v>0.25</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <f>Bench1!M30/Bench1!M$27</f>
         <v>0.38593172620095018</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <f>Bench1!P30/Bench1!P$27</f>
-        <v>0.6755793924209208</v>
-      </c>
-      <c r="G5" s="8">
+        <v>0.73264939203640123</v>
+      </c>
+      <c r="G5" s="4">
         <f>Bench1!S30/Bench1!S$27</f>
-        <v>5.0173907737368802E-2</v>
-      </c>
-      <c r="H5" s="8">
+        <v>0.1248844197873324</v>
+      </c>
+      <c r="H5" s="4">
         <f>Bench1!V30/Bench1!V$27</f>
-        <v>1.5779782580728163E-2</v>
+        <v>3.4763367052023125E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <f>Bench1!D31/Bench1!D$27</f>
         <v>0.22560101894602771</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <f>Bench1!G31/Bench1!G$27</f>
         <v>0.53065527681660896</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <f>Bench1!H31/Bench1!H$27</f>
         <v>0.25</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <f>Bench1!M31/Bench1!M$27</f>
         <v>0.29404075613352992</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <f>Bench1!P31/Bench1!P$27</f>
-        <v>0.59959278973774544</v>
-      </c>
-      <c r="G6" s="8">
+        <v>0.66979559405477818</v>
+      </c>
+      <c r="G6" s="4">
         <f>Bench1!S31/Bench1!S$27</f>
-        <v>3.7566246345029239E-2</v>
-      </c>
-      <c r="H6" s="8">
+        <v>0.11650014376078204</v>
+      </c>
+      <c r="H6" s="4">
         <f>Bench1!V31/Bench1!V$27</f>
-        <v>1.0918306035250132E-2</v>
+        <v>3.2805468430383199E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <f>Bench1!D32/Bench1!D$27</f>
         <v>0.2471655328798186</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <f>Bench1!G32/Bench1!G$27</f>
         <v>0.45305576070901027</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <f>Bench1!H32/Bench1!H$27</f>
         <v>0.125</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <f>Bench1!M32/Bench1!M$27</f>
         <v>0.22744477859587264</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <f>Bench1!P32/Bench1!P$27</f>
-        <v>0.54832518857912704</v>
-      </c>
-      <c r="G7" s="8">
+        <v>0.61075279510164648</v>
+      </c>
+      <c r="G7" s="4">
         <f>Bench1!S32/Bench1!S$27</f>
-        <v>2.759228187919463E-2</v>
-      </c>
-      <c r="H7" s="8">
+        <v>0.1086730588708596</v>
+      </c>
+      <c r="H7" s="4">
         <f>Bench1!V32/Bench1!V$27</f>
-        <v>8.8381791324398332E-3</v>
+        <v>3.0477955150133032E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="19">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="19">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="19">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bench/malte.xlsx
+++ b/bench/malte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="31980" yWindow="1300" windowWidth="40520" windowHeight="23800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bench1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
     <t>ops</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>opss</t>
-  </si>
-  <si>
     <t>ContextJS Chrome Win</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
   </si>
   <si>
     <t>ContextPy PyPy OSX</t>
-  </si>
-  <si>
-    <t>ContextPy PyPyPromote OSX</t>
   </si>
   <si>
     <t>WithLayer</t>
@@ -91,11 +82,23 @@
   <si>
     <t>9 active layer</t>
   </si>
+  <si>
+    <t>ContextPyPy PyPy OSX</t>
+  </si>
+  <si>
+    <t>time (s)</t>
+  </si>
+  <si>
+    <t>ops / s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -160,7 +163,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -255,8 +258,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -265,17 +276,20 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="102">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -322,6 +336,10 @@
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -368,6 +386,10 @@
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -876,11 +898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2145839352"/>
-        <c:axId val="-2145836088"/>
+        <c:axId val="2085652344"/>
+        <c:axId val="2085648632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2145839352"/>
+        <c:axId val="2085652344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +920,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2145836088"/>
+        <c:crossAx val="2085648632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145836088"/>
+        <c:axId val="2085648632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -935,7 +957,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2145839352"/>
+        <c:crossAx val="2085652344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1033,7 +1055,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1086,7 +1108,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1139,7 +1161,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1192,7 +1214,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1245,7 +1267,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1298,7 +1320,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1351,7 +1373,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1404,7 +1426,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1457,7 +1479,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1510,7 +1532,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1540,11 +1562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2074115208"/>
-        <c:axId val="2074111544"/>
+        <c:axId val="2140431032"/>
+        <c:axId val="2140427368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2074115208"/>
+        <c:axId val="2140431032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1584,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2074111544"/>
+        <c:crossAx val="2140427368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1570,7 +1592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074111544"/>
+        <c:axId val="2140427368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -1599,7 +1621,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2074115208"/>
+        <c:crossAx val="2140431032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2259,11 +2281,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2143991112"/>
-        <c:axId val="-2143987896"/>
+        <c:axId val="2140367992"/>
+        <c:axId val="2140364344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143991112"/>
+        <c:axId val="2140367992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2303,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2143987896"/>
+        <c:crossAx val="2140364344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2289,7 +2311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143987896"/>
+        <c:axId val="2140364344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +2339,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2143991112"/>
+        <c:crossAx val="2140367992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2430,7 +2452,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2513,7 +2535,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2596,7 +2618,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2679,7 +2701,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2762,7 +2784,7 @@
                   <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ContextPy PyPyPromote OSX</c:v>
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2807,11 +2829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2143929816"/>
-        <c:axId val="-2143926456"/>
+        <c:axId val="2142620232"/>
+        <c:axId val="2142623592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143929816"/>
+        <c:axId val="2142620232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2829,7 +2851,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2143926456"/>
+        <c:crossAx val="2142623592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2837,7 +2859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143926456"/>
+        <c:axId val="2142623592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2866,7 +2888,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2143929816"/>
+        <c:crossAx val="2142620232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3373,36 +3395,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -3410,105 +3432,105 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" spans="1:22">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>6</v>
+      <c r="U2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -3518,70 +3540,70 @@
       <c r="B3" s="5">
         <v>819200000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="10">
         <v>6.9630000000000001</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <f>B3/C3</f>
         <v>117650438.02958494</v>
       </c>
       <c r="E3" s="5">
         <v>838860800</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>7.7190000000000003</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="12">
         <f>E3/F3</f>
         <v>108674802.43554865</v>
       </c>
       <c r="H3" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="10">
         <v>9.5549999999999997</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="12">
         <f>H3/I3</f>
         <v>351171449.50287807</v>
       </c>
       <c r="K3" s="5">
         <v>3355443200</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="10">
         <v>9.8190000000000008</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="12">
         <f>K3/L3</f>
         <v>341729626.23485076</v>
       </c>
       <c r="N3" s="5">
         <v>25600000</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="10">
         <v>5.3390000000000004</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="12">
         <f>N3/O3</f>
         <v>4794905.4129986884</v>
       </c>
       <c r="Q3" s="5">
         <v>819200000</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="10">
         <v>8.4580000000000002</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="12">
         <f>Q3/R3</f>
         <v>96855048.47481674</v>
       </c>
       <c r="T3" s="5">
         <v>819200000</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="10">
         <v>8.3810000000000002</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="12">
         <f>T3/U3</f>
         <v>97744899.17670922</v>
       </c>
@@ -3593,70 +3615,70 @@
       <c r="B4" s="5">
         <v>409600000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="10">
         <v>5.2130000000000001</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="12">
         <f t="shared" ref="D4:D12" si="0">B4/C4</f>
         <v>78572798.77230002</v>
       </c>
       <c r="E4" s="5">
         <v>838860800</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="10">
         <v>8.2560000000000002</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="12">
         <f t="shared" ref="G4:G12" si="1">E4/F4</f>
         <v>101606201.55038759</v>
       </c>
       <c r="H4" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="10">
         <v>9.6029999999999998</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="12">
         <f t="shared" ref="J4:J12" si="2">H4/I4</f>
         <v>349416140.78933668</v>
       </c>
       <c r="K4" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="10">
         <v>5.1079999999999997</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="12">
         <f t="shared" ref="M4:M12" si="3">K4/L4</f>
         <v>328449804.22866094</v>
       </c>
       <c r="N4" s="5">
         <v>25600000</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="10">
         <v>9.0579999999999998</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="12">
         <f t="shared" ref="P4:P12" si="4">N4/O4</f>
         <v>2826230.9560609409</v>
       </c>
       <c r="Q4" s="5">
         <v>819200000</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="10">
         <v>9.8049999999999997</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="12">
         <f t="shared" ref="S4:S12" si="5">Q4/R4</f>
         <v>83549209.586945444</v>
       </c>
       <c r="T4" s="5">
         <v>409600000</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="10">
         <v>5.0069999999999997</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="12">
         <f t="shared" ref="V4:V12" si="6">T4/U4</f>
         <v>81805472.33872579</v>
       </c>
@@ -3668,70 +3690,70 @@
       <c r="B5" s="5">
         <v>409600000</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="10">
         <v>6.41</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>63900156.006240249</v>
       </c>
       <c r="E5" s="5">
         <v>838860800</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="10">
         <v>8.8960000000000008</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
         <v>94296402.87769784</v>
       </c>
       <c r="H5" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="10">
         <v>9.59</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="12">
         <f t="shared" si="2"/>
         <v>349889801.87695515</v>
       </c>
       <c r="K5" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="10">
         <v>5.335</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="12">
         <f t="shared" si="3"/>
         <v>314474526.71040303</v>
       </c>
       <c r="N5" s="5">
         <v>12800000</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="10">
         <v>6.0030000000000001</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="12">
         <f t="shared" si="4"/>
         <v>2132267.1997334664</v>
       </c>
       <c r="Q5" s="5">
         <v>409600000</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="10">
         <v>5.2039999999999997</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="12">
         <f t="shared" si="5"/>
         <v>78708685.626441196</v>
       </c>
       <c r="T5" s="5">
         <v>409600000</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="10">
         <v>5.34</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="12">
         <f t="shared" si="6"/>
         <v>76704119.850187272</v>
       </c>
@@ -3743,70 +3765,70 @@
       <c r="B6" s="5">
         <v>409600000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="10">
         <v>8.3510000000000009</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>49048018.201412998</v>
       </c>
       <c r="E6" s="5">
         <v>419430400</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>5.7960000000000003</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>72365493.443754315</v>
       </c>
       <c r="H6" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="10">
         <v>9.5760000000000005</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <f t="shared" si="2"/>
         <v>350401336.67502087</v>
       </c>
       <c r="K6" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="10">
         <v>5.19</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="12">
         <f t="shared" si="3"/>
         <v>323260423.89210016</v>
       </c>
       <c r="N6" s="5">
         <v>12800000</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="10">
         <v>7.64</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="12">
         <f t="shared" si="4"/>
         <v>1675392.6701570682</v>
       </c>
       <c r="Q6" s="5">
         <v>409600000</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="10">
         <v>5.9710000000000001</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="12">
         <f t="shared" si="5"/>
         <v>68598224.752972707</v>
       </c>
       <c r="T6" s="5">
         <v>409600000</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="10">
         <v>6.0880000000000001</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="12">
         <f t="shared" si="6"/>
         <v>67279894.875164255</v>
       </c>
@@ -3818,70 +3840,70 @@
       <c r="B7" s="5">
         <v>409600000</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="10">
         <v>9.9830000000000005</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>41029750.575979166</v>
       </c>
       <c r="E7" s="5">
         <v>419430400</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="10">
         <v>5.327</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
         <v>78736699.831049368</v>
       </c>
       <c r="H7" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="10">
         <v>9.6199999999999992</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="12">
         <f t="shared" si="2"/>
         <v>348798669.43866944</v>
       </c>
       <c r="K7" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="10">
         <v>5.859</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="12">
         <f t="shared" si="3"/>
         <v>286349479.43335038</v>
       </c>
       <c r="N7" s="5">
         <v>12800000</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="10">
         <v>8.8979999999999997</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="12">
         <f t="shared" si="4"/>
         <v>1438525.5113508655</v>
       </c>
       <c r="Q7" s="5">
         <v>409600000</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="10">
         <v>6.5860000000000003</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="12">
         <f t="shared" si="5"/>
         <v>62192529.608259946</v>
       </c>
       <c r="T7" s="5">
         <v>409600000</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="10">
         <v>6.7140000000000004</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="12">
         <f t="shared" si="6"/>
         <v>61006851.355376817</v>
       </c>
@@ -3893,70 +3915,70 @@
       <c r="B8" s="5">
         <v>204800000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="10">
         <v>5.9749999999999996</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>34276150.627615064</v>
       </c>
       <c r="E8" s="5">
         <v>419430400</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="10">
         <v>9.7509999999999994</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
         <v>43014090.862475649</v>
       </c>
       <c r="H8" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="10">
         <v>5.2380000000000004</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="12">
         <f t="shared" si="2"/>
         <v>320298129.05689192</v>
       </c>
       <c r="K8" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="10">
         <v>6.6890000000000001</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="12">
         <f t="shared" si="3"/>
         <v>250817999.70100164</v>
       </c>
       <c r="N8" s="5">
         <v>6400000</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="10">
         <v>5.1790000000000003</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="12">
         <f t="shared" si="4"/>
         <v>1235759.7991890325</v>
       </c>
       <c r="Q8" s="5">
         <v>409600000</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="10">
         <v>7.6550000000000002</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="12">
         <f t="shared" si="5"/>
         <v>53507511.430437624</v>
       </c>
       <c r="T8" s="5">
         <v>409600000</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="10">
         <v>7.7110000000000003</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="12">
         <f t="shared" si="6"/>
         <v>53118921.02191674</v>
       </c>
@@ -3968,70 +3990,70 @@
       <c r="B9" s="5">
         <v>204800000</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="10">
         <v>10.78</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>18998144.712430429</v>
       </c>
       <c r="E9" s="5">
         <v>209715200</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <v>9.1310000000000002</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="12">
         <f t="shared" si="1"/>
         <v>22967385.828496329</v>
       </c>
       <c r="H9" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="10">
         <v>6.22</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="12">
         <f t="shared" si="2"/>
         <v>269730160.7717042</v>
       </c>
       <c r="K9" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="10">
         <v>8.9610000000000003</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="12">
         <f t="shared" si="3"/>
         <v>187224818.65863183</v>
       </c>
       <c r="N9" s="5">
         <v>6400000</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="10">
         <v>6.0289999999999999</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="12">
         <f t="shared" si="4"/>
         <v>1061535.9097694478</v>
       </c>
       <c r="Q9" s="5">
         <v>409600000</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="10">
         <v>8.3409999999999993</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="12">
         <f t="shared" si="5"/>
         <v>49106821.72401391</v>
       </c>
       <c r="T9" s="5">
         <v>409600000</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="10">
         <v>8.2100000000000009</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="12">
         <f t="shared" si="6"/>
         <v>49890377.588306941</v>
       </c>
@@ -4043,70 +4065,70 @@
       <c r="B10" s="5">
         <v>102400000</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="10">
         <v>5.0149999999999997</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>20418743.76869392</v>
       </c>
       <c r="E10" s="5">
         <v>209715200</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="10">
         <v>8.1069999999999993</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
         <v>25868410.016035527</v>
       </c>
       <c r="H10" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="10">
         <v>6.9820000000000002</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="12">
         <f t="shared" si="2"/>
         <v>240292409.05184761</v>
       </c>
       <c r="K10" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="10">
         <v>9.3840000000000003</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="12">
         <f t="shared" si="3"/>
         <v>178785336.743393</v>
       </c>
       <c r="N10" s="5">
         <v>6400000</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="10">
         <v>6.5839999999999996</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="12">
         <f t="shared" si="4"/>
         <v>972053.46294046182</v>
       </c>
       <c r="Q10" s="5">
         <v>409600000</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="10">
         <v>9.3879999999999999</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="12">
         <f t="shared" si="5"/>
         <v>43630166.169578187</v>
       </c>
       <c r="T10" s="5">
         <v>409600000</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="10">
         <v>9.516</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="12">
         <f t="shared" si="6"/>
         <v>43043295.502311893</v>
       </c>
@@ -4118,70 +4140,70 @@
       <c r="B11" s="5">
         <v>102400000</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="10">
         <v>6.2290000000000001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>16439235.832396854</v>
       </c>
       <c r="E11" s="5">
         <v>209715200</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="10">
         <v>8.7490000000000006</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="12">
         <f t="shared" si="1"/>
         <v>23970190.878957592</v>
       </c>
       <c r="H11" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="10">
         <v>8.1199999999999992</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="12">
         <f t="shared" si="2"/>
         <v>206615960.59113303</v>
       </c>
       <c r="K11" s="5">
         <v>838860800</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="10">
         <v>5.8289999999999997</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="12">
         <f t="shared" si="3"/>
         <v>143911614.34208271</v>
       </c>
       <c r="N11" s="5">
         <v>6400000</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="10">
         <v>7.2430000000000003</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="12">
         <f t="shared" si="4"/>
         <v>883611.763081596</v>
       </c>
       <c r="Q11" s="5">
         <v>204800000</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="10">
         <v>5.0979999999999999</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="12">
         <f t="shared" si="5"/>
         <v>40172616.712436251</v>
       </c>
       <c r="T11" s="5">
         <v>204800000</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="10">
         <v>5.133</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="12">
         <f t="shared" si="6"/>
         <v>39898694.720436394</v>
       </c>
@@ -4193,81 +4215,109 @@
       <c r="B12" s="5">
         <v>102400000</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="10">
         <v>6.1890000000000001</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>16545483.923089352</v>
       </c>
       <c r="E12" s="5">
         <v>209715200</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="10">
         <v>9.5370000000000008</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="12">
         <f t="shared" si="1"/>
         <v>21989640.348117854</v>
       </c>
       <c r="H12" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="10">
         <v>8.8940000000000001</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="12">
         <f t="shared" si="2"/>
         <v>188635214.75151786</v>
       </c>
       <c r="K12" s="5">
         <v>838860800</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="10">
         <v>6.8090000000000002</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="12">
         <f t="shared" si="3"/>
         <v>123198825.08444706</v>
       </c>
       <c r="N12" s="5">
         <v>6400000</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="10">
         <v>8.0510000000000002</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="12">
         <f t="shared" si="4"/>
         <v>794932.30654577073</v>
       </c>
       <c r="Q12" s="5">
         <v>204800000</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="10">
         <v>5.3739999999999997</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="12">
         <f t="shared" si="5"/>
         <v>38109415.705247492</v>
       </c>
       <c r="T12" s="5">
         <v>204800000</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="10">
         <v>5.375</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="12">
         <f t="shared" si="6"/>
         <v>38102325.58139535</v>
       </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="C13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="12"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="12"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="12"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="12"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="12"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="12"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="13"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="5">
@@ -4276,70 +4326,70 @@
       <c r="B15" s="5">
         <v>409600000</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="10">
         <v>5.1829999999999998</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="12">
         <f>B15/C15</f>
         <v>79027590.198726609</v>
       </c>
       <c r="E15" s="5">
         <v>409600</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="10">
         <v>9.1379999999999999</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="12">
         <f t="shared" ref="G15:G24" si="7">E15/F15</f>
         <v>44823.812650470565</v>
       </c>
       <c r="H15" s="5">
         <v>3276800</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="10">
         <v>7.0030000000000001</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="12">
         <f>H15/I15</f>
         <v>467913.75124946452</v>
       </c>
       <c r="K15" s="5">
         <v>3276800</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="10">
         <v>17.507000000000001</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="12">
         <f>K15/L15</f>
         <v>187170.84594733533</v>
       </c>
       <c r="N15" s="5">
         <v>3200000</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="10">
         <v>16.321999999999999</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="12">
         <f>N15/O15</f>
         <v>196054.40509741454</v>
       </c>
       <c r="Q15" s="5">
         <v>1638400000</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="10">
         <v>5.5590000000000002</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="12">
         <f>Q15/R15</f>
         <v>294729267.85393053</v>
       </c>
       <c r="T15" s="5">
         <v>3276800000</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="10">
         <v>8.0009999999999994</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="12">
         <f>T15/U15</f>
         <v>409548806.39920014</v>
       </c>
@@ -4351,70 +4401,70 @@
       <c r="B16" s="5">
         <v>204800000</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="10">
         <v>7.2610000000000001</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="12">
         <f t="shared" ref="D16:D24" si="8">B16/C16</f>
         <v>28205481.338658586</v>
       </c>
       <c r="E16" s="5">
         <v>819200</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="10">
         <v>8.5749999999999993</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="12">
         <f t="shared" si="7"/>
         <v>95533.527696793011</v>
       </c>
       <c r="H16" s="5">
         <v>1638400</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="10">
         <v>5.0279999999999996</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="12">
         <f t="shared" ref="J16:J24" si="9">H16/I16</f>
         <v>325855.21081941132</v>
       </c>
       <c r="K16" s="5">
         <v>819200</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="10">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="12">
         <f t="shared" ref="M16:M24" si="10">K16/L16</f>
         <v>100577.04112952732</v>
       </c>
       <c r="N16" s="5">
         <v>3200000</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="10">
         <v>27.834</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="12">
         <f t="shared" ref="P16:P24" si="11">N16/O16</f>
         <v>114967.30617230725</v>
       </c>
       <c r="Q16" s="5">
         <v>409600000</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="10">
         <v>5.8230000000000004</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="12">
         <f t="shared" ref="S16:S24" si="12">Q16/R16</f>
         <v>70341748.239738956</v>
       </c>
       <c r="T16" s="5">
         <v>1638400000</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="10">
         <v>7.7</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="12">
         <f t="shared" ref="V16:V24" si="13">T16/U16</f>
         <v>212779220.77922076</v>
       </c>
@@ -4426,70 +4476,70 @@
       <c r="B17" s="5">
         <v>204800000</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="10">
         <v>8.7430000000000003</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="12">
         <f t="shared" si="8"/>
         <v>23424453.84879332</v>
       </c>
       <c r="E17" s="5">
         <v>409600</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="10">
         <v>5.3460000000000001</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="12">
         <f t="shared" si="7"/>
         <v>76618.032173587722</v>
       </c>
       <c r="H17" s="5">
         <v>1638400</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="10">
         <v>6.335</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="12">
         <f t="shared" si="9"/>
         <v>258626.67719021311</v>
       </c>
       <c r="K17" s="5">
         <v>409600</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="10">
         <v>5.0010000000000003</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="12">
         <f t="shared" si="10"/>
         <v>81903.61927614476</v>
       </c>
       <c r="N17" s="5">
         <v>3200000</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="10">
         <v>39.341999999999999</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="12">
         <f t="shared" si="11"/>
         <v>81338.010268923797</v>
       </c>
       <c r="Q17" s="5">
         <v>204800000</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="10">
         <v>5.0990000000000002</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="12">
         <f t="shared" si="12"/>
         <v>40164738.183957636</v>
       </c>
       <c r="T17" s="5">
         <v>1638400000</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="10">
         <v>9.7889999999999997</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="12">
         <f t="shared" si="13"/>
         <v>167371539.48309326</v>
       </c>
@@ -4501,70 +4551,70 @@
       <c r="B18" s="5">
         <v>204800000</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="10">
         <v>9.5429999999999993</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="12">
         <f t="shared" si="8"/>
         <v>21460756.575500369</v>
       </c>
       <c r="E18" s="5">
         <v>409600</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="10">
         <v>5.7640000000000002</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="12">
         <f t="shared" si="7"/>
         <v>71061.762664816095</v>
       </c>
       <c r="H18" s="5">
         <v>1638400</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="10">
         <v>7.4189999999999996</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="12">
         <f t="shared" si="9"/>
         <v>220838.38792290067</v>
       </c>
       <c r="K18" s="5">
         <v>409600</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="10">
         <v>6.0880000000000001</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="12">
         <f t="shared" si="10"/>
         <v>67279.89487516426</v>
       </c>
       <c r="N18" s="5">
         <v>3200000</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="10">
         <v>50.441000000000003</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="12">
         <f t="shared" si="11"/>
         <v>63440.45518526595</v>
       </c>
       <c r="Q18" s="5">
         <v>204800000</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="10">
         <v>7.5490000000000004</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="12">
         <f t="shared" si="12"/>
         <v>27129421.11537952</v>
       </c>
       <c r="T18" s="5">
         <v>819200000</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="10">
         <v>6.0129999999999999</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="12">
         <f t="shared" si="13"/>
         <v>136238150.67354065</v>
       </c>
@@ -4576,70 +4626,70 @@
       <c r="B19" s="5">
         <v>102400000</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="10">
         <v>5.5579999999999998</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="12">
         <f t="shared" si="8"/>
         <v>18423893.486865781</v>
       </c>
       <c r="E19" s="5">
         <v>409600</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="10">
         <v>6.41</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="12">
         <f t="shared" si="7"/>
         <v>63900.15600624025</v>
       </c>
       <c r="H19" s="5">
         <v>1638400</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="10">
         <v>8.5779999999999994</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="12">
         <f t="shared" si="9"/>
         <v>191000.23315458151</v>
       </c>
       <c r="K19" s="5">
         <v>819200</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="10">
         <v>6.4870000000000001</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="12">
         <f t="shared" si="10"/>
         <v>126283.33590257438</v>
       </c>
       <c r="N19" s="5">
         <v>3200000</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="10">
         <v>61.743000000000002</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="12">
         <f t="shared" si="11"/>
         <v>51827.737557293942</v>
       </c>
       <c r="Q19" s="5">
         <v>102400000</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="10">
         <v>5.9320000000000004</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="12">
         <f t="shared" si="12"/>
         <v>17262306.136210382</v>
       </c>
       <c r="T19" s="5">
         <v>409600000</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="10">
         <v>7.4359999999999999</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="12">
         <f t="shared" si="13"/>
         <v>55083378.160301238</v>
       </c>
@@ -4651,70 +4701,70 @@
       <c r="B20" s="5">
         <v>102400000</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="10">
         <v>6.2489999999999997</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="12">
         <f t="shared" si="8"/>
         <v>16386621.859497521</v>
       </c>
       <c r="E20" s="5">
         <v>409600</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="10">
         <v>7.6260000000000003</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="12">
         <f t="shared" si="7"/>
         <v>53710.988722790455</v>
       </c>
       <c r="H20" s="5">
         <v>1638400</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="10">
         <v>9.93</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="12">
         <f t="shared" si="9"/>
         <v>164994.96475327291</v>
       </c>
       <c r="K20" s="5">
         <v>819200</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="10">
         <v>7.1859999999999999</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="12">
         <f t="shared" si="10"/>
         <v>113999.44336209296</v>
       </c>
       <c r="N20" s="5">
         <v>3200000</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="10">
         <v>73.191000000000003</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="12">
         <f t="shared" si="11"/>
         <v>43721.222554685686</v>
       </c>
       <c r="Q20" s="5">
         <v>102400000</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="10">
         <v>6.4960000000000004</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="12">
         <f t="shared" si="12"/>
         <v>15763546.798029555</v>
       </c>
       <c r="T20" s="5">
         <v>409600000</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="10">
         <v>8.1530000000000005</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="12">
         <f t="shared" si="13"/>
         <v>50239175.763522625</v>
       </c>
@@ -4726,70 +4776,70 @@
       <c r="B21" s="5">
         <v>102400000</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="10">
         <v>6.915</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="12">
         <f t="shared" si="8"/>
         <v>14808387.563268257</v>
       </c>
       <c r="E21" s="5">
         <v>409600</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="10">
         <v>8.141</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="12">
         <f t="shared" si="7"/>
         <v>50313.229333005773</v>
       </c>
       <c r="H21" s="5">
         <v>819200</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="10">
         <v>5.5250000000000004</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="12">
         <f t="shared" si="9"/>
         <v>148271.49321266968</v>
       </c>
       <c r="K21" s="5">
         <v>819200</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="10">
         <v>8.1159999999999997</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="12">
         <f t="shared" si="10"/>
         <v>100936.42188270084</v>
       </c>
       <c r="N21" s="5">
         <v>3200000</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="10">
         <v>84.168999999999997</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="12">
         <f t="shared" si="11"/>
         <v>38018.747995105085</v>
       </c>
       <c r="Q21" s="5">
         <v>102400000</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="10">
         <v>7.7380000000000004</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="12">
         <f t="shared" si="12"/>
         <v>13233393.641767899</v>
       </c>
       <c r="T21" s="5">
         <v>409600000</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="10">
         <v>9.8659999999999997</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="12">
         <f t="shared" si="13"/>
         <v>41516318.670180418</v>
       </c>
@@ -4801,70 +4851,70 @@
       <c r="B22" s="5">
         <v>102400000</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="10">
         <v>11.725</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="12">
         <f t="shared" si="8"/>
         <v>8733475.4797441363</v>
       </c>
       <c r="E22" s="5">
         <v>409600</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="10">
         <v>8.6389999999999993</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="12">
         <f t="shared" si="7"/>
         <v>47412.895010996646</v>
       </c>
       <c r="H22" s="5">
         <v>819200</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="10">
         <v>6.12</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="12">
         <f t="shared" si="9"/>
         <v>133856.20915032679</v>
       </c>
       <c r="K22" s="5">
         <v>819200</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="10">
         <v>9.0399999999999991</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="12">
         <f t="shared" si="10"/>
         <v>90619.469026548686</v>
       </c>
       <c r="N22" s="5">
         <v>3200000</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="10">
         <v>95.977000000000004</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="12">
         <f t="shared" si="11"/>
         <v>33341.321358242079</v>
       </c>
       <c r="Q22" s="5">
         <v>51200000</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="10">
         <v>9.7070000000000007</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="12">
         <f t="shared" si="12"/>
         <v>5274544.1434016684</v>
       </c>
       <c r="T22" s="5">
         <v>51200000</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="10">
         <v>7.048</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="12">
         <f t="shared" si="13"/>
         <v>7264472.190692395</v>
       </c>
@@ -4876,70 +4926,70 @@
       <c r="B23" s="5">
         <v>51200000</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="10">
         <v>6.2450000000000001</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="12">
         <f t="shared" si="8"/>
         <v>8198558.8470776621</v>
       </c>
       <c r="E23" s="5">
         <v>409600</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="10">
         <v>9.5530000000000008</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="12">
         <f t="shared" si="7"/>
         <v>42876.583272270487</v>
       </c>
       <c r="H23" s="5">
         <v>819200</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="10">
         <v>6.61</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="12">
         <f t="shared" si="9"/>
         <v>123933.43419062026</v>
       </c>
       <c r="K23" s="5">
         <v>409600</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="10">
         <v>5.2110000000000003</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="12">
         <f t="shared" si="10"/>
         <v>78602.955286893106</v>
       </c>
       <c r="N23" s="5">
         <v>3200000</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="10">
         <v>106.785</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="12">
         <f t="shared" si="11"/>
         <v>29966.755630472446</v>
       </c>
       <c r="Q23" s="5">
         <v>12800000</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="10">
         <v>5.7930000000000001</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="12">
         <f t="shared" si="12"/>
         <v>2209563.2660107026</v>
       </c>
       <c r="T23" s="5">
         <v>12800000</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="10">
         <v>5.7720000000000002</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="12">
         <f t="shared" si="13"/>
         <v>2217602.2176022176</v>
       </c>
@@ -4951,78 +5001,108 @@
       <c r="B24" s="5">
         <v>51200000</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="10">
         <v>8.1649999999999991</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="12">
         <f t="shared" si="8"/>
         <v>6270667.4831598289</v>
       </c>
       <c r="E24" s="5">
         <v>204800</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="10">
         <v>5.2460000000000004</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="12">
         <f t="shared" si="7"/>
         <v>39039.268013724737</v>
       </c>
       <c r="H24" s="5">
         <v>819200</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="10">
         <v>7.2910000000000004</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="12">
         <f t="shared" si="9"/>
         <v>112357.70127554519</v>
       </c>
       <c r="K24" s="5">
         <v>409600</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="10">
         <v>5.375</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="12">
         <f t="shared" si="10"/>
         <v>76204.651162790702</v>
       </c>
       <c r="N24" s="5">
         <v>3200000</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="10">
         <v>119.71299999999999</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="12">
         <f t="shared" si="11"/>
         <v>26730.597345317554</v>
       </c>
       <c r="Q24" s="5">
         <v>12800000</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="10">
         <v>7.2240000000000002</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="12">
         <f t="shared" si="12"/>
         <v>1771871.5393133997</v>
       </c>
       <c r="T24" s="5">
         <v>12800000</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="10">
         <v>7.0129999999999999</v>
       </c>
-      <c r="V24" s="8">
+      <c r="V24" s="12">
         <f t="shared" si="13"/>
         <v>1825181.8052188794</v>
       </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="C25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="12"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="12"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="12"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="12"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="12"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="12"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="12"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="12"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="12"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="12"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="5">
@@ -5031,70 +5111,70 @@
       <c r="B27" s="5">
         <v>102400000</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="10">
         <v>5.6680000000000001</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="12">
         <f>B27/C27</f>
         <v>18066337.33239238</v>
       </c>
       <c r="E27" s="5">
         <v>204800</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="10">
         <v>9.8149999999999995</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="12">
         <f>E27/F27</f>
         <v>20866.021395822721</v>
       </c>
       <c r="H27" s="5">
         <v>819200</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="10">
         <v>9.0500000000000007</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="12">
         <f>H27/I27</f>
         <v>90519.337016574573</v>
       </c>
       <c r="K27" s="5">
         <v>409600</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="10">
         <v>8.7729999999999997</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="12">
         <f>K27/L27</f>
         <v>46688.703978114674</v>
       </c>
       <c r="N27" s="5">
         <v>3200000</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="10">
         <v>85.983000000000004</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="12">
         <f>N27/O27</f>
         <v>37216.659107032785</v>
       </c>
       <c r="Q27" s="5">
         <v>102400000</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="10">
         <v>6.4829999999999997</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" s="12">
         <f>Q27/R27</f>
         <v>15795156.563319452</v>
       </c>
       <c r="T27" s="5">
         <v>409600000</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="10">
         <v>7.6980000000000004</v>
       </c>
-      <c r="V27" s="8">
+      <c r="V27" s="12">
         <f>T27/U27</f>
         <v>53208625.617043383</v>
       </c>
@@ -5106,70 +5186,70 @@
       <c r="B28" s="5">
         <v>102400000</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="10">
         <v>7.56</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="12">
         <f t="shared" ref="D28:D32" si="14">B28/C28</f>
         <v>13544973.544973545</v>
       </c>
       <c r="E28" s="5">
         <v>102400</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="10">
         <v>5.36</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="12">
         <f t="shared" ref="G28:G32" si="15">E28/F28</f>
         <v>19104.477611940296</v>
       </c>
       <c r="H28" s="5">
         <v>409600</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="10">
         <v>6.6609999999999996</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="12">
         <f t="shared" ref="J28:J32" si="16">H28/I28</f>
         <v>61492.268428163945</v>
       </c>
       <c r="K28" s="5">
         <v>204800</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="10">
         <v>6.1669999999999998</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="12">
         <f t="shared" ref="M28:M32" si="17">K28/L28</f>
         <v>33209.015728879524</v>
       </c>
       <c r="N28" s="5">
         <v>3200000</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="10">
         <v>96.156999999999996</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="12">
         <f t="shared" ref="P28:P32" si="18">N28/O28</f>
         <v>33278.908451802781</v>
       </c>
       <c r="Q28" s="5">
         <v>102400000</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="10">
         <v>6.2859999999999996</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="12">
         <f t="shared" ref="S28:S32" si="19">Q28/R28</f>
         <v>16290168.628698697</v>
       </c>
       <c r="T28" s="5">
         <v>204800000</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="10">
         <v>5.0979999999999999</v>
       </c>
-      <c r="V28" s="8">
+      <c r="V28" s="12">
         <f t="shared" ref="V28:V32" si="20">T28/U28</f>
         <v>40172616.712436251</v>
       </c>
@@ -5181,70 +5261,70 @@
       <c r="B29" s="5">
         <v>102400000</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="10">
         <v>8.5559999999999992</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="12">
         <f t="shared" si="14"/>
         <v>11968209.443665266</v>
       </c>
       <c r="E29" s="5">
         <v>102400</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="10">
         <v>7.306</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="12">
         <f t="shared" si="15"/>
         <v>14015.877361073091</v>
       </c>
       <c r="H29" s="5">
         <v>409600</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="10">
         <v>9.2970000000000006</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="12">
         <f t="shared" si="16"/>
         <v>44057.222760030112</v>
       </c>
       <c r="K29" s="5">
         <v>204800</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="10">
         <v>8.4339999999999993</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="12">
         <f t="shared" si="17"/>
         <v>24282.665401944512</v>
       </c>
       <c r="N29" s="5">
         <v>3200000</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="10">
         <v>105.76600000000001</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="12">
         <f t="shared" si="18"/>
         <v>30255.469621617533</v>
       </c>
       <c r="Q29" s="5">
         <v>102400000</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="10">
         <v>9.5779999999999994</v>
       </c>
-      <c r="S29" s="8">
+      <c r="S29" s="12">
         <f t="shared" si="19"/>
         <v>10691167.258300273</v>
       </c>
       <c r="T29" s="5">
         <v>102400000</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" s="10">
         <v>6.383</v>
       </c>
-      <c r="V29" s="8">
+      <c r="V29" s="12">
         <f t="shared" si="20"/>
         <v>16042613.191289362</v>
       </c>
@@ -5256,70 +5336,70 @@
       <c r="B30" s="5">
         <v>102400000</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="10">
         <v>9.9130000000000003</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="12">
         <f t="shared" si="14"/>
         <v>10329869.867850298</v>
       </c>
       <c r="E30" s="5">
         <v>102400</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="10">
         <v>7.7039999999999997</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="12">
         <f t="shared" si="15"/>
         <v>13291.796469366564</v>
       </c>
       <c r="H30" s="5">
         <v>204800</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="10">
         <v>6.3550000000000004</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="12">
         <f t="shared" si="16"/>
         <v>32226.59323367427</v>
       </c>
       <c r="K30" s="5">
         <v>102400</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="10">
         <v>5.6829999999999998</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="12">
         <f t="shared" si="17"/>
         <v>18018.652120358965</v>
       </c>
       <c r="N30" s="5">
         <v>3200000</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="10">
         <v>117.35899999999999</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="12">
         <f t="shared" si="18"/>
         <v>27266.762668393563</v>
       </c>
       <c r="Q30" s="5">
         <v>12800000</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="10">
         <v>6.4889999999999999</v>
       </c>
-      <c r="S30" s="8">
+      <c r="S30" s="12">
         <f t="shared" si="19"/>
         <v>1972568.962860225</v>
       </c>
       <c r="T30" s="5">
         <v>12800000</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="10">
         <v>6.92</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30" s="12">
         <f t="shared" si="20"/>
         <v>1849710.9826589595</v>
       </c>
@@ -5331,70 +5411,70 @@
       <c r="B31" s="5">
         <v>25600000</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="10">
         <v>6.2809999999999997</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="12">
         <f t="shared" si="14"/>
         <v>4075784.1108103809</v>
       </c>
       <c r="E31" s="5">
         <v>102400</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="10">
         <v>9.2479999999999993</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="12">
         <f t="shared" si="15"/>
         <v>11072.664359861592</v>
       </c>
       <c r="H31" s="5">
         <v>204800</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="10">
         <v>8.5869999999999997</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="12">
         <f t="shared" si="16"/>
         <v>23850.005822755327</v>
       </c>
       <c r="K31" s="5">
         <v>102400</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="10">
         <v>7.4589999999999996</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="12">
         <f t="shared" si="17"/>
         <v>13728.381820619386</v>
       </c>
       <c r="N31" s="5">
         <v>3200000</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="10">
         <v>128.37200000000001</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="12">
         <f t="shared" si="18"/>
         <v>24927.554295329195</v>
       </c>
       <c r="Q31" s="5">
         <v>12800000</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="10">
         <v>6.9560000000000004</v>
       </c>
-      <c r="S31" s="8">
+      <c r="S31" s="12">
         <f t="shared" si="19"/>
         <v>1840138.0103507761</v>
       </c>
       <c r="T31" s="5">
         <v>12800000</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="10">
         <v>7.3330000000000002</v>
       </c>
-      <c r="V31" s="8">
+      <c r="V31" s="12">
         <f t="shared" si="20"/>
         <v>1745533.8879039956</v>
       </c>
@@ -5406,40 +5486,40 @@
       <c r="B32" s="5">
         <v>51200000</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="10">
         <v>11.465999999999999</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="12">
         <f t="shared" si="14"/>
         <v>4465375.8939473229</v>
       </c>
       <c r="E32" s="5">
         <v>51200</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="10">
         <v>5.4160000000000004</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="12">
         <f t="shared" si="15"/>
         <v>9453.4711964549479</v>
       </c>
       <c r="H32" s="5">
         <v>102400</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="10">
         <v>5.6340000000000003</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="12">
         <f t="shared" si="16"/>
         <v>18175.363862264821</v>
       </c>
       <c r="K32" s="5">
         <v>102400</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="10">
         <v>9.6430000000000007</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="12">
         <f t="shared" si="17"/>
         <v>10619.10193923053</v>
       </c>
@@ -5449,27 +5529,27 @@
       <c r="O32" s="5">
         <v>140.78200000000001</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="12">
         <f t="shared" si="18"/>
         <v>22730.178573965419</v>
       </c>
       <c r="Q32" s="5">
         <v>12800000</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="10">
         <v>7.4569999999999999</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="12">
         <f t="shared" si="19"/>
         <v>1716507.9790800591</v>
       </c>
       <c r="T32" s="5">
         <v>12800000</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="10">
         <v>7.8929999999999998</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="12">
         <f t="shared" si="20"/>
         <v>1621690.1051564678</v>
       </c>
@@ -5498,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="H9" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5524,23 +5604,23 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="19">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <f>Bench1!D15/Bench1!D3</f>
@@ -5575,7 +5655,7 @@
     </row>
     <row r="3" spans="1:10" ht="19">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <f>Bench1!D16/Bench1!D4</f>
@@ -5610,7 +5690,7 @@
     </row>
     <row r="4" spans="1:10" ht="19">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <f>Bench1!D17/Bench1!D5</f>
@@ -5645,7 +5725,7 @@
     </row>
     <row r="5" spans="1:10" ht="19">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <f>Bench1!D18/Bench1!D6</f>
@@ -5680,7 +5760,7 @@
     </row>
     <row r="6" spans="1:10" ht="19">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <f>Bench1!D19/Bench1!D7</f>
@@ -5715,7 +5795,7 @@
     </row>
     <row r="7" spans="1:10" ht="19">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <f>Bench1!D20/Bench1!D8</f>
@@ -5750,7 +5830,7 @@
     </row>
     <row r="8" spans="1:10" ht="19">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <f>Bench1!D21/Bench1!D9</f>
@@ -5785,7 +5865,7 @@
     </row>
     <row r="9" spans="1:10" ht="19">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4">
         <f>Bench1!D22/Bench1!D10</f>
@@ -5820,7 +5900,7 @@
     </row>
     <row r="10" spans="1:10" ht="19">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4">
         <f>Bench1!D23/Bench1!D11</f>
@@ -5855,7 +5935,7 @@
     </row>
     <row r="11" spans="1:10" ht="19">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4">
         <f>Bench1!D24/Bench1!D12</f>
@@ -5904,8 +5984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5928,21 +6008,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <f>Bench1!D27/Bench1!D$27</f>
@@ -5975,7 +6055,7 @@
     </row>
     <row r="3" spans="1:8" ht="19">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <f>Bench1!D28/Bench1!D$27</f>
@@ -6008,7 +6088,7 @@
     </row>
     <row r="4" spans="1:8" ht="19">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <f>Bench1!D29/Bench1!D$27</f>
@@ -6041,7 +6121,7 @@
     </row>
     <row r="5" spans="1:8" ht="19">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <f>Bench1!D30/Bench1!D$27</f>
@@ -6074,7 +6154,7 @@
     </row>
     <row r="6" spans="1:8" ht="19">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <f>Bench1!D31/Bench1!D$27</f>
@@ -6107,7 +6187,7 @@
     </row>
     <row r="7" spans="1:8" ht="19">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <f>Bench1!D32/Bench1!D$27</f>

--- a/bench/malte.xlsx
+++ b/bench/malte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="1300" windowWidth="40520" windowHeight="23800" tabRatio="500"/>
+    <workbookView xWindow="36360" yWindow="3700" windowWidth="43840" windowHeight="23800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bench1" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="102">
+  <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -289,7 +295,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="102">
+  <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -340,6 +346,9 @@
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -390,11 +399,19 @@
     <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4198AF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2272,6 +2289,63 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.00177534818194815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000595634815183102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000618550145348837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0336262561292424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2410,19 +2484,24 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$3</c:f>
+              <c:f>Sheet4!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 active layer</c:v>
+                  <c:v>no activate layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4572A7"/>
-            </a:solidFill>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="tx2"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -2430,7 +2509,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$B$1:$H$1</c:f>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2459,30 +2538,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$3:$H$3</c:f>
+              <c:f>Sheet4!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.74973544973545</c:v>
+                  <c:v>0.671715222843913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.915578358208955</c:v>
+                  <c:v>0.000412458193122127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.00133243676817078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.711285876439111</c:v>
+                  <c:v>0.000547716181384589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89419387044105</c:v>
+                  <c:v>0.0408880651880897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.031339484568883</c:v>
+                  <c:v>3.042993344126641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75500196155355</c:v>
+                  <c:v>4.189976252968379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2493,19 +2572,24 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$4</c:f>
+              <c:f>Sheet4!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 active layer</c:v>
+                  <c:v>1 active layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AA4643"/>
-            </a:solidFill>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -2513,7 +2597,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$B$1:$H$1</c:f>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2542,30 +2626,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$4:$H$4</c:f>
+              <c:f>Sheet4!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.662459093034128</c:v>
+                  <c:v>0.358972593306707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.671708185053381</c:v>
+                  <c:v>0.000940233236151603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.000932570573538186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52009722551577</c:v>
+                  <c:v>0.000306217387968078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.812955013898606</c:v>
+                  <c:v>0.0406786663792484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.676863645855085</c:v>
+                  <c:v>0.841919972522754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.301503994986683</c:v>
+                  <c:v>2.601038961038961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,19 +2660,24 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$5</c:f>
+              <c:f>Sheet4!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3 active layer</c:v>
+                  <c:v>2 active layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="89A54E"/>
-            </a:solidFill>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -2596,7 +2685,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$B$1:$H$1</c:f>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2625,30 +2714,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$5:$H$5</c:f>
+              <c:f>Sheet4!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.571774437607182</c:v>
+                  <c:v>0.366578977467688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.637006749740395</c:v>
+                  <c:v>0.000812523381967826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.000739166091160221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38593172620095</c:v>
+                  <c:v>0.000260445957683463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.732649392036401</c:v>
+                  <c:v>0.0381462559097148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.124884419787332</c:v>
+                  <c:v>0.510296136497352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0347633670520231</c:v>
+                  <c:v>2.182041066503217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,19 +2748,24 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$6</c:f>
+              <c:f>Sheet4!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 active layer</c:v>
+                  <c:v>3 active layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="71588F"/>
-            </a:solidFill>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -2679,7 +2773,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$B$1:$H$1</c:f>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2708,30 +2802,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$6:$H$6</c:f>
+              <c:f>Sheet4!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.225601018946028</c:v>
+                  <c:v>0.437545845122079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.530655276816609</c:v>
+                  <c:v>0.000981984082234559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.000630244136676102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29404075613353</c:v>
+                  <c:v>0.000208129080773653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.669795594054778</c:v>
+                  <c:v>0.0378660216887056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.116500143760782</c:v>
+                  <c:v>0.395482845409988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0328054684303832</c:v>
+                  <c:v>2.024945950440712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,19 +2836,1033 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$7</c:f>
+              <c:f>Sheet4!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5 active layer</c:v>
+                  <c:v>4 active layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:pattFill prst="dashDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="4198AF"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.449037423533645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000811567618954758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000547594500466309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000441011229189147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0360283756863126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.277562373567094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.902904787520172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="zigZag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.478076492238758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00124868357428534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000515129342900302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000454510615258836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0353800330641746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.294604371921182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.945786826934871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="divot">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.779464931308749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00219063805122221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000549703054298642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000539118812376787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0358148486972638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.269481778237271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.832150821001419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smGrid">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.42771855010661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00183284921576571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000557055504493464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000506861863938053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0342998843472915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.120892139693005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.168771282633371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct10">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.498718975180144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00178874600910709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000599825075642965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000546189101180195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0339139392236737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0550017262213016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0555808212058212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3789957134109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00177534818194815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000595634815183102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000618550145348837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0336262561292424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0464943244739756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0479021103664623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2127600904"/>
+        <c:axId val="-2127585400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2127600904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
             <a:solidFill>
-              <a:srgbClr val="4198AF"/>
+              <a:srgbClr val="808080"/>
             </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2127585400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2127585400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="808080"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2127600904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="100">
+          <a:latin typeface="Times New Roman"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="tx2"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.74973544973545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.915578358208955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.711285876439111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89419387044105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.031339484568883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75500196155355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.662459093034128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.671708185053381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52009722551577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.812955013898606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.676863645855085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.301503994986683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.571774437607182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.637006749740395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38593172620095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.732649392036401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.124884419787332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0347633670520231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.225601018946028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.530655276816609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29404075613353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.669795594054778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.116500143760782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0328054684303832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 active layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dashDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="4198AF"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -2906,9 +4014,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525">
       <a:noFill/>
     </a:ln>
@@ -2918,8 +4024,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000">
-          <a:latin typeface="Source Sans Pro"/>
+        <a:defRPr sz="1000" kern="100">
+          <a:latin typeface="Times New Roman"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -3009,8 +4115,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3031,6 +4137,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3046,8 +4184,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3395,7 +4533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5578,8 +6716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5985,7 +7123,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/bench/malte.xlsx
+++ b/bench/malte.xlsx
@@ -451,9 +451,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4572A7"/>
-            </a:solidFill>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="tx2"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -461,23 +466,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$2</c:f>
+              <c:f>Sheet4!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.671715222843913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000412458193122127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00133243676817078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000547716181384589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0408880651880897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.042993344126641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.189976252968379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,9 +539,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AA4643"/>
-            </a:solidFill>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -508,23 +554,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$3</c:f>
+              <c:f>Sheet4!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.358972593306707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000940233236151603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000932570573538186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000306217387968078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0406786663792484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.841919972522754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.601038961038961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,9 +627,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="89A54E"/>
-            </a:solidFill>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -555,23 +642,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$4</c:f>
+              <c:f>Sheet4!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.366578977467688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000812523381967826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000739166091160221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000260445957683463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0381462559097148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.510296136497352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.182041066503217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,9 +715,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="71588F"/>
-            </a:solidFill>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -602,23 +730,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$5</c:f>
+              <c:f>Sheet4!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.437545845122079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000981984082234559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000630244136676102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000208129080773653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0378660216887056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.395482845409988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.024945950440712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,9 +803,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4198AF"/>
-            </a:solidFill>
+            <a:pattFill prst="dashDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="4198AF"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -649,23 +818,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$6</c:f>
+              <c:f>Sheet4!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.449037423533645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000811567618954758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000547594500466309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000441011229189147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0360283756863126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.277562373567094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.902904787520172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,33 +891,71 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DB843D"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="zigZag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6"/>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$7</c:f>
+              <c:f>Sheet4!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.478076492238758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00124868357428534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000515129342900302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000454510615258836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0353800330641746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.294604371921182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.945786826934871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,33 +976,74 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="93A9CF"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="divot">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$8</c:f>
+              <c:f>Sheet4!$B$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.779464931308749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00219063805122221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000549703054298642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000539118812376787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0358148486972638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.269481778237271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.832150821001419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,33 +1064,74 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="D19392"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="smGrid">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$9</c:f>
+              <c:f>Sheet4!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.42771855010661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00183284921576571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000557055504493464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000506861863938053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0342998843472915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.120892139693005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.168771282633371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,33 +1152,74 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="B9CD96"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="pct10">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$10</c:f>
+              <c:f>Sheet4!$B$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.498718975180144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00178874600910709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000599825075642965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000546189101180195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0339139392236737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0550017262213016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0555808212058212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,33 +1240,74 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="A99BBD"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet4!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ContextL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ContextJS Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ContextJS Chrome OSX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ContextJS Chrome Win</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ContextPy Python OSX</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ContextPy PyPy OSX</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$11</c:f>
+              <c:f>Sheet4!$B$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.3789957134109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00177534818194815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000595634815183102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000618550145348837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0336262561292424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0464943244739756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0479021103664623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,11 +1322,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085652344"/>
-        <c:axId val="2085648632"/>
+        <c:axId val="-2120837848"/>
+        <c:axId val="-2134682072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2085652344"/>
+        <c:axId val="-2120837848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +1344,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2085648632"/>
+        <c:crossAx val="-2134682072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -945,10 +1352,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085648632"/>
+        <c:axId val="-2134682072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.9"/>
+          <c:max val="4.2"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -974,7 +1382,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2085652344"/>
+        <c:crossAx val="-2120837848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -992,9 +1400,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525">
       <a:noFill/>
     </a:ln>
@@ -1004,8 +1410,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000">
-          <a:latin typeface="Source Sans Pro"/>
+        <a:defRPr sz="1000" kern="100">
+          <a:latin typeface="Times New Roman"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1055,9 +1461,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4572A7"/>
-            </a:solidFill>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="tx2"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -1065,29 +1476,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$2:$H$2</c:f>
+              <c:f>Sheet4!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3.042993344126641</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.189976252968379</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.671715222843913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,9 +1513,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AA4643"/>
-            </a:solidFill>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -1118,29 +1528,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$3:$H$3</c:f>
+              <c:f>Sheet4!$B$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.841919972522754</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.601038961038961</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.358972593306707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,9 +1565,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="89A54E"/>
-            </a:solidFill>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -1171,29 +1580,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$4:$H$4</c:f>
+              <c:f>Sheet4!$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.510296136497352</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.182041066503217</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.366578977467688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,9 +1617,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="71588F"/>
-            </a:solidFill>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -1224,29 +1632,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$5:$H$5</c:f>
+              <c:f>Sheet4!$B$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.395482845409988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.024945950440712</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.437545845122079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,9 +1669,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4198AF"/>
-            </a:solidFill>
+            <a:pattFill prst="dashDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="4198AF"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -1277,29 +1684,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$6:$H$6</c:f>
+              <c:f>Sheet4!$B$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.277562373567094</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.902904787520172</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.449037423533645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,39 +1721,35 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DB843D"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="zigZag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6"/>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$7:$H$7</c:f>
+              <c:f>Sheet4!$B$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.294604371921182</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.945786826934871</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.478076492238758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,39 +1770,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="93A9CF"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="divot">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$8:$H$8</c:f>
+              <c:f>Sheet4!$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.269481778237271</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.832150821001419</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.779464931308749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,39 +1822,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="D19392"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="smGrid">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$9:$H$9</c:f>
+              <c:f>Sheet4!$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.120892139693005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.168771282633371</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.42771855010661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,39 +1874,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="B9CD96"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="pct10">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$10:$H$10</c:f>
+              <c:f>Sheet4!$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.0550017262213016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0555808212058212</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.498718975180144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,39 +1926,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="A99BBD"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ContextPyPy PyPy OSX</c:v>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ContextL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$11:$H$11</c:f>
+              <c:f>Sheet4!$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.0464943244739756</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0479021103664623</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3789957134109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,11 +1972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2140431032"/>
-        <c:axId val="2140427368"/>
+        <c:axId val="-2079237624"/>
+        <c:axId val="-2079241224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140431032"/>
+        <c:axId val="-2079237624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1994,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2140427368"/>
+        <c:crossAx val="-2079241224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1609,10 +2002,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140427368"/>
+        <c:axId val="-2079241224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.5"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1638,7 +2031,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2140431032"/>
+        <c:crossAx val="-2079237624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,9 +2049,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525">
       <a:noFill/>
     </a:ln>
@@ -1668,8 +2059,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000">
-          <a:latin typeface="Source Sans Pro"/>
+        <a:defRPr sz="1000" kern="100">
+          <a:latin typeface="Times New Roman"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1719,9 +2110,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4572A7"/>
-            </a:solidFill>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="tx2"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -1784,9 +2180,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AA4643"/>
-            </a:solidFill>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -1849,9 +2250,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="89A54E"/>
-            </a:solidFill>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -1914,9 +2320,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="71588F"/>
-            </a:solidFill>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -1979,9 +2390,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4198AF"/>
-            </a:solidFill>
+            <a:pattFill prst="dashDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="4198AF"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400">
               <a:noFill/>
             </a:ln>
@@ -2044,12 +2460,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DB843D"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="zigZag">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6"/>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2109,12 +2527,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="93A9CF"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="divot">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2174,12 +2597,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="D19392"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="smGrid">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2239,12 +2667,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="B9CD96"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
+            <a:pattFill prst="pct10">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2303,6 +2736,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:schemeClr val="bg1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2355,11 +2801,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2140367992"/>
-        <c:axId val="2140364344"/>
+        <c:axId val="-2078484056"/>
+        <c:axId val="-2078498328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140367992"/>
+        <c:axId val="-2078484056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2823,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2140364344"/>
+        <c:crossAx val="-2078498328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2385,9 +2831,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140364344"/>
+        <c:axId val="-2078498328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.042"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2413,9 +2861,10 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2140367992"/>
+        <c:crossAx val="-2078484056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="0.001"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2431,9 +2880,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525">
       <a:noFill/>
     </a:ln>
@@ -2443,8 +2890,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000">
-          <a:latin typeface="Source Sans Pro"/>
+        <a:defRPr sz="1000" kern="100">
+          <a:latin typeface="Times New Roman"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -2509,28 +2956,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -2538,29 +2970,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$2:$H$2</c:f>
+              <c:f>Sheet4!$G$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.671715222843913</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.042993344126641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000412458193122127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00133243676817078</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000547716181384589</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0408880651880897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.042993344126641</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>4.189976252968379</c:v>
                 </c:pt>
               </c:numCache>
@@ -2597,28 +3014,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -2626,29 +3028,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$3:$H$3</c:f>
+              <c:f>Sheet4!$G$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.358972593306707</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.841919972522754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000940233236151603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000932570573538186</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000306217387968078</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0406786663792484</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.841919972522754</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2.601038961038961</c:v>
                 </c:pt>
               </c:numCache>
@@ -2685,28 +3072,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -2714,29 +3086,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$4:$H$4</c:f>
+              <c:f>Sheet4!$G$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.366578977467688</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.510296136497352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000812523381967826</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000739166091160221</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000260445957683463</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0381462559097148</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.510296136497352</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2.182041066503217</c:v>
                 </c:pt>
               </c:numCache>
@@ -2773,28 +3130,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -2802,29 +3144,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$5:$H$5</c:f>
+              <c:f>Sheet4!$G$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.437545845122079</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.395482845409988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000981984082234559</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000630244136676102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000208129080773653</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0378660216887056</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.395482845409988</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2.024945950440712</c:v>
                 </c:pt>
               </c:numCache>
@@ -2861,28 +3188,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -2890,29 +3202,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$6:$H$6</c:f>
+              <c:f>Sheet4!$G$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.449037423533645</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.277562373567094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000811567618954758</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000547594500466309</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000441011229189147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0360283756863126</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.277562373567094</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.902904787520172</c:v>
                 </c:pt>
               </c:numCache>
@@ -2946,28 +3243,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -2975,29 +3257,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$7:$H$7</c:f>
+              <c:f>Sheet4!$G$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.478076492238758</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.294604371921182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00124868357428534</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000515129342900302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000454510615258836</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0353800330641746</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.294604371921182</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.945786826934871</c:v>
                 </c:pt>
               </c:numCache>
@@ -3034,28 +3301,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -3063,29 +3315,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$8:$H$8</c:f>
+              <c:f>Sheet4!$G$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.779464931308749</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.269481778237271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00219063805122221</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000549703054298642</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000539118812376787</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0358148486972638</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.269481778237271</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.832150821001419</c:v>
                 </c:pt>
               </c:numCache>
@@ -3122,28 +3359,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -3151,29 +3373,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$9:$H$9</c:f>
+              <c:f>Sheet4!$G$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.42771855010661</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.120892139693005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00183284921576571</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000557055504493464</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000506861863938053</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0342998843472915</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.120892139693005</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.168771282633371</c:v>
                 </c:pt>
               </c:numCache>
@@ -3210,28 +3417,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -3239,29 +3431,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$10:$H$10</c:f>
+              <c:f>Sheet4!$G$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.498718975180144</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0550017262213016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00178874600910709</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000599825075642965</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000546189101180195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0339139392236737</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0550017262213016</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.0555808212058212</c:v>
                 </c:pt>
               </c:numCache>
@@ -3298,28 +3475,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ContextL</c:v>
+              <c:f>Sheet4!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ContextPy PyPy OSX</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ContextJS Edge</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ContextJS Chrome OSX</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ContextJS Chrome Win</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ContextPy Python OSX</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ContextPy PyPy OSX</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>ContextPyPy PyPy OSX</c:v>
                 </c:pt>
               </c:strCache>
@@ -3327,29 +3489,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$11:$H$11</c:f>
+              <c:f>Sheet4!$G$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.3789957134109</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0464943244739756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00177534818194815</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000595634815183102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000618550145348837</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0336262561292424</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0464943244739756</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.0479021103664623</c:v>
                 </c:pt>
               </c:numCache>
@@ -3365,11 +3512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127600904"/>
-        <c:axId val="-2127585400"/>
+        <c:axId val="-2133424088"/>
+        <c:axId val="-2079446808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127600904"/>
+        <c:axId val="-2133424088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,7 +3534,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2127585400"/>
+        <c:crossAx val="-2079446808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3395,10 +3542,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127585400"/>
+        <c:axId val="-2079446808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="4.3"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3424,7 +3572,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2127600904"/>
+        <c:crossAx val="-2133424088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4046,17 +4194,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1574800</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 4"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4075,20 +4223,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1511300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 4"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4107,20 +4255,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1778000</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4140,19 +4288,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6716,8 +6864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/bench/malte.xlsx
+++ b/bench/malte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="36360" yWindow="3700" windowWidth="43840" windowHeight="23800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="50420" yWindow="7280" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bench1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -284,16 +284,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -512,13 +512,13 @@
                   <c:v>0.000547716181384589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0408880651880897</c:v>
+                  <c:v>0.039091651119403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.042993344126641</c:v>
+                  <c:v>3.008945798982634</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.189976252968379</c:v>
+                  <c:v>4.448480262328162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,13 +600,13 @@
                   <c:v>0.000306217387968078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0406786663792484</c:v>
+                  <c:v>0.0393120712355346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.841919972522754</c:v>
+                  <c:v>0.803968384653384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.601038961038961</c:v>
+                  <c:v>2.569042025580788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,13 +688,13 @@
                   <c:v>0.000260445957683463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0381462559097148</c:v>
+                  <c:v>0.0369627789121503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.510296136497352</c:v>
+                  <c:v>0.499716016660356</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.182041066503217</c:v>
+                  <c:v>1.990243902439024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,13 +776,13 @@
                   <c:v>0.000208129080773653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0378660216887056</c:v>
+                  <c:v>0.0361570840906917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.395482845409988</c:v>
+                  <c:v>0.407708306252437</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.024945950440712</c:v>
+                  <c:v>2.068036154478225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,13 +864,13 @@
                   <c:v>0.000441011229189147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0360283756863126</c:v>
+                  <c:v>0.0350284828946133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.277562373567094</c:v>
+                  <c:v>0.27175697865353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.902904787520172</c:v>
+                  <c:v>0.866287528104748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,13 +949,13 @@
                   <c:v>0.000454510615258836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0353800330641746</c:v>
+                  <c:v>0.0358034970857619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.294604371921182</c:v>
+                  <c:v>0.274138664398128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.945786826934871</c:v>
+                  <c:v>0.954928588152657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,13 +1037,13 @@
                   <c:v>0.000539118812376787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0358148486972638</c:v>
+                  <c:v>0.0351666744697785</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.269481778237271</c:v>
+                  <c:v>0.264704053717981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.832150821001419</c:v>
+                  <c:v>0.861472742066721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,13 +1125,13 @@
                   <c:v>0.000506861863938053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0342998843472915</c:v>
+                  <c:v>0.0350124110201653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.120892139693005</c:v>
+                  <c:v>0.114233141038393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.168771282633371</c:v>
+                  <c:v>0.160436623629043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,13 +1213,13 @@
                   <c:v>0.000546189101180195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0339139392236737</c:v>
+                  <c:v>0.0335966430255808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0550017262213016</c:v>
+                  <c:v>0.0532972928359194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0555808212058212</c:v>
+                  <c:v>0.0554045376712329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,13 +1301,13 @@
                   <c:v>0.000618550145348837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0336262561292424</c:v>
+                  <c:v>0.0340827951056441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0464943244739756</c:v>
+                  <c:v>0.0466963916815865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0479021103664623</c:v>
+                  <c:v>0.04722718526663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,11 +1322,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2120837848"/>
-        <c:axId val="-2134682072"/>
+        <c:axId val="2121668328"/>
+        <c:axId val="2121671624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2120837848"/>
+        <c:axId val="2121668328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1344,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2134682072"/>
+        <c:crossAx val="2121671624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134682072"/>
+        <c:axId val="2121671624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.2"/>
@@ -1382,7 +1382,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2120837848"/>
+        <c:crossAx val="2121668328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1972,11 +1972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2079237624"/>
-        <c:axId val="-2079241224"/>
+        <c:axId val="2121758376"/>
+        <c:axId val="2121761528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079237624"/>
+        <c:axId val="2121758376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1994,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2079241224"/>
+        <c:crossAx val="2121761528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2002,7 +2002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079241224"/>
+        <c:axId val="2121761528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2031,7 +2031,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2079237624"/>
+        <c:crossAx val="2121758376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2159,7 +2159,7 @@
                   <c:v>0.000547716181384589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0408880651880897</c:v>
+                  <c:v>0.039091651119403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,7 +2229,7 @@
                   <c:v>0.000306217387968078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0406786663792484</c:v>
+                  <c:v>0.0393120712355346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,7 +2299,7 @@
                   <c:v>0.000260445957683463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0381462559097148</c:v>
+                  <c:v>0.0369627789121503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,7 +2369,7 @@
                   <c:v>0.000208129080773653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0378660216887056</c:v>
+                  <c:v>0.0361570840906917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2439,7 @@
                   <c:v>0.000441011229189147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0360283756863126</c:v>
+                  <c:v>0.0350284828946133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,7 +2506,7 @@
                   <c:v>0.000454510615258836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0353800330641746</c:v>
+                  <c:v>0.0358034970857619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,7 +2576,7 @@
                   <c:v>0.000539118812376787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0358148486972638</c:v>
+                  <c:v>0.0351666744697785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,7 +2646,7 @@
                   <c:v>0.000506861863938053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0342998843472915</c:v>
+                  <c:v>0.0350124110201653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,7 +2716,7 @@
                   <c:v>0.000546189101180195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0339139392236737</c:v>
+                  <c:v>0.0335966430255808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +2786,7 @@
                   <c:v>0.000618550145348837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0336262561292424</c:v>
+                  <c:v>0.0340827951056441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,11 +2801,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2078484056"/>
-        <c:axId val="-2078498328"/>
+        <c:axId val="2121825480"/>
+        <c:axId val="2121828584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2078484056"/>
+        <c:axId val="2121825480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2823,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2078498328"/>
+        <c:crossAx val="2121828584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2831,7 +2831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078498328"/>
+        <c:axId val="2121828584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.042"/>
@@ -2861,7 +2861,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2078484056"/>
+        <c:crossAx val="2121825480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="0.001"/>
@@ -2975,10 +2975,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.042993344126641</c:v>
+                  <c:v>3.008945798982634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.189976252968379</c:v>
+                  <c:v>4.448480262328162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,10 +3033,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.841919972522754</c:v>
+                  <c:v>0.803968384653384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.601038961038961</c:v>
+                  <c:v>2.569042025580788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3091,10 +3091,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.510296136497352</c:v>
+                  <c:v>0.499716016660356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.182041066503217</c:v>
+                  <c:v>1.990243902439024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,10 +3149,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.395482845409988</c:v>
+                  <c:v>0.407708306252437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.024945950440712</c:v>
+                  <c:v>2.068036154478225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3207,10 +3207,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.277562373567094</c:v>
+                  <c:v>0.27175697865353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.902904787520172</c:v>
+                  <c:v>0.866287528104748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3262,10 +3262,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.294604371921182</c:v>
+                  <c:v>0.274138664398128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.945786826934871</c:v>
+                  <c:v>0.954928588152657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,10 +3320,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.269481778237271</c:v>
+                  <c:v>0.264704053717981</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.832150821001419</c:v>
+                  <c:v>0.861472742066721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3378,10 +3378,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.120892139693005</c:v>
+                  <c:v>0.114233141038393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.168771282633371</c:v>
+                  <c:v>0.160436623629043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,10 +3436,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0550017262213016</c:v>
+                  <c:v>0.0532972928359194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0555808212058212</c:v>
+                  <c:v>0.0554045376712329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,10 +3494,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0464943244739756</c:v>
+                  <c:v>0.0466963916815865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0479021103664623</c:v>
+                  <c:v>0.04722718526663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3512,11 +3512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2133424088"/>
-        <c:axId val="-2079446808"/>
+        <c:axId val="2121891496"/>
+        <c:axId val="2121894600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133424088"/>
+        <c:axId val="2121891496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,7 +3534,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2079446808"/>
+        <c:crossAx val="2121894600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3542,7 +3542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079446808"/>
+        <c:axId val="2121894600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.3"/>
@@ -3572,7 +3572,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2133424088"/>
+        <c:crossAx val="2121891496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3712,13 +3712,13 @@
                   <c:v>0.711285876439111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89419387044105</c:v>
+                  <c:v>0.868135174987211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.031339484568883</c:v>
+                  <c:v>1.054254982600443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75500196155355</c:v>
+                  <c:v>0.854427645788337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3800,13 +3800,13 @@
                   <c:v>0.52009722551577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.812955013898606</c:v>
+                  <c:v>0.795651574350724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.676863645855085</c:v>
+                  <c:v>0.687325977106321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.301503994986683</c:v>
+                  <c:v>0.296373988612526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3888,13 +3888,13 @@
                   <c:v>0.38593172620095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.732649392036401</c:v>
+                  <c:v>0.729179128998829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.124884419787332</c:v>
+                  <c:v>0.501429431236834</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0347633670520231</c:v>
+                  <c:v>0.192225461613217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3976,13 +3976,13 @@
                   <c:v>0.29404075613353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.669795594054778</c:v>
+                  <c:v>0.663383488038754</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.116500143760782</c:v>
+                  <c:v>0.385929357266937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0328054684303832</c:v>
+                  <c:v>0.145035929021851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4064,13 +4064,13 @@
                   <c:v>0.227444778595873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.610752795101646</c:v>
+                  <c:v>0.61857283760024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10867305887086</c:v>
+                  <c:v>0.305397727272727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.030477955150133</c:v>
+                  <c:v>0.11296402055968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4085,11 +4085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142620232"/>
-        <c:axId val="2142623592"/>
+        <c:axId val="2118182392"/>
+        <c:axId val="2118178616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142620232"/>
+        <c:axId val="2118182392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,7 +4107,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2142623592"/>
+        <c:crossAx val="2118178616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4115,7 +4115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142623592"/>
+        <c:axId val="2118178616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4144,7 +4144,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2142620232"/>
+        <c:crossAx val="2118182392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4685,7 +4685,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -4718,41 +4718,41 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="8" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22">
       <c r="B2" s="5" t="s">
@@ -4826,72 +4826,72 @@
       <c r="B3" s="5">
         <v>819200000</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>6.9630000000000001</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <f>B3/C3</f>
         <v>117650438.02958494</v>
       </c>
       <c r="E3" s="5">
         <v>838860800</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>7.7190000000000003</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <f>E3/F3</f>
         <v>108674802.43554865</v>
       </c>
       <c r="H3" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>9.5549999999999997</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <f>H3/I3</f>
         <v>351171449.50287807</v>
       </c>
       <c r="K3" s="5">
         <v>3355443200</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="8">
         <v>9.8190000000000008</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <f>K3/L3</f>
         <v>341729626.23485076</v>
       </c>
       <c r="N3" s="5">
         <v>25600000</v>
       </c>
-      <c r="O3" s="10">
-        <v>5.3390000000000004</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="O3" s="8">
+        <v>5.3639999999999999</v>
+      </c>
+      <c r="P3" s="10">
         <f>N3/O3</f>
-        <v>4794905.4129986884</v>
+        <v>4772557.7926920205</v>
       </c>
       <c r="Q3" s="5">
         <v>819200000</v>
       </c>
-      <c r="R3" s="10">
-        <v>8.4580000000000002</v>
-      </c>
-      <c r="S3" s="12">
+      <c r="R3" s="8">
+        <v>8.577</v>
+      </c>
+      <c r="S3" s="10">
         <f>Q3/R3</f>
-        <v>96855048.47481674</v>
+        <v>95511251.020170227</v>
       </c>
       <c r="T3" s="5">
         <v>819200000</v>
       </c>
-      <c r="U3" s="10">
-        <v>8.3810000000000002</v>
-      </c>
-      <c r="V3" s="12">
+      <c r="U3" s="8">
+        <v>8.8179999999999996</v>
+      </c>
+      <c r="V3" s="10">
         <f>T3/U3</f>
-        <v>97744899.17670922</v>
+        <v>92900884.554320708</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -4901,72 +4901,72 @@
       <c r="B4" s="5">
         <v>409600000</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>5.2130000000000001</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <f t="shared" ref="D4:D12" si="0">B4/C4</f>
         <v>78572798.77230002</v>
       </c>
       <c r="E4" s="5">
         <v>838860800</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>8.2560000000000002</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <f t="shared" ref="G4:G12" si="1">E4/F4</f>
         <v>101606201.55038759</v>
       </c>
       <c r="H4" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>9.6029999999999998</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <f t="shared" ref="J4:J12" si="2">H4/I4</f>
         <v>349416140.78933668</v>
       </c>
       <c r="K4" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <v>5.1079999999999997</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <f t="shared" ref="M4:M12" si="3">K4/L4</f>
         <v>328449804.22866094</v>
       </c>
       <c r="N4" s="5">
         <v>25600000</v>
       </c>
-      <c r="O4" s="10">
-        <v>9.0579999999999998</v>
-      </c>
-      <c r="P4" s="12">
+      <c r="O4" s="8">
+        <v>9.077</v>
+      </c>
+      <c r="P4" s="10">
         <f t="shared" ref="P4:P12" si="4">N4/O4</f>
-        <v>2826230.9560609409</v>
+        <v>2820315.0820755758</v>
       </c>
       <c r="Q4" s="5">
         <v>819200000</v>
       </c>
-      <c r="R4" s="10">
-        <v>9.8049999999999997</v>
-      </c>
-      <c r="S4" s="12">
+      <c r="R4" s="8">
+        <v>9.7650000000000006</v>
+      </c>
+      <c r="S4" s="10">
         <f t="shared" ref="S4:S12" si="5">Q4/R4</f>
-        <v>83549209.586945444</v>
+        <v>83891449.052739367</v>
       </c>
       <c r="T4" s="5">
-        <v>409600000</v>
-      </c>
-      <c r="U4" s="10">
-        <v>5.0069999999999997</v>
-      </c>
-      <c r="V4" s="12">
+        <v>819200000</v>
+      </c>
+      <c r="U4" s="8">
+        <v>9.8420000000000005</v>
+      </c>
+      <c r="V4" s="10">
         <f t="shared" ref="V4:V12" si="6">T4/U4</f>
-        <v>81805472.33872579</v>
+        <v>83235114.814062178</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -4976,72 +4976,72 @@
       <c r="B5" s="5">
         <v>409600000</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>6.41</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>63900156.006240249</v>
       </c>
       <c r="E5" s="5">
         <v>838860800</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>8.8960000000000008</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <f t="shared" si="1"/>
         <v>94296402.87769784</v>
       </c>
       <c r="H5" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>9.59</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <f t="shared" si="2"/>
         <v>349889801.87695515</v>
       </c>
       <c r="K5" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="8">
         <v>5.335</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <f t="shared" si="3"/>
         <v>314474526.71040303</v>
       </c>
       <c r="N5" s="5">
         <v>12800000</v>
       </c>
-      <c r="O5" s="10">
-        <v>6.0030000000000001</v>
-      </c>
-      <c r="P5" s="12">
+      <c r="O5" s="8">
+        <v>6.01</v>
+      </c>
+      <c r="P5" s="10">
         <f t="shared" si="4"/>
-        <v>2132267.1997334664</v>
+        <v>2129783.6938435943</v>
       </c>
       <c r="Q5" s="5">
         <v>409600000</v>
       </c>
-      <c r="R5" s="10">
-        <v>5.2039999999999997</v>
-      </c>
-      <c r="S5" s="12">
+      <c r="R5" s="8">
+        <v>5.2789999999999999</v>
+      </c>
+      <c r="S5" s="10">
         <f t="shared" si="5"/>
-        <v>78708685.626441196</v>
+        <v>77590452.737260848</v>
       </c>
       <c r="T5" s="5">
         <v>409600000</v>
       </c>
-      <c r="U5" s="10">
-        <v>5.34</v>
-      </c>
-      <c r="V5" s="12">
+      <c r="U5" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V5" s="10">
         <f t="shared" si="6"/>
-        <v>76704119.850187272</v>
+        <v>80313725.490196079</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -5051,72 +5051,72 @@
       <c r="B6" s="5">
         <v>409600000</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>8.3510000000000009</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>49048018.201412998</v>
       </c>
       <c r="E6" s="5">
         <v>419430400</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>5.7960000000000003</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>72365493.443754315</v>
       </c>
       <c r="H6" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>9.5760000000000005</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <f t="shared" si="2"/>
         <v>350401336.67502087</v>
       </c>
       <c r="K6" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>5.19</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <f t="shared" si="3"/>
         <v>323260423.89210016</v>
       </c>
       <c r="N6" s="5">
         <v>12800000</v>
       </c>
-      <c r="O6" s="10">
-        <v>7.64</v>
-      </c>
-      <c r="P6" s="12">
+      <c r="O6" s="8">
+        <v>7.5590000000000002</v>
+      </c>
+      <c r="P6" s="10">
         <f t="shared" si="4"/>
-        <v>1675392.6701570682</v>
+        <v>1693345.6806455881</v>
       </c>
       <c r="Q6" s="5">
         <v>409600000</v>
       </c>
-      <c r="R6" s="10">
-        <v>5.9710000000000001</v>
-      </c>
-      <c r="S6" s="12">
+      <c r="R6" s="8">
+        <v>6.2729999999999997</v>
+      </c>
+      <c r="S6" s="10">
         <f t="shared" si="5"/>
-        <v>68598224.752972707</v>
+        <v>65295711.780647218</v>
       </c>
       <c r="T6" s="5">
         <v>409600000</v>
       </c>
-      <c r="U6" s="10">
-        <v>6.0880000000000001</v>
-      </c>
-      <c r="V6" s="12">
+      <c r="U6" s="8">
+        <v>6.2919999999999998</v>
+      </c>
+      <c r="V6" s="10">
         <f t="shared" si="6"/>
-        <v>67279894.875164255</v>
+        <v>65098537.825810552</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -5126,72 +5126,72 @@
       <c r="B7" s="5">
         <v>409600000</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>9.9830000000000005</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>41029750.575979166</v>
       </c>
       <c r="E7" s="5">
         <v>419430400</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>5.327</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>78736699.831049368</v>
       </c>
       <c r="H7" s="5">
         <v>3355443200</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>9.6199999999999992</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <f t="shared" si="2"/>
         <v>348798669.43866944</v>
       </c>
       <c r="K7" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>5.859</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="10">
         <f t="shared" si="3"/>
         <v>286349479.43335038</v>
       </c>
       <c r="N7" s="5">
         <v>12800000</v>
       </c>
-      <c r="O7" s="10">
-        <v>8.8979999999999997</v>
-      </c>
-      <c r="P7" s="12">
+      <c r="O7" s="8">
+        <v>8.9529999999999994</v>
+      </c>
+      <c r="P7" s="10">
         <f t="shared" si="4"/>
-        <v>1438525.5113508655</v>
+        <v>1429688.3726125322</v>
       </c>
       <c r="Q7" s="5">
         <v>409600000</v>
       </c>
-      <c r="R7" s="10">
-        <v>6.5860000000000003</v>
-      </c>
-      <c r="S7" s="12">
+      <c r="R7" s="8">
+        <v>6.62</v>
+      </c>
+      <c r="S7" s="10">
         <f t="shared" si="5"/>
-        <v>62192529.608259946</v>
+        <v>61873111.782477342</v>
       </c>
       <c r="T7" s="5">
         <v>409600000</v>
       </c>
-      <c r="U7" s="10">
-        <v>6.7140000000000004</v>
-      </c>
-      <c r="V7" s="12">
+      <c r="U7" s="8">
+        <v>6.55</v>
+      </c>
+      <c r="V7" s="10">
         <f t="shared" si="6"/>
-        <v>61006851.355376817</v>
+        <v>62534351.145038173</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -5201,72 +5201,72 @@
       <c r="B8" s="5">
         <v>204800000</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>5.9749999999999996</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>34276150.627615064</v>
       </c>
       <c r="E8" s="5">
         <v>419430400</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>9.7509999999999994</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>43014090.862475649</v>
       </c>
       <c r="H8" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <v>5.2380000000000004</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <f t="shared" si="2"/>
         <v>320298129.05689192</v>
       </c>
       <c r="K8" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <v>6.6890000000000001</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="10">
         <f t="shared" si="3"/>
         <v>250817999.70100164</v>
       </c>
       <c r="N8" s="5">
         <v>6400000</v>
       </c>
-      <c r="O8" s="10">
-        <v>5.1790000000000003</v>
-      </c>
-      <c r="P8" s="12">
+      <c r="O8" s="8">
+        <v>5.3319999999999999</v>
+      </c>
+      <c r="P8" s="10">
         <f t="shared" si="4"/>
-        <v>1235759.7991890325</v>
+        <v>1200300.0750187547</v>
       </c>
       <c r="Q8" s="5">
         <v>409600000</v>
       </c>
-      <c r="R8" s="10">
-        <v>7.6550000000000002</v>
-      </c>
-      <c r="S8" s="12">
+      <c r="R8" s="8">
+        <v>7.734</v>
+      </c>
+      <c r="S8" s="10">
         <f t="shared" si="5"/>
-        <v>53507511.430437624</v>
+        <v>52960951.64209982</v>
       </c>
       <c r="T8" s="5">
         <v>409600000</v>
       </c>
-      <c r="U8" s="10">
-        <v>7.7110000000000003</v>
-      </c>
-      <c r="V8" s="12">
+      <c r="U8" s="8">
+        <v>8.157</v>
+      </c>
+      <c r="V8" s="10">
         <f t="shared" si="6"/>
-        <v>53118921.02191674</v>
+        <v>50214539.659188427</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -5276,72 +5276,72 @@
       <c r="B9" s="5">
         <v>204800000</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>10.78</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>18998144.712430429</v>
       </c>
       <c r="E9" s="5">
         <v>209715200</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>9.1310000000000002</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <f t="shared" si="1"/>
         <v>22967385.828496329</v>
       </c>
       <c r="H9" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>6.22</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <f t="shared" si="2"/>
         <v>269730160.7717042</v>
       </c>
       <c r="K9" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="8">
         <v>8.9610000000000003</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="10">
         <f t="shared" si="3"/>
         <v>187224818.65863183</v>
       </c>
       <c r="N9" s="5">
         <v>6400000</v>
       </c>
-      <c r="O9" s="10">
-        <v>6.0289999999999999</v>
-      </c>
-      <c r="P9" s="12">
+      <c r="O9" s="8">
+        <v>6.0090000000000003</v>
+      </c>
+      <c r="P9" s="10">
         <f t="shared" si="4"/>
-        <v>1061535.9097694478</v>
+        <v>1065069.0630720586</v>
       </c>
       <c r="Q9" s="5">
         <v>409600000</v>
       </c>
-      <c r="R9" s="10">
-        <v>8.3409999999999993</v>
-      </c>
-      <c r="S9" s="12">
+      <c r="R9" s="8">
+        <v>8.5150000000000006</v>
+      </c>
+      <c r="S9" s="10">
         <f t="shared" si="5"/>
-        <v>49106821.72401391</v>
+        <v>48103347.034644738</v>
       </c>
       <c r="T9" s="5">
         <v>409600000</v>
       </c>
-      <c r="U9" s="10">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="V9" s="12">
+      <c r="U9" s="8">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="V9" s="10">
         <f t="shared" si="6"/>
-        <v>49890377.588306941</v>
+        <v>48358913.813459262</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -5351,72 +5351,72 @@
       <c r="B10" s="5">
         <v>102400000</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>5.0149999999999997</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>20418743.76869392</v>
       </c>
       <c r="E10" s="5">
         <v>209715200</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>8.1069999999999993</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <f t="shared" si="1"/>
         <v>25868410.016035527</v>
       </c>
       <c r="H10" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <v>6.9820000000000002</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>240292409.05184761</v>
       </c>
       <c r="K10" s="5">
         <v>1677721600</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="8">
         <v>9.3840000000000003</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <f t="shared" si="3"/>
         <v>178785336.743393</v>
       </c>
       <c r="N10" s="5">
         <v>6400000</v>
       </c>
-      <c r="O10" s="10">
-        <v>6.5839999999999996</v>
-      </c>
-      <c r="P10" s="12">
+      <c r="O10" s="8">
+        <v>6.827</v>
+      </c>
+      <c r="P10" s="10">
         <f t="shared" si="4"/>
-        <v>972053.46294046182</v>
+        <v>937454.2258678776</v>
       </c>
       <c r="Q10" s="5">
         <v>409600000</v>
       </c>
-      <c r="R10" s="10">
-        <v>9.3879999999999999</v>
-      </c>
-      <c r="S10" s="12">
+      <c r="R10" s="8">
+        <v>9.1880000000000006</v>
+      </c>
+      <c r="S10" s="10">
         <f t="shared" si="5"/>
-        <v>43630166.169578187</v>
+        <v>44579886.808881149</v>
       </c>
       <c r="T10" s="5">
         <v>409600000</v>
       </c>
-      <c r="U10" s="10">
-        <v>9.516</v>
-      </c>
-      <c r="V10" s="12">
+      <c r="U10" s="8">
+        <v>9.2449999999999992</v>
+      </c>
+      <c r="V10" s="10">
         <f t="shared" si="6"/>
-        <v>43043295.502311893</v>
+        <v>44305029.745808549</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -5426,72 +5426,72 @@
       <c r="B11" s="5">
         <v>102400000</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>6.2290000000000001</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>16439235.832396854</v>
       </c>
       <c r="E11" s="5">
         <v>209715200</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>8.7490000000000006</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <f t="shared" si="1"/>
         <v>23970190.878957592</v>
       </c>
       <c r="H11" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>8.1199999999999992</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <f t="shared" si="2"/>
         <v>206615960.59113303</v>
       </c>
       <c r="K11" s="5">
         <v>838860800</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="8">
         <v>5.8289999999999997</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <f t="shared" si="3"/>
         <v>143911614.34208271</v>
       </c>
       <c r="N11" s="5">
         <v>6400000</v>
       </c>
-      <c r="O11" s="10">
-        <v>7.2430000000000003</v>
-      </c>
-      <c r="P11" s="12">
+      <c r="O11" s="8">
+        <v>7.4939999999999998</v>
+      </c>
+      <c r="P11" s="10">
         <f t="shared" si="4"/>
-        <v>883611.763081596</v>
+        <v>854016.54657058988</v>
       </c>
       <c r="Q11" s="5">
         <v>204800000</v>
       </c>
-      <c r="R11" s="10">
-        <v>5.0979999999999999</v>
-      </c>
-      <c r="S11" s="12">
+      <c r="R11" s="8">
+        <v>5.1660000000000004</v>
+      </c>
+      <c r="S11" s="10">
         <f t="shared" si="5"/>
-        <v>40172616.712436251</v>
+        <v>39643825.009678662</v>
       </c>
       <c r="T11" s="5">
         <v>204800000</v>
       </c>
-      <c r="U11" s="10">
-        <v>5.133</v>
-      </c>
-      <c r="V11" s="12">
+      <c r="U11" s="8">
+        <v>5.1769999999999996</v>
+      </c>
+      <c r="V11" s="10">
         <f t="shared" si="6"/>
-        <v>39898694.720436394</v>
+        <v>39559590.496426508</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -5501,109 +5501,109 @@
       <c r="B12" s="5">
         <v>102400000</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>6.1890000000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>16545483.923089352</v>
       </c>
       <c r="E12" s="5">
         <v>209715200</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>9.5370000000000008</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <f t="shared" si="1"/>
         <v>21989640.348117854</v>
       </c>
       <c r="H12" s="5">
         <v>1677721600</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <v>8.8940000000000001</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <f t="shared" si="2"/>
         <v>188635214.75151786</v>
       </c>
       <c r="K12" s="5">
         <v>838860800</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="8">
         <v>6.8090000000000002</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="10">
         <f t="shared" si="3"/>
         <v>123198825.08444706</v>
       </c>
       <c r="N12" s="5">
         <v>6400000</v>
       </c>
-      <c r="O12" s="10">
-        <v>8.0510000000000002</v>
-      </c>
-      <c r="P12" s="12">
+      <c r="O12" s="8">
+        <v>8.4009999999999998</v>
+      </c>
+      <c r="P12" s="10">
         <f t="shared" si="4"/>
-        <v>794932.30654577073</v>
+        <v>761814.06975360075</v>
       </c>
       <c r="Q12" s="5">
         <v>204800000</v>
       </c>
-      <c r="R12" s="10">
-        <v>5.3739999999999997</v>
-      </c>
-      <c r="S12" s="12">
+      <c r="R12" s="8">
+        <v>5.4249999999999998</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="5"/>
-        <v>38109415.705247492</v>
+        <v>37751152.073732719</v>
       </c>
       <c r="T12" s="5">
         <v>204800000</v>
       </c>
-      <c r="U12" s="10">
-        <v>5.375</v>
-      </c>
-      <c r="V12" s="12">
+      <c r="U12" s="8">
+        <v>5.4980000000000002</v>
+      </c>
+      <c r="V12" s="10">
         <f t="shared" si="6"/>
-        <v>38102325.58139535</v>
+        <v>37249909.057839215</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="12"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="12"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="12"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="10"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="10"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="10"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="10"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="12"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="12"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="10"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="10"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="10"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="10"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="13"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="11"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="5">
@@ -5612,72 +5612,72 @@
       <c r="B15" s="5">
         <v>409600000</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>5.1829999999999998</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <f>B15/C15</f>
         <v>79027590.198726609</v>
       </c>
       <c r="E15" s="5">
         <v>409600</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>9.1379999999999999</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <f t="shared" ref="G15:G24" si="7">E15/F15</f>
         <v>44823.812650470565</v>
       </c>
       <c r="H15" s="5">
         <v>3276800</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="8">
         <v>7.0030000000000001</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <f>H15/I15</f>
         <v>467913.75124946452</v>
       </c>
       <c r="K15" s="5">
         <v>3276800</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <v>17.507000000000001</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="10">
         <f>K15/L15</f>
         <v>187170.84594733533</v>
       </c>
       <c r="N15" s="5">
         <v>3200000</v>
       </c>
-      <c r="O15" s="10">
-        <v>16.321999999999999</v>
-      </c>
-      <c r="P15" s="12">
+      <c r="O15" s="8">
+        <v>17.152000000000001</v>
+      </c>
+      <c r="P15" s="10">
         <f>N15/O15</f>
-        <v>196054.40509741454</v>
+        <v>186567.16417910447</v>
       </c>
       <c r="Q15" s="5">
         <v>1638400000</v>
       </c>
-      <c r="R15" s="10">
-        <v>5.5590000000000002</v>
-      </c>
-      <c r="S15" s="12">
+      <c r="R15" s="8">
+        <v>5.7009999999999996</v>
+      </c>
+      <c r="S15" s="10">
         <f>Q15/R15</f>
-        <v>294729267.85393053</v>
+        <v>287388177.51271707</v>
       </c>
       <c r="T15" s="5">
         <v>3276800000</v>
       </c>
-      <c r="U15" s="10">
-        <v>8.0009999999999994</v>
-      </c>
-      <c r="V15" s="12">
+      <c r="U15" s="8">
+        <v>7.9290000000000003</v>
+      </c>
+      <c r="V15" s="10">
         <f>T15/U15</f>
-        <v>409548806.39920014</v>
+        <v>413267751.29272288</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -5687,72 +5687,72 @@
       <c r="B16" s="5">
         <v>204800000</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>7.2610000000000001</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <f t="shared" ref="D16:D24" si="8">B16/C16</f>
         <v>28205481.338658586</v>
       </c>
       <c r="E16" s="5">
         <v>819200</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>8.5749999999999993</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <f t="shared" si="7"/>
         <v>95533.527696793011</v>
       </c>
       <c r="H16" s="5">
         <v>1638400</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <v>5.0279999999999996</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <f t="shared" ref="J16:J24" si="9">H16/I16</f>
         <v>325855.21081941132</v>
       </c>
       <c r="K16" s="5">
         <v>819200</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="8">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="10">
         <f t="shared" ref="M16:M24" si="10">K16/L16</f>
         <v>100577.04112952732</v>
       </c>
       <c r="N16" s="5">
         <v>3200000</v>
       </c>
-      <c r="O16" s="10">
-        <v>27.834</v>
-      </c>
-      <c r="P16" s="12">
+      <c r="O16" s="8">
+        <v>28.861999999999998</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" ref="P16:P24" si="11">N16/O16</f>
-        <v>114967.30617230725</v>
+        <v>110872.42741320768</v>
       </c>
       <c r="Q16" s="5">
         <v>409600000</v>
       </c>
-      <c r="R16" s="10">
-        <v>5.8230000000000004</v>
-      </c>
-      <c r="S16" s="12">
+      <c r="R16" s="8">
+        <v>6.0730000000000004</v>
+      </c>
+      <c r="S16" s="10">
         <f t="shared" ref="S16:S24" si="12">Q16/R16</f>
-        <v>70341748.239738956</v>
+        <v>67446072.781162515</v>
       </c>
       <c r="T16" s="5">
         <v>1638400000</v>
       </c>
-      <c r="U16" s="10">
-        <v>7.7</v>
-      </c>
-      <c r="V16" s="12">
+      <c r="U16" s="8">
+        <v>7.6619999999999999</v>
+      </c>
+      <c r="V16" s="10">
         <f t="shared" ref="V16:V24" si="13">T16/U16</f>
-        <v>212779220.77922076</v>
+        <v>213834507.96136779</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -5762,72 +5762,72 @@
       <c r="B17" s="5">
         <v>204800000</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>8.7430000000000003</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <f t="shared" si="8"/>
         <v>23424453.84879332</v>
       </c>
       <c r="E17" s="5">
         <v>409600</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <v>5.3460000000000001</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <f t="shared" si="7"/>
         <v>76618.032173587722</v>
       </c>
       <c r="H17" s="5">
         <v>1638400</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <v>6.335</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <f t="shared" si="9"/>
         <v>258626.67719021311</v>
       </c>
       <c r="K17" s="5">
         <v>409600</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <v>5.0010000000000003</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="10">
         <f t="shared" si="10"/>
         <v>81903.61927614476</v>
       </c>
       <c r="N17" s="5">
         <v>3200000</v>
       </c>
-      <c r="O17" s="10">
-        <v>39.341999999999999</v>
-      </c>
-      <c r="P17" s="12">
+      <c r="O17" s="8">
+        <v>40.649000000000001</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="11"/>
-        <v>81338.010268923797</v>
+        <v>78722.723806243695</v>
       </c>
       <c r="Q17" s="5">
         <v>204800000</v>
       </c>
-      <c r="R17" s="10">
-        <v>5.0990000000000002</v>
-      </c>
-      <c r="S17" s="12">
+      <c r="R17" s="8">
+        <v>5.282</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="12"/>
-        <v>40164738.183957636</v>
+        <v>38773191.972737603</v>
       </c>
       <c r="T17" s="5">
-        <v>1638400000</v>
-      </c>
-      <c r="U17" s="10">
-        <v>9.7889999999999997</v>
-      </c>
-      <c r="V17" s="12">
+        <v>819200000</v>
+      </c>
+      <c r="U17" s="8">
+        <v>5.125</v>
+      </c>
+      <c r="V17" s="10">
         <f t="shared" si="13"/>
-        <v>167371539.48309326</v>
+        <v>159843902.43902439</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -5837,72 +5837,72 @@
       <c r="B18" s="5">
         <v>204800000</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>9.5429999999999993</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <f t="shared" si="8"/>
         <v>21460756.575500369</v>
       </c>
       <c r="E18" s="5">
         <v>409600</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>5.7640000000000002</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <f t="shared" si="7"/>
         <v>71061.762664816095</v>
       </c>
       <c r="H18" s="5">
         <v>1638400</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <v>7.4189999999999996</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <f t="shared" si="9"/>
         <v>220838.38792290067</v>
       </c>
       <c r="K18" s="5">
         <v>409600</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="8">
         <v>6.0880000000000001</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="10">
         <f t="shared" si="10"/>
         <v>67279.89487516426</v>
       </c>
       <c r="N18" s="5">
         <v>3200000</v>
       </c>
-      <c r="O18" s="10">
-        <v>50.441000000000003</v>
-      </c>
-      <c r="P18" s="12">
+      <c r="O18" s="8">
+        <v>52.265000000000001</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="11"/>
-        <v>63440.45518526595</v>
+        <v>61226.442169712042</v>
       </c>
       <c r="Q18" s="5">
         <v>204800000</v>
       </c>
-      <c r="R18" s="10">
-        <v>7.5490000000000004</v>
-      </c>
-      <c r="S18" s="12">
+      <c r="R18" s="8">
+        <v>7.6929999999999996</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="12"/>
-        <v>27129421.11537952</v>
+        <v>26621604.055634994</v>
       </c>
       <c r="T18" s="5">
         <v>819200000</v>
       </c>
-      <c r="U18" s="10">
-        <v>6.0129999999999999</v>
-      </c>
-      <c r="V18" s="12">
+      <c r="U18" s="8">
+        <v>6.085</v>
+      </c>
+      <c r="V18" s="10">
         <f t="shared" si="13"/>
-        <v>136238150.67354065</v>
+        <v>134626129.82744452</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -5912,72 +5912,72 @@
       <c r="B19" s="5">
         <v>102400000</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>5.5579999999999998</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <f t="shared" si="8"/>
         <v>18423893.486865781</v>
       </c>
       <c r="E19" s="5">
         <v>409600</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>6.41</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <f t="shared" si="7"/>
         <v>63900.15600624025</v>
       </c>
       <c r="H19" s="5">
         <v>1638400</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <v>8.5779999999999994</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <f t="shared" si="9"/>
         <v>191000.23315458151</v>
       </c>
       <c r="K19" s="5">
         <v>819200</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="8">
         <v>6.4870000000000001</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="10">
         <f t="shared" si="10"/>
         <v>126283.33590257438</v>
       </c>
       <c r="N19" s="5">
         <v>3200000</v>
       </c>
-      <c r="O19" s="10">
-        <v>61.743000000000002</v>
-      </c>
-      <c r="P19" s="12">
+      <c r="O19" s="8">
+        <v>63.898000000000003</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="11"/>
-        <v>51827.737557293942</v>
+        <v>50079.814704685588</v>
       </c>
       <c r="Q19" s="5">
         <v>102400000</v>
       </c>
-      <c r="R19" s="10">
-        <v>5.9320000000000004</v>
-      </c>
-      <c r="S19" s="12">
+      <c r="R19" s="8">
+        <v>6.09</v>
+      </c>
+      <c r="S19" s="10">
         <f t="shared" si="12"/>
-        <v>17262306.136210382</v>
+        <v>16814449.917898193</v>
       </c>
       <c r="T19" s="5">
         <v>409600000</v>
       </c>
-      <c r="U19" s="10">
-        <v>7.4359999999999999</v>
-      </c>
-      <c r="V19" s="12">
+      <c r="U19" s="8">
+        <v>7.5609999999999999</v>
+      </c>
+      <c r="V19" s="10">
         <f t="shared" si="13"/>
-        <v>55083378.160301238</v>
+        <v>54172728.475069433</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -5987,72 +5987,72 @@
       <c r="B20" s="5">
         <v>102400000</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>6.2489999999999997</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <f t="shared" si="8"/>
         <v>16386621.859497521</v>
       </c>
       <c r="E20" s="5">
         <v>409600</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <v>7.6260000000000003</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <f t="shared" si="7"/>
         <v>53710.988722790455</v>
       </c>
       <c r="H20" s="5">
         <v>1638400</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="8">
         <v>9.93</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <f t="shared" si="9"/>
         <v>164994.96475327291</v>
       </c>
       <c r="K20" s="5">
         <v>819200</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="8">
         <v>7.1859999999999999</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="10">
         <f t="shared" si="10"/>
         <v>113999.44336209296</v>
       </c>
       <c r="N20" s="5">
         <v>3200000</v>
       </c>
-      <c r="O20" s="10">
-        <v>73.191000000000003</v>
-      </c>
-      <c r="P20" s="12">
+      <c r="O20" s="8">
+        <v>74.462000000000003</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="11"/>
-        <v>43721.222554685686</v>
+        <v>42974.940237973729</v>
       </c>
       <c r="Q20" s="5">
         <v>102400000</v>
       </c>
-      <c r="R20" s="10">
-        <v>6.4960000000000004</v>
-      </c>
-      <c r="S20" s="12">
+      <c r="R20" s="8">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="12"/>
-        <v>15763546.798029555</v>
+        <v>14518644.548419112</v>
       </c>
       <c r="T20" s="5">
         <v>409600000</v>
       </c>
-      <c r="U20" s="10">
-        <v>8.1530000000000005</v>
-      </c>
-      <c r="V20" s="12">
+      <c r="U20" s="8">
+        <v>8.5419999999999998</v>
+      </c>
+      <c r="V20" s="10">
         <f t="shared" si="13"/>
-        <v>50239175.763522625</v>
+        <v>47951299.461484432</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -6062,72 +6062,72 @@
       <c r="B21" s="5">
         <v>102400000</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>6.915</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <f t="shared" si="8"/>
         <v>14808387.563268257</v>
       </c>
       <c r="E21" s="5">
         <v>409600</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>8.141</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <f t="shared" si="7"/>
         <v>50313.229333005773</v>
       </c>
       <c r="H21" s="5">
         <v>819200</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="8">
         <v>5.5250000000000004</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <f t="shared" si="9"/>
         <v>148271.49321266968</v>
       </c>
       <c r="K21" s="5">
         <v>819200</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="8">
         <v>8.1159999999999997</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="10">
         <f t="shared" si="10"/>
         <v>100936.42188270084</v>
       </c>
       <c r="N21" s="5">
         <v>3200000</v>
       </c>
-      <c r="O21" s="10">
-        <v>84.168999999999997</v>
-      </c>
-      <c r="P21" s="12">
+      <c r="O21" s="8">
+        <v>85.436000000000007</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="11"/>
-        <v>38018.747995105085</v>
+        <v>37454.937028887114</v>
       </c>
       <c r="Q21" s="5">
         <v>102400000</v>
       </c>
-      <c r="R21" s="10">
-        <v>7.7380000000000004</v>
-      </c>
-      <c r="S21" s="12">
+      <c r="R21" s="8">
+        <v>8.0419999999999998</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="12"/>
-        <v>13233393.641767899</v>
+        <v>12733150.957473265</v>
       </c>
       <c r="T21" s="5">
         <v>409600000</v>
       </c>
-      <c r="U21" s="10">
-        <v>9.8659999999999997</v>
-      </c>
-      <c r="V21" s="12">
+      <c r="U21" s="8">
+        <v>9.8320000000000007</v>
+      </c>
+      <c r="V21" s="10">
         <f t="shared" si="13"/>
-        <v>41516318.670180418</v>
+        <v>41659886.086248979</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -6137,72 +6137,72 @@
       <c r="B22" s="5">
         <v>102400000</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>11.725</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <f t="shared" si="8"/>
         <v>8733475.4797441363</v>
       </c>
       <c r="E22" s="5">
         <v>409600</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>8.6389999999999993</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <f t="shared" si="7"/>
         <v>47412.895010996646</v>
       </c>
       <c r="H22" s="5">
         <v>819200</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <v>6.12</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="10">
         <f t="shared" si="9"/>
         <v>133856.20915032679</v>
       </c>
       <c r="K22" s="5">
         <v>819200</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="8">
         <v>9.0399999999999991</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="10">
         <f t="shared" si="10"/>
         <v>90619.469026548686</v>
       </c>
       <c r="N22" s="5">
         <v>3200000</v>
       </c>
-      <c r="O22" s="10">
-        <v>95.977000000000004</v>
-      </c>
-      <c r="P22" s="12">
+      <c r="O22" s="8">
+        <v>97.494</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="11"/>
-        <v>33341.321358242079</v>
+        <v>32822.53266867705</v>
       </c>
       <c r="Q22" s="5">
-        <v>51200000</v>
-      </c>
-      <c r="R22" s="10">
-        <v>9.7070000000000007</v>
-      </c>
-      <c r="S22" s="12">
+        <v>25600000</v>
+      </c>
+      <c r="R22" s="8">
+        <v>5.0270000000000001</v>
+      </c>
+      <c r="S22" s="10">
         <f t="shared" si="12"/>
-        <v>5274544.1434016684</v>
+        <v>5092500.4973145016</v>
       </c>
       <c r="T22" s="5">
         <v>51200000</v>
       </c>
-      <c r="U22" s="10">
-        <v>7.048</v>
-      </c>
-      <c r="V22" s="12">
+      <c r="U22" s="8">
+        <v>7.2030000000000003</v>
+      </c>
+      <c r="V22" s="10">
         <f t="shared" si="13"/>
-        <v>7264472.190692395</v>
+        <v>7108149.3822018597</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -6212,72 +6212,72 @@
       <c r="B23" s="5">
         <v>51200000</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>6.2450000000000001</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <f t="shared" si="8"/>
         <v>8198558.8470776621</v>
       </c>
       <c r="E23" s="5">
         <v>409600</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <v>9.5530000000000008</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <f t="shared" si="7"/>
         <v>42876.583272270487</v>
       </c>
       <c r="H23" s="5">
         <v>819200</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <v>6.61</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="10">
         <f t="shared" si="9"/>
         <v>123933.43419062026</v>
       </c>
       <c r="K23" s="5">
         <v>409600</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="8">
         <v>5.2110000000000003</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="10">
         <f t="shared" si="10"/>
         <v>78602.955286893106</v>
       </c>
       <c r="N23" s="5">
         <v>3200000</v>
       </c>
-      <c r="O23" s="10">
-        <v>106.785</v>
-      </c>
-      <c r="P23" s="12">
+      <c r="O23" s="8">
+        <v>111.529</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="11"/>
-        <v>29966.755630472446</v>
+        <v>28692.089053071399</v>
       </c>
       <c r="Q23" s="5">
         <v>12800000</v>
       </c>
-      <c r="R23" s="10">
-        <v>5.7930000000000001</v>
-      </c>
-      <c r="S23" s="12">
+      <c r="R23" s="8">
+        <v>6.0579999999999998</v>
+      </c>
+      <c r="S23" s="10">
         <f t="shared" si="12"/>
-        <v>2209563.2660107026</v>
+        <v>2112908.550676791</v>
       </c>
       <c r="T23" s="5">
         <v>12800000</v>
       </c>
-      <c r="U23" s="10">
-        <v>5.7720000000000002</v>
-      </c>
-      <c r="V23" s="12">
+      <c r="U23" s="8">
+        <v>5.84</v>
+      </c>
+      <c r="V23" s="10">
         <f t="shared" si="13"/>
-        <v>2217602.2176022176</v>
+        <v>2191780.8219178081</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -6287,108 +6287,108 @@
       <c r="B24" s="5">
         <v>51200000</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>8.1649999999999991</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <f t="shared" si="8"/>
         <v>6270667.4831598289</v>
       </c>
       <c r="E24" s="5">
         <v>204800</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>5.2460000000000004</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <f t="shared" si="7"/>
         <v>39039.268013724737</v>
       </c>
       <c r="H24" s="5">
         <v>819200</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="8">
         <v>7.2910000000000004</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <f t="shared" si="9"/>
         <v>112357.70127554519</v>
       </c>
       <c r="K24" s="5">
         <v>409600</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="8">
         <v>5.375</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="10">
         <f t="shared" si="10"/>
         <v>76204.651162790702</v>
       </c>
       <c r="N24" s="5">
         <v>3200000</v>
       </c>
-      <c r="O24" s="10">
-        <v>119.71299999999999</v>
-      </c>
-      <c r="P24" s="12">
+      <c r="O24" s="8">
+        <v>123.244</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="11"/>
-        <v>26730.597345317554</v>
+        <v>25964.752848008829</v>
       </c>
       <c r="Q24" s="5">
         <v>12800000</v>
       </c>
-      <c r="R24" s="10">
-        <v>7.2240000000000002</v>
-      </c>
-      <c r="S24" s="12">
+      <c r="R24" s="8">
+        <v>7.2610000000000001</v>
+      </c>
+      <c r="S24" s="10">
         <f t="shared" si="12"/>
-        <v>1771871.5393133997</v>
+        <v>1762842.5836661616</v>
       </c>
       <c r="T24" s="5">
         <v>12800000</v>
       </c>
-      <c r="U24" s="10">
-        <v>7.0129999999999999</v>
-      </c>
-      <c r="V24" s="12">
+      <c r="U24" s="8">
+        <v>7.2759999999999998</v>
+      </c>
+      <c r="V24" s="10">
         <f t="shared" si="13"/>
-        <v>1825181.8052188794</v>
+        <v>1759208.3562396921</v>
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="12"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="12"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="12"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="10"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="10"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="10"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="10"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="10"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="12"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="12"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="12"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="12"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="10"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="10"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="10"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="10"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="10"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="5">
@@ -6397,72 +6397,72 @@
       <c r="B27" s="5">
         <v>102400000</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>5.6680000000000001</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <f>B27/C27</f>
         <v>18066337.33239238</v>
       </c>
       <c r="E27" s="5">
         <v>204800</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>9.8149999999999995</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <f>E27/F27</f>
         <v>20866.021395822721</v>
       </c>
       <c r="H27" s="5">
         <v>819200</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>9.0500000000000007</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <f>H27/I27</f>
         <v>90519.337016574573</v>
       </c>
       <c r="K27" s="5">
         <v>409600</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="8">
         <v>8.7729999999999997</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="10">
         <f>K27/L27</f>
         <v>46688.703978114674</v>
       </c>
       <c r="N27" s="5">
         <v>3200000</v>
       </c>
-      <c r="O27" s="10">
-        <v>85.983000000000004</v>
-      </c>
-      <c r="P27" s="12">
+      <c r="O27" s="8">
+        <v>86.546999999999997</v>
+      </c>
+      <c r="P27" s="10">
         <f>N27/O27</f>
-        <v>37216.659107032785</v>
+        <v>36974.129663650965</v>
       </c>
       <c r="Q27" s="5">
         <v>102400000</v>
       </c>
-      <c r="R27" s="10">
-        <v>6.4829999999999997</v>
-      </c>
-      <c r="S27" s="12">
+      <c r="R27" s="8">
+        <v>6.665</v>
+      </c>
+      <c r="S27" s="10">
         <f>Q27/R27</f>
-        <v>15795156.563319452</v>
+        <v>15363840.96024006</v>
       </c>
       <c r="T27" s="5">
         <v>409600000</v>
       </c>
-      <c r="U27" s="10">
-        <v>7.6980000000000004</v>
-      </c>
-      <c r="V27" s="12">
+      <c r="U27" s="8">
+        <v>7.9119999999999999</v>
+      </c>
+      <c r="V27" s="10">
         <f>T27/U27</f>
-        <v>53208625.617043383</v>
+        <v>51769464.105156727</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -6472,72 +6472,72 @@
       <c r="B28" s="5">
         <v>102400000</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>7.56</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <f t="shared" ref="D28:D32" si="14">B28/C28</f>
         <v>13544973.544973545</v>
       </c>
       <c r="E28" s="5">
         <v>102400</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>5.36</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <f t="shared" ref="G28:G32" si="15">E28/F28</f>
         <v>19104.477611940296</v>
       </c>
       <c r="H28" s="5">
         <v>409600</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <v>6.6609999999999996</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <f t="shared" ref="J28:J32" si="16">H28/I28</f>
         <v>61492.268428163945</v>
       </c>
       <c r="K28" s="5">
         <v>204800</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="8">
         <v>6.1669999999999998</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="10">
         <f t="shared" ref="M28:M32" si="17">K28/L28</f>
         <v>33209.015728879524</v>
       </c>
       <c r="N28" s="5">
         <v>3200000</v>
       </c>
-      <c r="O28" s="10">
-        <v>96.156999999999996</v>
-      </c>
-      <c r="P28" s="12">
+      <c r="O28" s="8">
+        <v>99.692999999999998</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" ref="P28:P32" si="18">N28/O28</f>
-        <v>33278.908451802781</v>
+        <v>32098.54252555345</v>
       </c>
       <c r="Q28" s="5">
         <v>102400000</v>
       </c>
-      <c r="R28" s="10">
-        <v>6.2859999999999996</v>
-      </c>
-      <c r="S28" s="12">
+      <c r="R28" s="8">
+        <v>6.3220000000000001</v>
+      </c>
+      <c r="S28" s="10">
         <f t="shared" ref="S28:S32" si="19">Q28/R28</f>
-        <v>16290168.628698697</v>
+        <v>16197405.884213855</v>
       </c>
       <c r="T28" s="5">
-        <v>204800000</v>
-      </c>
-      <c r="U28" s="10">
-        <v>5.0979999999999999</v>
-      </c>
-      <c r="V28" s="12">
+        <v>409600000</v>
+      </c>
+      <c r="U28" s="8">
+        <v>9.26</v>
+      </c>
+      <c r="V28" s="10">
         <f t="shared" ref="V28:V32" si="20">T28/U28</f>
-        <v>40172616.712436251</v>
+        <v>44233261.339092873</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -6547,72 +6547,72 @@
       <c r="B29" s="5">
         <v>102400000</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>8.5559999999999992</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <f t="shared" si="14"/>
         <v>11968209.443665266</v>
       </c>
       <c r="E29" s="5">
         <v>102400</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <v>7.306</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <f t="shared" si="15"/>
         <v>14015.877361073091</v>
       </c>
       <c r="H29" s="5">
         <v>409600</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="8">
         <v>9.2970000000000006</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="10">
         <f t="shared" si="16"/>
         <v>44057.222760030112</v>
       </c>
       <c r="K29" s="5">
         <v>204800</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="8">
         <v>8.4339999999999993</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="10">
         <f t="shared" si="17"/>
         <v>24282.665401944512</v>
       </c>
       <c r="N29" s="5">
         <v>3200000</v>
       </c>
-      <c r="O29" s="10">
-        <v>105.76600000000001</v>
-      </c>
-      <c r="P29" s="12">
+      <c r="O29" s="8">
+        <v>108.77500000000001</v>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="18"/>
-        <v>30255.469621617533</v>
+        <v>29418.524477131694</v>
       </c>
       <c r="Q29" s="5">
         <v>102400000</v>
       </c>
-      <c r="R29" s="10">
-        <v>9.5779999999999994</v>
-      </c>
-      <c r="S29" s="12">
+      <c r="R29" s="8">
+        <v>9.6969999999999992</v>
+      </c>
+      <c r="S29" s="10">
         <f t="shared" si="19"/>
-        <v>10691167.258300273</v>
+        <v>10559967.000103125</v>
       </c>
       <c r="T29" s="5">
         <v>102400000</v>
       </c>
-      <c r="U29" s="10">
-        <v>6.383</v>
-      </c>
-      <c r="V29" s="12">
+      <c r="U29" s="8">
+        <v>6.6740000000000004</v>
+      </c>
+      <c r="V29" s="10">
         <f t="shared" si="20"/>
-        <v>16042613.191289362</v>
+        <v>15343122.565178303</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -6622,72 +6622,72 @@
       <c r="B30" s="5">
         <v>102400000</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>9.9130000000000003</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <f t="shared" si="14"/>
         <v>10329869.867850298</v>
       </c>
       <c r="E30" s="5">
         <v>102400</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>7.7039999999999997</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <f t="shared" si="15"/>
         <v>13291.796469366564</v>
       </c>
       <c r="H30" s="5">
         <v>204800</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <v>6.3550000000000004</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="10">
         <f t="shared" si="16"/>
         <v>32226.59323367427</v>
       </c>
       <c r="K30" s="5">
         <v>102400</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="8">
         <v>5.6829999999999998</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="10">
         <f t="shared" si="17"/>
         <v>18018.652120358965</v>
       </c>
       <c r="N30" s="5">
         <v>3200000</v>
       </c>
-      <c r="O30" s="10">
-        <v>117.35899999999999</v>
-      </c>
-      <c r="P30" s="12">
+      <c r="O30" s="8">
+        <v>118.691</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="18"/>
-        <v>27266.762668393563</v>
+        <v>26960.763663630772</v>
       </c>
       <c r="Q30" s="5">
-        <v>12800000</v>
-      </c>
-      <c r="R30" s="10">
-        <v>6.4889999999999999</v>
-      </c>
-      <c r="S30" s="12">
+        <v>51200000</v>
+      </c>
+      <c r="R30" s="8">
+        <v>6.6459999999999999</v>
+      </c>
+      <c r="S30" s="10">
         <f t="shared" si="19"/>
-        <v>1972568.962860225</v>
+        <v>7703882.0343063502</v>
       </c>
       <c r="T30" s="5">
-        <v>12800000</v>
-      </c>
-      <c r="U30" s="10">
-        <v>6.92</v>
-      </c>
-      <c r="V30" s="12">
+        <v>51200000</v>
+      </c>
+      <c r="U30" s="8">
+        <v>5.1449999999999996</v>
+      </c>
+      <c r="V30" s="10">
         <f t="shared" si="20"/>
-        <v>1849710.9826589595</v>
+        <v>9951409.1350826062</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -6697,72 +6697,72 @@
       <c r="B31" s="5">
         <v>25600000</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>6.2809999999999997</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <f t="shared" si="14"/>
         <v>4075784.1108103809</v>
       </c>
       <c r="E31" s="5">
         <v>102400</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="8">
         <v>9.2479999999999993</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
         <f t="shared" si="15"/>
         <v>11072.664359861592</v>
       </c>
       <c r="H31" s="5">
         <v>204800</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <v>8.5869999999999997</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="10">
         <f t="shared" si="16"/>
         <v>23850.005822755327</v>
       </c>
       <c r="K31" s="5">
         <v>102400</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="8">
         <v>7.4589999999999996</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="10">
         <f t="shared" si="17"/>
         <v>13728.381820619386</v>
       </c>
       <c r="N31" s="5">
         <v>3200000</v>
       </c>
-      <c r="O31" s="10">
-        <v>128.37200000000001</v>
-      </c>
-      <c r="P31" s="12">
+      <c r="O31" s="8">
+        <v>130.46299999999999</v>
+      </c>
+      <c r="P31" s="10">
         <f t="shared" si="18"/>
-        <v>24927.554295329195</v>
+        <v>24528.027103469951</v>
       </c>
       <c r="Q31" s="5">
-        <v>12800000</v>
-      </c>
-      <c r="R31" s="10">
-        <v>6.9560000000000004</v>
-      </c>
-      <c r="S31" s="12">
+        <v>51200000</v>
+      </c>
+      <c r="R31" s="8">
+        <v>8.6349999999999998</v>
+      </c>
+      <c r="S31" s="10">
         <f t="shared" si="19"/>
-        <v>1840138.0103507761</v>
+        <v>5929357.2669368852</v>
       </c>
       <c r="T31" s="5">
-        <v>12800000</v>
-      </c>
-      <c r="U31" s="10">
-        <v>7.3330000000000002</v>
-      </c>
-      <c r="V31" s="12">
+        <v>51200000</v>
+      </c>
+      <c r="U31" s="8">
+        <v>6.819</v>
+      </c>
+      <c r="V31" s="10">
         <f t="shared" si="20"/>
-        <v>1745533.8879039956</v>
+        <v>7508432.3214547588</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -6772,40 +6772,40 @@
       <c r="B32" s="5">
         <v>51200000</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>11.465999999999999</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <f t="shared" si="14"/>
         <v>4465375.8939473229</v>
       </c>
       <c r="E32" s="5">
         <v>51200</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <v>5.4160000000000004</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <f t="shared" si="15"/>
         <v>9453.4711964549479</v>
       </c>
       <c r="H32" s="5">
         <v>102400</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="8">
         <v>5.6340000000000003</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="10">
         <f t="shared" si="16"/>
         <v>18175.363862264821</v>
       </c>
       <c r="K32" s="5">
         <v>102400</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="8">
         <v>9.6430000000000007</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="10">
         <f t="shared" si="17"/>
         <v>10619.10193923053</v>
       </c>
@@ -6813,31 +6813,31 @@
         <v>3200000</v>
       </c>
       <c r="O32" s="5">
-        <v>140.78200000000001</v>
-      </c>
-      <c r="P32" s="12">
+        <v>139.91399999999999</v>
+      </c>
+      <c r="P32" s="10">
         <f t="shared" si="18"/>
-        <v>22730.178573965419</v>
+        <v>22871.192303843793</v>
       </c>
       <c r="Q32" s="5">
-        <v>12800000</v>
-      </c>
-      <c r="R32" s="10">
-        <v>7.4569999999999999</v>
-      </c>
-      <c r="S32" s="12">
+        <v>25600000</v>
+      </c>
+      <c r="R32" s="8">
+        <v>5.4560000000000004</v>
+      </c>
+      <c r="S32" s="10">
         <f t="shared" si="19"/>
-        <v>1716507.9790800591</v>
+        <v>4692082.11143695</v>
       </c>
       <c r="T32" s="5">
-        <v>12800000</v>
-      </c>
-      <c r="U32" s="10">
-        <v>7.8929999999999998</v>
-      </c>
-      <c r="V32" s="12">
+        <v>51200000</v>
+      </c>
+      <c r="U32" s="8">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="V32" s="10">
         <f t="shared" si="20"/>
-        <v>1621690.1051564678</v>
+        <v>5848086.8075385485</v>
       </c>
     </row>
   </sheetData>
@@ -6865,7 +6865,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6926,15 +6926,15 @@
       </c>
       <c r="F2" s="4">
         <f>Bench1!P15/Bench1!P3</f>
-        <v>4.0888065188089698E-2</v>
+        <v>3.9091651119402986E-2</v>
       </c>
       <c r="G2" s="4">
         <f>Bench1!S15/Bench1!S3</f>
-        <v>3.042993344126641</v>
+        <v>3.0089457989826345</v>
       </c>
       <c r="H2" s="4">
         <f>Bench1!V15/Bench1!V3</f>
-        <v>4.1899762529683793</v>
+        <v>4.4484802623281618</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
@@ -6961,15 +6961,15 @@
       </c>
       <c r="F3" s="4">
         <f>Bench1!P16/Bench1!P4</f>
-        <v>4.0678666379248399E-2</v>
+        <v>3.931207123553461E-2</v>
       </c>
       <c r="G3" s="4">
         <f>Bench1!S16/Bench1!S4</f>
-        <v>0.84191997252275441</v>
+        <v>0.80396838465338383</v>
       </c>
       <c r="H3" s="4">
         <f>Bench1!V16/Bench1!V4</f>
-        <v>2.6010389610389608</v>
+        <v>2.5690420255807882</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
@@ -6996,15 +6996,15 @@
       </c>
       <c r="F4" s="4">
         <f>Bench1!P17/Bench1!P5</f>
-        <v>3.8146255909714814E-2</v>
+        <v>3.6962778912150357E-2</v>
       </c>
       <c r="G4" s="4">
         <f>Bench1!S17/Bench1!S5</f>
-        <v>0.51029613649735239</v>
+        <v>0.49971601666035592</v>
       </c>
       <c r="H4" s="4">
         <f>Bench1!V17/Bench1!V5</f>
-        <v>2.1820410665032175</v>
+        <v>1.9902439024390244</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
@@ -7031,15 +7031,15 @@
       </c>
       <c r="F5" s="4">
         <f>Bench1!P18/Bench1!P6</f>
-        <v>3.7866021688705613E-2</v>
+        <v>3.6157084090691662E-2</v>
       </c>
       <c r="G5" s="4">
         <f>Bench1!S18/Bench1!S6</f>
-        <v>0.39548284540998802</v>
+        <v>0.40770830625243731</v>
       </c>
       <c r="H5" s="4">
         <f>Bench1!V18/Bench1!V6</f>
-        <v>2.0249459504407117</v>
+        <v>2.0680361544782251</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="2"/>
@@ -7066,15 +7066,15 @@
       </c>
       <c r="F6" s="4">
         <f>Bench1!P19/Bench1!P7</f>
-        <v>3.6028375686312612E-2</v>
+        <v>3.5028482894613286E-2</v>
       </c>
       <c r="G6" s="4">
         <f>Bench1!S19/Bench1!S7</f>
-        <v>0.27756237356709368</v>
+        <v>0.27175697865353038</v>
       </c>
       <c r="H6" s="4">
         <f>Bench1!V19/Bench1!V7</f>
-        <v>0.90290478752017223</v>
+        <v>0.86628752810474796</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
@@ -7101,15 +7101,15 @@
       </c>
       <c r="F7" s="4">
         <f>Bench1!P20/Bench1!P8</f>
-        <v>3.538003306417456E-2</v>
+        <v>3.5803497085761866E-2</v>
       </c>
       <c r="G7" s="4">
         <f>Bench1!S20/Bench1!S8</f>
-        <v>0.29460437192118222</v>
+        <v>0.27413866439812845</v>
       </c>
       <c r="H7" s="4">
         <f>Bench1!V20/Bench1!V8</f>
-        <v>0.94578682693487059</v>
+        <v>0.95492858815265746</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
@@ -7136,15 +7136,15 @@
       </c>
       <c r="F8" s="4">
         <f>Bench1!P21/Bench1!P9</f>
-        <v>3.5814848697263833E-2</v>
+        <v>3.5166674469778544E-2</v>
       </c>
       <c r="G8" s="4">
         <f>Bench1!S21/Bench1!S9</f>
-        <v>0.2694817782372706</v>
+        <v>0.26470405371798061</v>
       </c>
       <c r="H8" s="4">
         <f>Bench1!V21/Bench1!V9</f>
-        <v>0.83215082100141902</v>
+        <v>0.86147274206672098</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
@@ -7171,15 +7171,15 @@
       </c>
       <c r="F9" s="4">
         <f>Bench1!P22/Bench1!P10</f>
-        <v>3.4299884347291539E-2</v>
+        <v>3.5012411020165342E-2</v>
       </c>
       <c r="G9" s="4">
         <f>Bench1!S22/Bench1!S10</f>
-        <v>0.12089213969300502</v>
+        <v>0.11423314103839267</v>
       </c>
       <c r="H9" s="4">
         <f>Bench1!V22/Bench1!V10</f>
-        <v>0.16877128263337118</v>
+        <v>0.16043662362904343</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
@@ -7206,15 +7206,15 @@
       </c>
       <c r="F10" s="4">
         <f>Bench1!P23/Bench1!P11</f>
-        <v>3.3913939223673736E-2</v>
+        <v>3.359664302558079E-2</v>
       </c>
       <c r="G10" s="4">
         <f>Bench1!S23/Bench1!S11</f>
-        <v>5.5001726221301568E-2</v>
+        <v>5.3297292835919455E-2</v>
       </c>
       <c r="H10" s="4">
         <f>Bench1!V23/Bench1!V11</f>
-        <v>5.5580821205821203E-2</v>
+        <v>5.5404537671232865E-2</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
@@ -7241,15 +7241,15 @@
       </c>
       <c r="F11" s="4">
         <f>Bench1!P24/Bench1!P12</f>
-        <v>3.3626256129242443E-2</v>
+        <v>3.408279510564409E-2</v>
       </c>
       <c r="G11" s="4">
         <f>Bench1!S24/Bench1!S12</f>
-        <v>4.6494324473975633E-2</v>
+        <v>4.6696391681586555E-2</v>
       </c>
       <c r="H11" s="4">
         <f>Bench1!V24/Bench1!V12</f>
-        <v>4.7902110366462289E-2</v>
+        <v>4.7227185266630015E-2</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
@@ -7361,15 +7361,15 @@
       </c>
       <c r="F3" s="4">
         <f>Bench1!P28/Bench1!P$27</f>
-        <v>0.89419387044104959</v>
+        <v>0.86813517498721071</v>
       </c>
       <c r="G3" s="4">
         <f>Bench1!S28/Bench1!S$27</f>
-        <v>1.0313394845688832</v>
+        <v>1.0542549826004428</v>
       </c>
       <c r="H3" s="4">
         <f>Bench1!V28/Bench1!V$27</f>
-        <v>0.75500196155355048</v>
+        <v>0.85442764578833685</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19">
@@ -7394,15 +7394,15 @@
       </c>
       <c r="F4" s="4">
         <f>Bench1!P29/Bench1!P$27</f>
-        <v>0.81295501389860636</v>
+        <v>0.79565157435072398</v>
       </c>
       <c r="G4" s="4">
         <f>Bench1!S29/Bench1!S$27</f>
-        <v>0.67686364585508463</v>
+        <v>0.6873259771063216</v>
       </c>
       <c r="H4" s="4">
         <f>Bench1!V29/Bench1!V$27</f>
-        <v>0.3015039949866834</v>
+        <v>0.29637398861252617</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19">
@@ -7427,15 +7427,15 @@
       </c>
       <c r="F5" s="4">
         <f>Bench1!P30/Bench1!P$27</f>
-        <v>0.73264939203640123</v>
+        <v>0.72917912899882886</v>
       </c>
       <c r="G5" s="4">
         <f>Bench1!S30/Bench1!S$27</f>
-        <v>0.1248844197873324</v>
+        <v>0.50142943123683426</v>
       </c>
       <c r="H5" s="4">
         <f>Bench1!V30/Bench1!V$27</f>
-        <v>3.4763367052023125E-2</v>
+        <v>0.19222546161321674</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19">
@@ -7460,15 +7460,15 @@
       </c>
       <c r="F6" s="4">
         <f>Bench1!P31/Bench1!P$27</f>
-        <v>0.66979559405477818</v>
+        <v>0.66338348803875435</v>
       </c>
       <c r="G6" s="4">
         <f>Bench1!S31/Bench1!S$27</f>
-        <v>0.11650014376078204</v>
+        <v>0.38592935726693689</v>
       </c>
       <c r="H6" s="4">
         <f>Bench1!V31/Bench1!V$27</f>
-        <v>3.2805468430383199E-2</v>
+        <v>0.1450359290218507</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19">
@@ -7493,15 +7493,15 @@
       </c>
       <c r="F7" s="4">
         <f>Bench1!P32/Bench1!P$27</f>
-        <v>0.61075279510164648</v>
+        <v>0.61857283760024018</v>
       </c>
       <c r="G7" s="4">
         <f>Bench1!S32/Bench1!S$27</f>
-        <v>0.1086730588708596</v>
+        <v>0.30539772727272724</v>
       </c>
       <c r="H7" s="4">
         <f>Bench1!V32/Bench1!V$27</f>
-        <v>3.0477955150133032E-2</v>
+        <v>0.11296402055968016</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19">

--- a/bench/malte.xlsx
+++ b/bench/malte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="50420" yWindow="7280" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="35440" yWindow="900" windowWidth="40580" windowHeight="22440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bench1" sheetId="1" r:id="rId1"/>
@@ -512,13 +512,13 @@
                   <c:v>0.000547716181384589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.039091651119403</c:v>
+                  <c:v>0.0420141213707469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.008945798982634</c:v>
+                  <c:v>3.473300450353849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.448480262328162</c:v>
+                  <c:v>4.417305443679356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,13 +600,13 @@
                   <c:v>0.000306217387968078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0393120712355346</c:v>
+                  <c:v>0.0411001012584985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.803968384653384</c:v>
+                  <c:v>0.727575805683442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.569042025580788</c:v>
+                  <c:v>2.438208310847274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,13 +688,13 @@
                   <c:v>0.000260445957683463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0369627789121503</c:v>
+                  <c:v>0.0385837406740417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.499716016660356</c:v>
+                  <c:v>0.47069092245498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.990243902439024</c:v>
+                  <c:v>2.441516412390199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,13 +776,13 @@
                   <c:v>0.000208129080773653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0361570840906917</c:v>
+                  <c:v>0.0379666079800597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.407708306252437</c:v>
+                  <c:v>0.374806501547988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.068036154478225</c:v>
+                  <c:v>1.969235913726801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,13 +864,13 @@
                   <c:v>0.000441011229189147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0350284828946133</c:v>
+                  <c:v>0.0365167631179076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27175697865353</c:v>
+                  <c:v>0.278977560317192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.866287528104748</c:v>
+                  <c:v>0.866490066225165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,13 +949,13 @@
                   <c:v>0.000454510615258836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0358034970857619</c:v>
+                  <c:v>0.0357599847540225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.274138664398128</c:v>
+                  <c:v>0.286732373009856</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.954928588152657</c:v>
+                  <c:v>0.944204419207505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,13 +1037,13 @@
                   <c:v>0.000539118812376787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0351666744697785</c:v>
+                  <c:v>0.0345276137754072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.264704053717981</c:v>
+                  <c:v>0.264049219840162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.861472742066721</c:v>
+                  <c:v>0.901389324140813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,13 +1125,13 @@
                   <c:v>0.000506861863938053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0350124110201653</c:v>
+                  <c:v>0.0342104989766978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.114233141038393</c:v>
+                  <c:v>0.123750650702759</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.160436623629043</c:v>
+                  <c:v>0.160632028180463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,13 +1213,13 @@
                   <c:v>0.000546189101180195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0335966430255808</c:v>
+                  <c:v>0.0343119865571322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0532972928359194</c:v>
+                  <c:v>0.051672171758877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0554045376712329</c:v>
+                  <c:v>0.0534722222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,13 +1301,13 @@
                   <c:v>0.000618550145348837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0340827951056441</c:v>
+                  <c:v>0.0349619251717391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0466963916815865</c:v>
+                  <c:v>0.0441571580204325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04722718526663</c:v>
+                  <c:v>0.0450537315400844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,11 +1322,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121668328"/>
-        <c:axId val="2121671624"/>
+        <c:axId val="-2119908040"/>
+        <c:axId val="-2119904760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121668328"/>
+        <c:axId val="-2119908040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1344,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2121671624"/>
+        <c:crossAx val="-2119904760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121671624"/>
+        <c:axId val="-2119904760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.2"/>
@@ -1382,7 +1382,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2121668328"/>
+        <c:crossAx val="-2119908040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1972,11 +1972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121758376"/>
-        <c:axId val="2121761528"/>
+        <c:axId val="2079582776"/>
+        <c:axId val="2079450088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121758376"/>
+        <c:axId val="2079582776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1994,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2121761528"/>
+        <c:crossAx val="2079450088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2002,7 +2002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121761528"/>
+        <c:axId val="2079450088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2031,7 +2031,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2121758376"/>
+        <c:crossAx val="2079582776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2159,7 +2159,7 @@
                   <c:v>0.000547716181384589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.039091651119403</c:v>
+                  <c:v>0.0420141213707469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,7 +2229,7 @@
                   <c:v>0.000306217387968078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0393120712355346</c:v>
+                  <c:v>0.0411001012584985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,7 +2299,7 @@
                   <c:v>0.000260445957683463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0369627789121503</c:v>
+                  <c:v>0.0385837406740417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,7 +2369,7 @@
                   <c:v>0.000208129080773653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0361570840906917</c:v>
+                  <c:v>0.0379666079800597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2439,7 @@
                   <c:v>0.000441011229189147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0350284828946133</c:v>
+                  <c:v>0.0365167631179076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,7 +2506,7 @@
                   <c:v>0.000454510615258836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0358034970857619</c:v>
+                  <c:v>0.0357599847540225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,7 +2576,7 @@
                   <c:v>0.000539118812376787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0351666744697785</c:v>
+                  <c:v>0.0345276137754072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,7 +2646,7 @@
                   <c:v>0.000506861863938053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0350124110201653</c:v>
+                  <c:v>0.0342104989766978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,7 +2716,7 @@
                   <c:v>0.000546189101180195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0335966430255808</c:v>
+                  <c:v>0.0343119865571322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +2786,7 @@
                   <c:v>0.000618550145348837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0340827951056441</c:v>
+                  <c:v>0.0349619251717391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,11 +2801,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121825480"/>
-        <c:axId val="2121828584"/>
+        <c:axId val="-2121223880"/>
+        <c:axId val="-2129376424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121825480"/>
+        <c:axId val="-2121223880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2823,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2121828584"/>
+        <c:crossAx val="-2129376424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2831,7 +2831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121828584"/>
+        <c:axId val="-2129376424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.042"/>
@@ -2861,7 +2861,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2121825480"/>
+        <c:crossAx val="-2121223880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="0.001"/>
@@ -2975,10 +2975,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.008945798982634</c:v>
+                  <c:v>3.473300450353849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.448480262328162</c:v>
+                  <c:v>4.417305443679356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,10 +3033,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.803968384653384</c:v>
+                  <c:v>0.727575805683442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.569042025580788</c:v>
+                  <c:v>2.438208310847274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3091,10 +3091,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.499716016660356</c:v>
+                  <c:v>0.47069092245498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.990243902439024</c:v>
+                  <c:v>2.441516412390199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,10 +3149,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.407708306252437</c:v>
+                  <c:v>0.374806501547988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.068036154478225</c:v>
+                  <c:v>1.969235913726801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3207,10 +3207,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.27175697865353</c:v>
+                  <c:v>0.278977560317192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.866287528104748</c:v>
+                  <c:v>0.866490066225165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3262,10 +3262,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.274138664398128</c:v>
+                  <c:v>0.286732373009856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.954928588152657</c:v>
+                  <c:v>0.944204419207505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,10 +3320,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.264704053717981</c:v>
+                  <c:v>0.264049219840162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.861472742066721</c:v>
+                  <c:v>0.901389324140813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3378,10 +3378,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.114233141038393</c:v>
+                  <c:v>0.123750650702759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.160436623629043</c:v>
+                  <c:v>0.160632028180463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,10 +3436,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0532972928359194</c:v>
+                  <c:v>0.051672171758877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0554045376712329</c:v>
+                  <c:v>0.0534722222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,10 +3494,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0466963916815865</c:v>
+                  <c:v>0.0441571580204325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04722718526663</c:v>
+                  <c:v>0.0450537315400844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3512,11 +3512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121891496"/>
-        <c:axId val="2121894600"/>
+        <c:axId val="-2121120408"/>
+        <c:axId val="-2121180248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121891496"/>
+        <c:axId val="-2121120408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,7 +3534,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2121894600"/>
+        <c:crossAx val="-2121180248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3542,7 +3542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121894600"/>
+        <c:axId val="-2121180248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.3"/>
@@ -3572,7 +3572,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2121891496"/>
+        <c:crossAx val="-2121120408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3712,13 +3712,13 @@
                   <c:v>0.711285876439111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.868135174987211</c:v>
+                  <c:v>0.892232286233063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.054254982600443</c:v>
+                  <c:v>0.895926299121923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.854427645788337</c:v>
+                  <c:v>0.801558073654391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3800,13 +3800,13 @@
                   <c:v>0.52009722551577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.795651574350724</c:v>
+                  <c:v>0.804084219287957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.687325977106321</c:v>
+                  <c:v>0.613685663577204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.296373988612526</c:v>
+                  <c:v>0.218832173240526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3888,13 +3888,13 @@
                   <c:v>0.38593172620095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.729179128998829</c:v>
+                  <c:v>0.722280752434196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.501429431236834</c:v>
+                  <c:v>0.438433361510285</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.192225461613217</c:v>
+                  <c:v>0.13811871522015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3976,13 +3976,13 @@
                   <c:v>0.29404075613353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.663383488038754</c:v>
+                  <c:v>0.665083711469254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.385929357266937</c:v>
+                  <c:v>0.347942754919499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.145035929021851</c:v>
+                  <c:v>0.10319110138585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4064,13 +4064,13 @@
                   <c:v>0.227444778595873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61857283760024</c:v>
+                  <c:v>0.615941398947963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.305397727272727</c:v>
+                  <c:v>0.301901435778036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11296402055968</c:v>
+                  <c:v>0.0808428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4085,11 +4085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2118182392"/>
-        <c:axId val="2118178616"/>
+        <c:axId val="-2119206296"/>
+        <c:axId val="-2119210840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2118182392"/>
+        <c:axId val="-2119206296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,7 +4107,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2118178616"/>
+        <c:crossAx val="-2119210840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4115,7 +4115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118178616"/>
+        <c:axId val="-2119210840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4144,7 +4144,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2118182392"/>
+        <c:crossAx val="-2119206296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4681,11 +4681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
+      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -4867,31 +4867,31 @@
         <v>25600000</v>
       </c>
       <c r="O3" s="8">
-        <v>5.3639999999999999</v>
+        <v>5.5220000000000002</v>
       </c>
       <c r="P3" s="10">
         <f>N3/O3</f>
-        <v>4772557.7926920205</v>
+        <v>4636001.4487504521</v>
       </c>
       <c r="Q3" s="5">
         <v>819200000</v>
       </c>
       <c r="R3" s="8">
-        <v>8.577</v>
+        <v>8.0980000000000008</v>
       </c>
       <c r="S3" s="10">
         <f>Q3/R3</f>
-        <v>95511251.020170227</v>
+        <v>101160780.43961471</v>
       </c>
       <c r="T3" s="5">
         <v>819200000</v>
       </c>
       <c r="U3" s="8">
-        <v>8.8179999999999996</v>
+        <v>8.5</v>
       </c>
       <c r="V3" s="10">
         <f>T3/U3</f>
-        <v>92900884.554320708</v>
+        <v>96376470.588235289</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -4942,31 +4942,31 @@
         <v>25600000</v>
       </c>
       <c r="O4" s="8">
-        <v>9.077</v>
+        <v>9.0920000000000005</v>
       </c>
       <c r="P4" s="10">
         <f t="shared" ref="P4:P12" si="4">N4/O4</f>
-        <v>2820315.0820755758</v>
+        <v>2815662.1205455344</v>
       </c>
       <c r="Q4" s="5">
         <v>819200000</v>
       </c>
       <c r="R4" s="8">
-        <v>9.7650000000000006</v>
+        <v>9.1660000000000004</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" ref="S4:S12" si="5">Q4/R4</f>
-        <v>83891449.052739367</v>
+        <v>89373772.63801004</v>
       </c>
       <c r="T4" s="5">
         <v>819200000</v>
       </c>
       <c r="U4" s="8">
-        <v>9.8420000000000005</v>
+        <v>9.0359999999999996</v>
       </c>
       <c r="V4" s="10">
         <f t="shared" ref="V4:V12" si="6">T4/U4</f>
-        <v>83235114.814062178</v>
+        <v>90659583.886675522</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -5017,31 +5017,31 @@
         <v>12800000</v>
       </c>
       <c r="O5" s="8">
-        <v>6.01</v>
+        <v>5.9989999999999997</v>
       </c>
       <c r="P5" s="10">
         <f t="shared" si="4"/>
-        <v>2129783.6938435943</v>
+        <v>2133688.9481580267</v>
       </c>
       <c r="Q5" s="5">
         <v>409600000</v>
       </c>
       <c r="R5" s="8">
-        <v>5.2789999999999999</v>
+        <v>5.1230000000000002</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="5"/>
-        <v>77590452.737260848</v>
+        <v>79953152.449736476</v>
       </c>
       <c r="T5" s="5">
         <v>409600000</v>
       </c>
       <c r="U5" s="8">
-        <v>5.0999999999999996</v>
+        <v>5.2809999999999997</v>
       </c>
       <c r="V5" s="10">
         <f t="shared" si="6"/>
-        <v>80313725.490196079</v>
+        <v>77561067.979549333</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -5092,31 +5092,31 @@
         <v>12800000</v>
       </c>
       <c r="O6" s="8">
-        <v>7.5590000000000002</v>
+        <v>7.6769999999999996</v>
       </c>
       <c r="P6" s="10">
         <f t="shared" si="4"/>
-        <v>1693345.6806455881</v>
+        <v>1667317.9627458644</v>
       </c>
       <c r="Q6" s="5">
         <v>409600000</v>
       </c>
       <c r="R6" s="8">
-        <v>6.2729999999999997</v>
+        <v>5.8109999999999999</v>
       </c>
       <c r="S6" s="10">
         <f t="shared" si="5"/>
-        <v>65295711.780647218</v>
+        <v>70487007.399759084</v>
       </c>
       <c r="T6" s="5">
         <v>409600000</v>
       </c>
       <c r="U6" s="8">
-        <v>6.2919999999999998</v>
+        <v>5.8890000000000002</v>
       </c>
       <c r="V6" s="10">
         <f t="shared" si="6"/>
-        <v>65098537.825810552</v>
+        <v>69553404.652742401</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -5167,31 +5167,31 @@
         <v>12800000</v>
       </c>
       <c r="O7" s="8">
-        <v>8.9529999999999994</v>
+        <v>9.0359999999999996</v>
       </c>
       <c r="P7" s="10">
         <f t="shared" si="4"/>
-        <v>1429688.3726125322</v>
+        <v>1416555.998229305</v>
       </c>
       <c r="Q7" s="5">
         <v>409600000</v>
       </c>
       <c r="R7" s="8">
-        <v>6.62</v>
+        <v>6.6139999999999999</v>
       </c>
       <c r="S7" s="10">
         <f t="shared" si="5"/>
-        <v>61873111.782477342</v>
+        <v>61929241.003931053</v>
       </c>
       <c r="T7" s="5">
         <v>409600000</v>
       </c>
       <c r="U7" s="8">
-        <v>6.55</v>
+        <v>6.5419999999999998</v>
       </c>
       <c r="V7" s="10">
         <f t="shared" si="6"/>
-        <v>62534351.145038173</v>
+        <v>62610822.378477529</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -5242,31 +5242,31 @@
         <v>6400000</v>
       </c>
       <c r="O8" s="8">
-        <v>5.3319999999999999</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="P8" s="10">
         <f t="shared" si="4"/>
-        <v>1200300.0750187547</v>
+        <v>1218119.5279786831</v>
       </c>
       <c r="Q8" s="5">
         <v>409600000</v>
       </c>
       <c r="R8" s="8">
-        <v>7.734</v>
+        <v>7.5640000000000001</v>
       </c>
       <c r="S8" s="10">
         <f t="shared" si="5"/>
-        <v>52960951.64209982</v>
+        <v>54151242.728714965</v>
       </c>
       <c r="T8" s="5">
         <v>409600000</v>
       </c>
       <c r="U8" s="8">
-        <v>8.157</v>
+        <v>7.649</v>
       </c>
       <c r="V8" s="10">
         <f t="shared" si="6"/>
-        <v>50214539.659188427</v>
+        <v>53549483.59262649</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -5317,31 +5317,31 @@
         <v>6400000</v>
       </c>
       <c r="O9" s="8">
-        <v>6.0090000000000003</v>
+        <v>5.8129999999999997</v>
       </c>
       <c r="P9" s="10">
         <f t="shared" si="4"/>
-        <v>1065069.0630720586</v>
+        <v>1100980.5608119732</v>
       </c>
       <c r="Q9" s="5">
         <v>409600000</v>
       </c>
       <c r="R9" s="8">
-        <v>8.5150000000000006</v>
+        <v>8.3260000000000005</v>
       </c>
       <c r="S9" s="10">
         <f t="shared" si="5"/>
-        <v>48103347.034644738</v>
+        <v>49195291.856834009</v>
       </c>
       <c r="T9" s="5">
         <v>409600000</v>
       </c>
       <c r="U9" s="8">
-        <v>8.4700000000000006</v>
+        <v>8.6289999999999996</v>
       </c>
       <c r="V9" s="10">
         <f t="shared" si="6"/>
-        <v>48358913.813459262</v>
+        <v>47467841.001274772</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -5392,31 +5392,31 @@
         <v>6400000</v>
       </c>
       <c r="O10" s="8">
-        <v>6.827</v>
+        <v>6.5860000000000003</v>
       </c>
       <c r="P10" s="10">
         <f t="shared" si="4"/>
-        <v>937454.2258678776</v>
+        <v>971758.27512906166</v>
       </c>
       <c r="Q10" s="5">
         <v>409600000</v>
       </c>
       <c r="R10" s="8">
-        <v>9.1880000000000006</v>
+        <v>9.5090000000000003</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="5"/>
-        <v>44579886.808881149</v>
+        <v>43074981.596382372</v>
       </c>
       <c r="T10" s="5">
         <v>409600000</v>
       </c>
       <c r="U10" s="8">
-        <v>9.2449999999999992</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="V10" s="10">
         <f t="shared" si="6"/>
-        <v>44305029.745808549</v>
+        <v>43183974.696889825</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -5467,31 +5467,31 @@
         <v>6400000</v>
       </c>
       <c r="O11" s="8">
-        <v>7.4939999999999998</v>
+        <v>7.351</v>
       </c>
       <c r="P11" s="10">
         <f t="shared" si="4"/>
-        <v>854016.54657058988</v>
+        <v>870629.84627941775</v>
       </c>
       <c r="Q11" s="5">
         <v>204800000</v>
       </c>
       <c r="R11" s="8">
-        <v>5.1660000000000004</v>
+        <v>5.0060000000000002</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="5"/>
-        <v>39643825.009678662</v>
+        <v>40910906.911705948</v>
       </c>
       <c r="T11" s="5">
         <v>204800000</v>
       </c>
       <c r="U11" s="8">
-        <v>5.1769999999999996</v>
+        <v>5.2359999999999998</v>
       </c>
       <c r="V11" s="10">
         <f t="shared" si="6"/>
-        <v>39559590.496426508</v>
+        <v>39113827.349121466</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -5542,31 +5542,31 @@
         <v>6400000</v>
       </c>
       <c r="O12" s="8">
-        <v>8.4009999999999998</v>
+        <v>8.2550000000000008</v>
       </c>
       <c r="P12" s="10">
         <f t="shared" si="4"/>
-        <v>761814.06975360075</v>
+        <v>775287.70442156261</v>
       </c>
       <c r="Q12" s="5">
         <v>204800000</v>
       </c>
       <c r="R12" s="8">
-        <v>5.4249999999999998</v>
+        <v>5.3250000000000002</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="5"/>
-        <v>37751152.073732719</v>
+        <v>38460093.896713614</v>
       </c>
       <c r="T12" s="5">
         <v>204800000</v>
       </c>
       <c r="U12" s="8">
-        <v>5.4980000000000002</v>
+        <v>5.4669999999999996</v>
       </c>
       <c r="V12" s="10">
         <f t="shared" si="6"/>
-        <v>37249909.057839215</v>
+        <v>37461130.418876901</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -5653,31 +5653,31 @@
         <v>3200000</v>
       </c>
       <c r="O15" s="8">
-        <v>17.152000000000001</v>
+        <v>16.428999999999998</v>
       </c>
       <c r="P15" s="10">
         <f>N15/O15</f>
-        <v>186567.16417910447</v>
+        <v>194777.52754275978</v>
       </c>
       <c r="Q15" s="5">
-        <v>1638400000</v>
+        <v>3276800000</v>
       </c>
       <c r="R15" s="8">
-        <v>5.7009999999999996</v>
+        <v>9.3260000000000005</v>
       </c>
       <c r="S15" s="10">
         <f>Q15/R15</f>
-        <v>287388177.51271707</v>
+        <v>351361784.25906068</v>
       </c>
       <c r="T15" s="5">
         <v>3276800000</v>
       </c>
       <c r="U15" s="8">
-        <v>7.9290000000000003</v>
+        <v>7.6970000000000001</v>
       </c>
       <c r="V15" s="10">
         <f>T15/U15</f>
-        <v>413267751.29272288</v>
+        <v>425724308.17201507</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -5728,31 +5728,31 @@
         <v>3200000</v>
       </c>
       <c r="O16" s="8">
-        <v>28.861999999999998</v>
+        <v>27.652000000000001</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" ref="P16:P24" si="11">N16/O16</f>
-        <v>110872.42741320768</v>
+        <v>115723.99826414003</v>
       </c>
       <c r="Q16" s="5">
         <v>409600000</v>
       </c>
       <c r="R16" s="8">
-        <v>6.0730000000000004</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="S16" s="10">
         <f t="shared" ref="S16:S24" si="12">Q16/R16</f>
-        <v>67446072.781162515</v>
+        <v>65026194.634068899</v>
       </c>
       <c r="T16" s="5">
         <v>1638400000</v>
       </c>
       <c r="U16" s="8">
-        <v>7.6619999999999999</v>
+        <v>7.4119999999999999</v>
       </c>
       <c r="V16" s="10">
         <f t="shared" ref="V16:V24" si="13">T16/U16</f>
-        <v>213834507.96136779</v>
+        <v>221046950.89044791</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -5803,31 +5803,31 @@
         <v>3200000</v>
       </c>
       <c r="O17" s="8">
-        <v>40.649000000000001</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="11"/>
-        <v>78722.723806243695</v>
+        <v>82325.701054798046</v>
       </c>
       <c r="Q17" s="5">
         <v>204800000</v>
       </c>
       <c r="R17" s="8">
-        <v>5.282</v>
+        <v>5.4420000000000002</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="12"/>
-        <v>38773191.972737603</v>
+        <v>37633223.079750091</v>
       </c>
       <c r="T17" s="5">
-        <v>819200000</v>
+        <v>1638400000</v>
       </c>
       <c r="U17" s="8">
-        <v>5.125</v>
+        <v>8.6519999999999992</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="13"/>
-        <v>159843902.43902439</v>
+        <v>189366620.43458161</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -5878,31 +5878,31 @@
         <v>3200000</v>
       </c>
       <c r="O18" s="8">
-        <v>52.265000000000001</v>
+        <v>50.551000000000002</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="11"/>
-        <v>61226.442169712042</v>
+        <v>63302.407469684076</v>
       </c>
       <c r="Q18" s="5">
         <v>204800000</v>
       </c>
       <c r="R18" s="8">
-        <v>7.6929999999999996</v>
+        <v>7.7519999999999998</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="12"/>
-        <v>26621604.055634994</v>
+        <v>26418988.648090817</v>
       </c>
       <c r="T18" s="5">
         <v>819200000</v>
       </c>
       <c r="U18" s="8">
-        <v>6.085</v>
+        <v>5.9809999999999999</v>
       </c>
       <c r="V18" s="10">
         <f t="shared" si="13"/>
-        <v>134626129.82744452</v>
+        <v>136967062.36415315</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -5953,31 +5953,31 @@
         <v>3200000</v>
       </c>
       <c r="O19" s="8">
-        <v>63.898000000000003</v>
+        <v>61.862000000000002</v>
       </c>
       <c r="P19" s="10">
         <f t="shared" si="11"/>
-        <v>50079.814704685588</v>
+        <v>51728.039830590671</v>
       </c>
       <c r="Q19" s="5">
         <v>102400000</v>
       </c>
       <c r="R19" s="8">
-        <v>6.09</v>
+        <v>5.9269999999999996</v>
       </c>
       <c r="S19" s="10">
         <f t="shared" si="12"/>
-        <v>16814449.917898193</v>
+        <v>17276868.567572128</v>
       </c>
       <c r="T19" s="5">
         <v>409600000</v>
       </c>
       <c r="U19" s="8">
-        <v>7.5609999999999999</v>
+        <v>7.55</v>
       </c>
       <c r="V19" s="10">
         <f t="shared" si="13"/>
-        <v>54172728.475069433</v>
+        <v>54251655.629139073</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -6028,31 +6028,31 @@
         <v>3200000</v>
       </c>
       <c r="O20" s="8">
-        <v>74.462000000000003</v>
+        <v>73.462000000000003</v>
       </c>
       <c r="P20" s="10">
         <f t="shared" si="11"/>
-        <v>42974.940237973729</v>
+        <v>43559.935749094766</v>
       </c>
       <c r="Q20" s="5">
         <v>102400000</v>
       </c>
       <c r="R20" s="8">
-        <v>7.0529999999999999</v>
+        <v>6.5949999999999998</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="12"/>
-        <v>14518644.548419112</v>
+        <v>15526914.32903715</v>
       </c>
       <c r="T20" s="5">
         <v>409600000</v>
       </c>
       <c r="U20" s="8">
-        <v>8.5419999999999998</v>
+        <v>8.1010000000000009</v>
       </c>
       <c r="V20" s="10">
         <f t="shared" si="13"/>
-        <v>47951299.461484432</v>
+        <v>50561659.054437719</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -6103,31 +6103,31 @@
         <v>3200000</v>
       </c>
       <c r="O21" s="8">
-        <v>85.436000000000007</v>
+        <v>84.179000000000002</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="11"/>
-        <v>37454.937028887114</v>
+        <v>38014.231577946994</v>
       </c>
       <c r="Q21" s="5">
         <v>102400000</v>
       </c>
       <c r="R21" s="8">
-        <v>8.0419999999999998</v>
+        <v>7.883</v>
       </c>
       <c r="S21" s="10">
         <f t="shared" si="12"/>
-        <v>12733150.957473265</v>
+        <v>12989978.434606114</v>
       </c>
       <c r="T21" s="5">
         <v>409600000</v>
       </c>
       <c r="U21" s="8">
-        <v>9.8320000000000007</v>
+        <v>9.5730000000000004</v>
       </c>
       <c r="V21" s="10">
         <f t="shared" si="13"/>
-        <v>41659886.086248979</v>
+        <v>42787005.118562624</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -6178,31 +6178,31 @@
         <v>3200000</v>
       </c>
       <c r="O22" s="8">
-        <v>97.494</v>
+        <v>96.257000000000005</v>
       </c>
       <c r="P22" s="10">
         <f t="shared" si="11"/>
-        <v>32822.53266867705</v>
+        <v>33244.335476900378</v>
       </c>
       <c r="Q22" s="5">
-        <v>25600000</v>
+        <v>51200000</v>
       </c>
       <c r="R22" s="8">
-        <v>5.0270000000000001</v>
+        <v>9.6050000000000004</v>
       </c>
       <c r="S22" s="10">
         <f t="shared" si="12"/>
-        <v>5092500.4973145016</v>
+        <v>5330557.0015616864</v>
       </c>
       <c r="T22" s="5">
         <v>51200000</v>
       </c>
       <c r="U22" s="8">
-        <v>7.2030000000000003</v>
+        <v>7.3810000000000002</v>
       </c>
       <c r="V22" s="10">
         <f t="shared" si="13"/>
-        <v>7108149.3822018597</v>
+        <v>6936729.4404552225</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -6253,31 +6253,31 @@
         <v>3200000</v>
       </c>
       <c r="O23" s="8">
-        <v>111.529</v>
+        <v>107.12</v>
       </c>
       <c r="P23" s="10">
         <f t="shared" si="11"/>
-        <v>28692.089053071399</v>
+        <v>29873.039581777444</v>
       </c>
       <c r="Q23" s="5">
         <v>12800000</v>
       </c>
       <c r="R23" s="8">
-        <v>6.0579999999999998</v>
+        <v>6.0549999999999997</v>
       </c>
       <c r="S23" s="10">
         <f t="shared" si="12"/>
-        <v>2112908.550676791</v>
+        <v>2113955.4087530966</v>
       </c>
       <c r="T23" s="5">
         <v>12800000</v>
       </c>
       <c r="U23" s="8">
-        <v>5.84</v>
+        <v>6.12</v>
       </c>
       <c r="V23" s="10">
         <f t="shared" si="13"/>
-        <v>2191780.8219178081</v>
+        <v>2091503.2679738561</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -6328,31 +6328,31 @@
         <v>3200000</v>
       </c>
       <c r="O24" s="8">
-        <v>123.244</v>
+        <v>118.057</v>
       </c>
       <c r="P24" s="10">
         <f t="shared" si="11"/>
-        <v>25964.752848008829</v>
+        <v>27105.550708556035</v>
       </c>
       <c r="Q24" s="5">
         <v>12800000</v>
       </c>
       <c r="R24" s="8">
-        <v>7.2610000000000001</v>
+        <v>7.5369999999999999</v>
       </c>
       <c r="S24" s="10">
         <f t="shared" si="12"/>
-        <v>1762842.5836661616</v>
+        <v>1698288.4436778559</v>
       </c>
       <c r="T24" s="5">
         <v>12800000</v>
       </c>
       <c r="U24" s="8">
-        <v>7.2759999999999998</v>
+        <v>7.5839999999999996</v>
       </c>
       <c r="V24" s="10">
         <f t="shared" si="13"/>
-        <v>1759208.3562396921</v>
+        <v>1687763.7130801689</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -6438,31 +6438,31 @@
         <v>3200000</v>
       </c>
       <c r="O27" s="8">
-        <v>86.546999999999997</v>
+        <v>85.010999999999996</v>
       </c>
       <c r="P27" s="10">
         <f>N27/O27</f>
-        <v>36974.129663650965</v>
+        <v>37642.187481620029</v>
       </c>
       <c r="Q27" s="5">
         <v>102400000</v>
       </c>
       <c r="R27" s="8">
-        <v>6.665</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="S27" s="10">
         <f>Q27/R27</f>
-        <v>15363840.96024006</v>
+        <v>16452442.159383032</v>
       </c>
       <c r="T27" s="5">
         <v>409600000</v>
       </c>
       <c r="U27" s="8">
-        <v>7.9119999999999999</v>
+        <v>5.6589999999999998</v>
       </c>
       <c r="V27" s="10">
         <f>T27/U27</f>
-        <v>51769464.105156727</v>
+        <v>72380279.201272309</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -6513,31 +6513,31 @@
         <v>3200000</v>
       </c>
       <c r="O28" s="8">
-        <v>99.692999999999998</v>
+        <v>95.278999999999996</v>
       </c>
       <c r="P28" s="10">
         <f t="shared" ref="P28:P32" si="18">N28/O28</f>
-        <v>32098.54252555345</v>
+        <v>33585.57499553942</v>
       </c>
       <c r="Q28" s="5">
         <v>102400000</v>
       </c>
       <c r="R28" s="8">
-        <v>6.3220000000000001</v>
+        <v>6.9470000000000001</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" ref="S28:S32" si="19">Q28/R28</f>
-        <v>16197405.884213855</v>
+        <v>14740175.615373543</v>
       </c>
       <c r="T28" s="5">
         <v>409600000</v>
       </c>
       <c r="U28" s="8">
-        <v>9.26</v>
+        <v>7.06</v>
       </c>
       <c r="V28" s="10">
         <f t="shared" ref="V28:V32" si="20">T28/U28</f>
-        <v>44233261.339092873</v>
+        <v>58016997.167138815</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -6588,31 +6588,31 @@
         <v>3200000</v>
       </c>
       <c r="O29" s="8">
-        <v>108.77500000000001</v>
+        <v>105.724</v>
       </c>
       <c r="P29" s="10">
         <f t="shared" si="18"/>
-        <v>29418.524477131694</v>
+        <v>30267.488933449356</v>
       </c>
       <c r="Q29" s="5">
-        <v>102400000</v>
+        <v>51200000</v>
       </c>
       <c r="R29" s="8">
-        <v>9.6969999999999992</v>
+        <v>5.0709999999999997</v>
       </c>
       <c r="S29" s="10">
         <f t="shared" si="19"/>
-        <v>10559967.000103125</v>
+        <v>10096627.88404654</v>
       </c>
       <c r="T29" s="5">
         <v>102400000</v>
       </c>
       <c r="U29" s="8">
-        <v>6.6740000000000004</v>
+        <v>6.4649999999999999</v>
       </c>
       <c r="V29" s="10">
         <f t="shared" si="20"/>
-        <v>15343122.565178303</v>
+        <v>15839133.797370456</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -6663,31 +6663,31 @@
         <v>3200000</v>
       </c>
       <c r="O30" s="8">
-        <v>118.691</v>
+        <v>117.69799999999999</v>
       </c>
       <c r="P30" s="10">
         <f t="shared" si="18"/>
-        <v>26960.763663630772</v>
+        <v>27188.227497493586</v>
       </c>
       <c r="Q30" s="5">
         <v>51200000</v>
       </c>
       <c r="R30" s="8">
-        <v>6.6459999999999999</v>
+        <v>7.0979999999999999</v>
       </c>
       <c r="S30" s="10">
         <f t="shared" si="19"/>
-        <v>7703882.0343063502</v>
+        <v>7213299.5209918292</v>
       </c>
       <c r="T30" s="5">
-        <v>51200000</v>
+        <v>102400000</v>
       </c>
       <c r="U30" s="8">
-        <v>5.1449999999999996</v>
+        <v>10.243</v>
       </c>
       <c r="V30" s="10">
         <f t="shared" si="20"/>
-        <v>9951409.1350826062</v>
+        <v>9997071.1705555003</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -6738,31 +6738,31 @@
         <v>3200000</v>
       </c>
       <c r="O31" s="8">
-        <v>130.46299999999999</v>
+        <v>127.82</v>
       </c>
       <c r="P31" s="10">
         <f t="shared" si="18"/>
-        <v>24528.027103469951</v>
+        <v>25035.205758097327</v>
       </c>
       <c r="Q31" s="5">
         <v>51200000</v>
       </c>
       <c r="R31" s="8">
-        <v>8.6349999999999998</v>
+        <v>8.9440000000000008</v>
       </c>
       <c r="S31" s="10">
         <f t="shared" si="19"/>
-        <v>5929357.2669368852</v>
+        <v>5724508.050089445</v>
       </c>
       <c r="T31" s="5">
         <v>51200000</v>
       </c>
       <c r="U31" s="8">
-        <v>6.819</v>
+        <v>6.8550000000000004</v>
       </c>
       <c r="V31" s="10">
         <f t="shared" si="20"/>
-        <v>7508432.3214547588</v>
+        <v>7469000.7293946017</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -6813,31 +6813,31 @@
         <v>3200000</v>
       </c>
       <c r="O32" s="5">
-        <v>139.91399999999999</v>
+        <v>138.018</v>
       </c>
       <c r="P32" s="10">
         <f t="shared" si="18"/>
-        <v>22871.192303843793</v>
+        <v>23185.381616890551</v>
       </c>
       <c r="Q32" s="5">
         <v>25600000</v>
       </c>
       <c r="R32" s="8">
-        <v>5.4560000000000004</v>
+        <v>5.1539999999999999</v>
       </c>
       <c r="S32" s="10">
         <f t="shared" si="19"/>
-        <v>4692082.11143695</v>
+        <v>4967015.9099728363</v>
       </c>
       <c r="T32" s="5">
         <v>51200000</v>
       </c>
       <c r="U32" s="8">
-        <v>8.7550000000000008</v>
+        <v>8.75</v>
       </c>
       <c r="V32" s="10">
         <f t="shared" si="20"/>
-        <v>5848086.8075385485</v>
+        <v>5851428.5714285718</v>
       </c>
     </row>
   </sheetData>
@@ -6864,7 +6864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -6926,15 +6926,15 @@
       </c>
       <c r="F2" s="4">
         <f>Bench1!P15/Bench1!P3</f>
-        <v>3.9091651119402986E-2</v>
+        <v>4.2014121370746858E-2</v>
       </c>
       <c r="G2" s="4">
         <f>Bench1!S15/Bench1!S3</f>
-        <v>3.0089457989826345</v>
+        <v>3.4733004503538494</v>
       </c>
       <c r="H2" s="4">
         <f>Bench1!V15/Bench1!V3</f>
-        <v>4.4484802623281618</v>
+        <v>4.4173054436793562</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
@@ -6961,15 +6961,15 @@
       </c>
       <c r="F3" s="4">
         <f>Bench1!P16/Bench1!P4</f>
-        <v>3.931207123553461E-2</v>
+        <v>4.1100101258498487E-2</v>
       </c>
       <c r="G3" s="4">
         <f>Bench1!S16/Bench1!S4</f>
-        <v>0.80396838465338383</v>
+        <v>0.72757580568344182</v>
       </c>
       <c r="H3" s="4">
         <f>Bench1!V16/Bench1!V4</f>
-        <v>2.5690420255807882</v>
+        <v>2.4382083108472745</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
@@ -6996,15 +6996,15 @@
       </c>
       <c r="F4" s="4">
         <f>Bench1!P17/Bench1!P5</f>
-        <v>3.6962778912150357E-2</v>
+        <v>3.8583740674041675E-2</v>
       </c>
       <c r="G4" s="4">
         <f>Bench1!S17/Bench1!S5</f>
-        <v>0.49971601666035592</v>
+        <v>0.47069092245497979</v>
       </c>
       <c r="H4" s="4">
         <f>Bench1!V17/Bench1!V5</f>
-        <v>1.9902439024390244</v>
+        <v>2.4415164123901989</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
@@ -7031,15 +7031,15 @@
       </c>
       <c r="F5" s="4">
         <f>Bench1!P18/Bench1!P6</f>
-        <v>3.6157084090691662E-2</v>
+        <v>3.7966607980059734E-2</v>
       </c>
       <c r="G5" s="4">
         <f>Bench1!S18/Bench1!S6</f>
-        <v>0.40770830625243731</v>
+        <v>0.37480650154798761</v>
       </c>
       <c r="H5" s="4">
         <f>Bench1!V18/Bench1!V6</f>
-        <v>2.0680361544782251</v>
+        <v>1.9692359137268014</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="2"/>
@@ -7066,15 +7066,15 @@
       </c>
       <c r="F6" s="4">
         <f>Bench1!P19/Bench1!P7</f>
-        <v>3.5028482894613286E-2</v>
+        <v>3.6516763117907601E-2</v>
       </c>
       <c r="G6" s="4">
         <f>Bench1!S19/Bench1!S7</f>
-        <v>0.27175697865353038</v>
+        <v>0.27897756031719251</v>
       </c>
       <c r="H6" s="4">
         <f>Bench1!V19/Bench1!V7</f>
-        <v>0.86628752810474796</v>
+        <v>0.86649006622516556</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
@@ -7101,15 +7101,15 @@
       </c>
       <c r="F7" s="4">
         <f>Bench1!P20/Bench1!P8</f>
-        <v>3.5803497085761866E-2</v>
+        <v>3.5759984754022478E-2</v>
       </c>
       <c r="G7" s="4">
         <f>Bench1!S20/Bench1!S8</f>
-        <v>0.27413866439812845</v>
+        <v>0.28673237300985599</v>
       </c>
       <c r="H7" s="4">
         <f>Bench1!V20/Bench1!V8</f>
-        <v>0.95492858815265746</v>
+        <v>0.94420441920750509</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
@@ -7136,15 +7136,15 @@
       </c>
       <c r="F8" s="4">
         <f>Bench1!P21/Bench1!P9</f>
-        <v>3.5166674469778544E-2</v>
+        <v>3.4527613775407168E-2</v>
       </c>
       <c r="G8" s="4">
         <f>Bench1!S21/Bench1!S9</f>
-        <v>0.26470405371798061</v>
+        <v>0.26404921984016239</v>
       </c>
       <c r="H8" s="4">
         <f>Bench1!V21/Bench1!V9</f>
-        <v>0.86147274206672098</v>
+        <v>0.90138932414081263</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
@@ -7171,15 +7171,15 @@
       </c>
       <c r="F9" s="4">
         <f>Bench1!P22/Bench1!P10</f>
-        <v>3.5012411020165342E-2</v>
+        <v>3.4210498976697798E-2</v>
       </c>
       <c r="G9" s="4">
         <f>Bench1!S22/Bench1!S10</f>
-        <v>0.11423314103839267</v>
+        <v>0.12375065070275898</v>
       </c>
       <c r="H9" s="4">
         <f>Bench1!V22/Bench1!V10</f>
-        <v>0.16043662362904343</v>
+        <v>0.16063202818046335</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
@@ -7206,15 +7206,15 @@
       </c>
       <c r="F10" s="4">
         <f>Bench1!P23/Bench1!P11</f>
-        <v>3.359664302558079E-2</v>
+        <v>3.431198655713219E-2</v>
       </c>
       <c r="G10" s="4">
         <f>Bench1!S23/Bench1!S11</f>
-        <v>5.3297292835919455E-2</v>
+        <v>5.1672171758876964E-2</v>
       </c>
       <c r="H10" s="4">
         <f>Bench1!V23/Bench1!V11</f>
-        <v>5.5404537671232865E-2</v>
+        <v>5.347222222222222E-2</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
@@ -7241,15 +7241,15 @@
       </c>
       <c r="F11" s="4">
         <f>Bench1!P24/Bench1!P12</f>
-        <v>3.408279510564409E-2</v>
+        <v>3.4961925171739079E-2</v>
       </c>
       <c r="G11" s="4">
         <f>Bench1!S24/Bench1!S12</f>
-        <v>4.6696391681586555E-2</v>
+        <v>4.4157158020432533E-2</v>
       </c>
       <c r="H11" s="4">
         <f>Bench1!V24/Bench1!V12</f>
-        <v>4.7227185266630015E-2</v>
+        <v>4.5053731540084387E-2</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
@@ -7361,15 +7361,15 @@
       </c>
       <c r="F3" s="4">
         <f>Bench1!P28/Bench1!P$27</f>
-        <v>0.86813517498721071</v>
+        <v>0.89223228623306294</v>
       </c>
       <c r="G3" s="4">
         <f>Bench1!S28/Bench1!S$27</f>
-        <v>1.0542549826004428</v>
+        <v>0.89592629912192323</v>
       </c>
       <c r="H3" s="4">
         <f>Bench1!V28/Bench1!V$27</f>
-        <v>0.85442764578833685</v>
+        <v>0.80155807365439102</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19">
@@ -7394,15 +7394,15 @@
       </c>
       <c r="F4" s="4">
         <f>Bench1!P29/Bench1!P$27</f>
-        <v>0.79565157435072398</v>
+        <v>0.80408421928795715</v>
       </c>
       <c r="G4" s="4">
         <f>Bench1!S29/Bench1!S$27</f>
-        <v>0.6873259771063216</v>
+        <v>0.61368566357720378</v>
       </c>
       <c r="H4" s="4">
         <f>Bench1!V29/Bench1!V$27</f>
-        <v>0.29637398861252617</v>
+        <v>0.2188321732405259</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19">
@@ -7427,15 +7427,15 @@
       </c>
       <c r="F5" s="4">
         <f>Bench1!P30/Bench1!P$27</f>
-        <v>0.72917912899882886</v>
+        <v>0.72228075243419598</v>
       </c>
       <c r="G5" s="4">
         <f>Bench1!S30/Bench1!S$27</f>
-        <v>0.50142943123683426</v>
+        <v>0.43843336151028467</v>
       </c>
       <c r="H5" s="4">
         <f>Bench1!V30/Bench1!V$27</f>
-        <v>0.19222546161321674</v>
+        <v>0.13811871522015035</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19">
@@ -7460,15 +7460,15 @@
       </c>
       <c r="F6" s="4">
         <f>Bench1!P31/Bench1!P$27</f>
-        <v>0.66338348803875435</v>
+        <v>0.6650837114692536</v>
       </c>
       <c r="G6" s="4">
         <f>Bench1!S31/Bench1!S$27</f>
-        <v>0.38592935726693689</v>
+        <v>0.34794275491949911</v>
       </c>
       <c r="H6" s="4">
         <f>Bench1!V31/Bench1!V$27</f>
-        <v>0.1450359290218507</v>
+        <v>0.10319110138584973</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19">
@@ -7493,15 +7493,15 @@
       </c>
       <c r="F7" s="4">
         <f>Bench1!P32/Bench1!P$27</f>
-        <v>0.61857283760024018</v>
+        <v>0.61594139894796329</v>
       </c>
       <c r="G7" s="4">
         <f>Bench1!S32/Bench1!S$27</f>
-        <v>0.30539772727272724</v>
+        <v>0.30190143577803646</v>
       </c>
       <c r="H7" s="4">
         <f>Bench1!V32/Bench1!V$27</f>
-        <v>0.11296402055968016</v>
+        <v>8.0842857142857147E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19">
